--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="14_{E7E331D1-8E9B-47B4-AC6C-2D8272A0A12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{03E4A0F4-0CCE-49ED-9D67-940F95571352}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="14_{E7E331D1-8E9B-47B4-AC6C-2D8272A0A12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F403604-52CA-469A-8A5B-D182CB5B0376}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$U$7:$U$24,Specifications!$Y$7:$Y$24,Specifications!$Y$28:$Y$37,Specifications!$U$28:$U$37,Specifications!$Q$28:$Q$37,Specifications!$M$28:$M$37,Specifications!$I$28:$I$37,Specifications!$I$39:$I$48,Specifications!$Q$39:$Q$48,Specifications!$U$39:$U$48,Specifications!$Y$39:$Y$48,Specifications!$Y$51:$Y$61,Specifications!$U$51:$U$61,Specifications!$Q$51:$Q$61,Specifications!$M$51:$M$61,Specifications!$I$51:$I$61,Specifications!$M$39:$M$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="98">
   <si>
     <t>Website</t>
   </si>
@@ -42,12 +45,6 @@
     <t>Fax</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Dropdown</t>
-  </si>
-  <si>
     <t>Salutation</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>not used</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>"snapADDY"</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>Default Value</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>CRM System: MS Dynamics</t>
   </si>
   <si>
@@ -262,15 +253,6 @@
   </si>
   <si>
     <t>Geschlecht</t>
-  </si>
-  <si>
-    <t>nicht benötigt</t>
-  </si>
-  <si>
-    <t>muss ausgefüllt sein</t>
-  </si>
-  <si>
-    <t>andere Bemerkungen</t>
   </si>
   <si>
     <t>Frage 1 : z.B. Branche</t>
@@ -367,6 +349,15 @@
       </rPr>
       <t>[Hier bitte Namen der Master-Vorlage einfügen]</t>
     </r>
+  </si>
+  <si>
+    <t>mögl. Notizen</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1774,9 +1765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
@@ -1823,6 +1812,34 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1862,39 +1879,33 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2189,18 +2200,18 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="firstColumn" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="firstColumn" dxfId="24"/>
+      <tableStyleElement type="firstRowStripe" dxfId="23"/>
+      <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF9DA600"/>
       <color rgb="FFB4C6E7"/>
       <color rgb="FF001E51"/>
-      <color rgb="FF9DA600"/>
       <color rgb="FFFE6C36"/>
       <color rgb="FFFEFFE1"/>
     </mruColors>
@@ -2824,32 +2835,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.6640625" customWidth="1"/>
     <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="1.5546875" customWidth="1" outlineLevel="1"/>
     <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="142" t="s">
-        <v>101</v>
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="118" t="s">
+        <v>94</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2858,9 +2869,9 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2869,111 +2880,111 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G3" s="59"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="61.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="40"/>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="137" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="137" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="O4" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="S4" s="128" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="129"/>
+      <c r="U4" s="130"/>
+      <c r="W4" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="129" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="O4" s="129" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="S4" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="T4" s="121"/>
-      <c r="U4" s="122"/>
-      <c r="W4" s="126" t="s">
-        <v>62</v>
-      </c>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="128"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="135"/>
+      <c r="Y4" s="136"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L6" s="70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="70" t="s">
-        <v>32</v>
-      </c>
       <c r="Q6" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="97" t="s">
+      <c r="U6" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="97" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y6" s="95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="113"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="25"/>
       <c r="E7" s="47"/>
       <c r="G7" s="72"/>
@@ -2986,543 +2997,535 @@
       <c r="O7" s="72"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="73"/>
-      <c r="S7" s="98"/>
+      <c r="S7" s="96"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="99"/>
-      <c r="W7" s="98"/>
+      <c r="U7" s="97"/>
+      <c r="W7" s="96"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="99"/>
-    </row>
-    <row r="8" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="97"/>
+    </row>
+    <row r="8" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="62" t="s">
-        <v>51</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C8" s="112"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="63"/>
       <c r="G8" s="74" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8" s="64"/>
       <c r="I8" s="75" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="J8" s="65"/>
       <c r="K8" s="74" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="75" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="O8" s="74"/>
       <c r="P8" s="64"/>
       <c r="Q8" s="75"/>
-      <c r="S8" s="100" t="s">
-        <v>44</v>
+      <c r="S8" s="98" t="s">
+        <v>42</v>
       </c>
       <c r="T8" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="101"/>
-      <c r="W8" s="100"/>
+        <v>43</v>
+      </c>
+      <c r="U8" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="W8" s="98"/>
       <c r="X8" s="64"/>
-      <c r="Y8" s="101"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y8" s="99"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="115" t="s">
-        <v>51</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="26"/>
       <c r="E9" s="48"/>
       <c r="G9" s="76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O9" s="76"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="77"/>
-      <c r="S9" s="102" t="s">
-        <v>46</v>
+      <c r="S9" s="100" t="s">
+        <v>44</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="U9" s="103"/>
-      <c r="W9" s="104"/>
+        <v>45</v>
+      </c>
+      <c r="U9" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="W9" s="102"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="103"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y9" s="101"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="115" t="s">
-        <v>51</v>
-      </c>
+      <c r="C10" s="113"/>
       <c r="D10" s="26"/>
       <c r="E10" s="48"/>
       <c r="G10" s="76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O10" s="76"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="77"/>
-      <c r="S10" s="104"/>
+      <c r="S10" s="102"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="103"/>
-      <c r="W10" s="104"/>
+      <c r="U10" s="101"/>
+      <c r="W10" s="102"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="103"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y10" s="101"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="115" t="s">
-        <v>51</v>
-      </c>
+      <c r="C11" s="113"/>
       <c r="D11" s="26"/>
       <c r="E11" s="48"/>
       <c r="G11" s="76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O11" s="76"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="77"/>
-      <c r="S11" s="104"/>
+      <c r="S11" s="102"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="103"/>
-      <c r="W11" s="104"/>
+      <c r="U11" s="101"/>
+      <c r="W11" s="102"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="103"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y11" s="101"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="115"/>
+        <v>64</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="26"/>
       <c r="E12" s="48"/>
       <c r="G12" s="76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="76"/>
       <c r="L12" s="5"/>
       <c r="M12" s="77"/>
       <c r="O12" s="76" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="104"/>
+        <v>39</v>
+      </c>
+      <c r="S12" s="102"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="103"/>
-      <c r="W12" s="104"/>
+      <c r="U12" s="101"/>
+      <c r="W12" s="102"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="103"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y12" s="101"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="22"/>
-      <c r="C13" s="115"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="26"/>
       <c r="E13" s="48"/>
       <c r="G13" s="72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="73" t="s">
-        <v>3</v>
+      <c r="I13" s="77" t="s">
+        <v>39</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="73" t="s">
-        <v>3</v>
+      <c r="M13" s="77" t="s">
+        <v>39</v>
       </c>
       <c r="O13" s="72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13" s="104"/>
+      <c r="Q13" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="102"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="103"/>
-      <c r="W13" s="104"/>
+      <c r="U13" s="101"/>
+      <c r="W13" s="102"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="103"/>
-    </row>
-    <row r="14" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y13" s="101"/>
+    </row>
+    <row r="14" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="60" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="61"/>
-      <c r="C14" s="114"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="62"/>
       <c r="E14" s="63"/>
       <c r="G14" s="78" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H14" s="66"/>
-      <c r="I14" s="79" t="s">
-        <v>3</v>
+      <c r="I14" s="77" t="s">
+        <v>39</v>
       </c>
       <c r="J14" s="65"/>
       <c r="K14" s="78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L14" s="66"/>
-      <c r="M14" s="79" t="s">
-        <v>3</v>
+      <c r="M14" s="77" t="s">
+        <v>39</v>
       </c>
       <c r="O14" s="78" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P14" s="66"/>
-      <c r="Q14" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="105"/>
+      <c r="Q14" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="103"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="106"/>
-      <c r="W14" s="105"/>
+      <c r="U14" s="104"/>
+      <c r="W14" s="103"/>
       <c r="X14" s="66"/>
-      <c r="Y14" s="106"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y14" s="104"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B15" s="23"/>
-      <c r="C15" s="115"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="26"/>
       <c r="E15" s="48"/>
-      <c r="G15" s="80" t="s">
-        <v>12</v>
+      <c r="G15" s="79" t="s">
+        <v>10</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="81" t="s">
-        <v>3</v>
+      <c r="I15" s="77" t="s">
+        <v>39</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="80" t="s">
-        <v>20</v>
+      <c r="K15" s="79" t="s">
+        <v>18</v>
       </c>
       <c r="L15" s="10"/>
-      <c r="M15" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="80" t="s">
-        <v>26</v>
+      <c r="M15" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="79" t="s">
+        <v>24</v>
       </c>
       <c r="P15" s="10"/>
-      <c r="Q15" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="104"/>
+      <c r="Q15" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="102"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="103"/>
-      <c r="W15" s="104"/>
+      <c r="U15" s="101"/>
+      <c r="W15" s="102"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="103"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y15" s="101"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="115"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="26"/>
       <c r="E16" s="48"/>
       <c r="G16" s="76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="76" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O16" s="76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="S16" s="104"/>
+        <v>39</v>
+      </c>
+      <c r="S16" s="102"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="103"/>
-      <c r="W16" s="104"/>
+      <c r="U16" s="101"/>
+      <c r="W16" s="102"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="103"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y16" s="101"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="115"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="26"/>
       <c r="E17" s="48"/>
       <c r="G17" s="76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O17" s="76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="104"/>
+        <v>39</v>
+      </c>
+      <c r="S17" s="102"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="103"/>
-      <c r="W17" s="104"/>
+      <c r="U17" s="101"/>
+      <c r="W17" s="102"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="103"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y17" s="101"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="115"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="26"/>
       <c r="E18" s="48"/>
       <c r="G18" s="76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O18" s="76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="104"/>
+        <v>39</v>
+      </c>
+      <c r="S18" s="102"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="103"/>
-      <c r="W18" s="104"/>
+      <c r="U18" s="101"/>
+      <c r="W18" s="102"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="103"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y18" s="101"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="115"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="26"/>
       <c r="E19" s="48"/>
       <c r="G19" s="76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O19" s="76"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="77"/>
-      <c r="S19" s="104"/>
+      <c r="Q19" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" s="102"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="103"/>
-      <c r="W19" s="104"/>
+      <c r="U19" s="101"/>
+      <c r="W19" s="102"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="103"/>
-    </row>
-    <row r="20" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y19" s="101"/>
+    </row>
+    <row r="20" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B20" s="61"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="62" t="s">
-        <v>51</v>
-      </c>
+      <c r="C20" s="112"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="63"/>
       <c r="G20" s="78" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="66"/>
-      <c r="I20" s="79" t="s">
-        <v>3</v>
+      <c r="I20" s="77" t="s">
+        <v>39</v>
       </c>
       <c r="J20" s="65"/>
       <c r="K20" s="78" t="s">
         <v>2</v>
       </c>
       <c r="L20" s="66"/>
-      <c r="M20" s="79" t="s">
-        <v>3</v>
+      <c r="M20" s="77" t="s">
+        <v>39</v>
       </c>
       <c r="O20" s="78" t="s">
         <v>2</v>
       </c>
       <c r="P20" s="66"/>
-      <c r="Q20" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="105"/>
+      <c r="Q20" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="103"/>
       <c r="T20" s="66"/>
-      <c r="U20" s="106"/>
-      <c r="W20" s="105"/>
+      <c r="U20" s="104"/>
+      <c r="W20" s="103"/>
       <c r="X20" s="66"/>
-      <c r="Y20" s="106"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y20" s="104"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="115" t="s">
-        <v>51</v>
-      </c>
+      <c r="C21" s="113"/>
       <c r="D21" s="26"/>
       <c r="E21" s="48"/>
       <c r="G21" s="76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="77" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O21" s="76"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="77"/>
-      <c r="S21" s="104"/>
+      <c r="Q21" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" s="102"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="103"/>
-      <c r="W21" s="104"/>
+      <c r="U21" s="101"/>
+      <c r="W21" s="102"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="103"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y21" s="101"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="115"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="26"/>
       <c r="E22" s="48"/>
       <c r="G22" s="72" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="73" t="s">
-        <v>3</v>
+      <c r="I22" s="77" t="s">
+        <v>39</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="72"/>
@@ -3532,22 +3535,22 @@
         <v>0</v>
       </c>
       <c r="P22" s="6"/>
-      <c r="Q22" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="98"/>
+      <c r="Q22" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="96"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="99"/>
-      <c r="W22" s="98"/>
+      <c r="U22" s="97"/>
+      <c r="W22" s="96"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="99"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y22" s="97"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="115"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="26"/>
       <c r="E23" s="48"/>
       <c r="G23" s="72"/>
@@ -3560,37 +3563,37 @@
       <c r="O23" s="72"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="73"/>
-      <c r="S23" s="98"/>
+      <c r="S23" s="96"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="99"/>
-      <c r="W23" s="98"/>
+      <c r="U23" s="97"/>
+      <c r="W23" s="96"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="99"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y23" s="97"/>
+    </row>
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="116"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="27"/>
       <c r="E24" s="49"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="84"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="82"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="84"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="84"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="108"/>
-      <c r="U24" s="109"/>
-      <c r="W24" s="107"/>
-      <c r="X24" s="108"/>
-      <c r="Y24" s="109"/>
-    </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="80"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="82"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="82"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="107"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="107"/>
+    </row>
+    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G25" s="8"/>
       <c r="H25" s="1"/>
       <c r="I25" s="9"/>
@@ -3601,115 +3604,118 @@
       <c r="O25" s="8"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="9"/>
-      <c r="S25" s="93"/>
+      <c r="S25" s="91"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="94"/>
+      <c r="U25" s="92"/>
       <c r="W25" s="8"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="G26" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="131"/>
-      <c r="I26" s="132"/>
+      <c r="G26" s="138" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="139"/>
+      <c r="I26" s="140"/>
       <c r="J26" s="17"/>
-      <c r="K26" s="130" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="131"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="132"/>
+      <c r="K26" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="139"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="17" t="e">
+        <f>fieldType</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O26" s="138" t="s">
+        <v>56</v>
+      </c>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="140"/>
       <c r="R26" s="17"/>
-      <c r="S26" s="123" t="s">
-        <v>61</v>
-      </c>
-      <c r="T26" s="124"/>
-      <c r="U26" s="125"/>
+      <c r="S26" s="131" t="s">
+        <v>57</v>
+      </c>
+      <c r="T26" s="132"/>
+      <c r="U26" s="133"/>
       <c r="V26" s="17"/>
-      <c r="W26" s="123" t="s">
-        <v>61</v>
-      </c>
-      <c r="X26" s="124"/>
-      <c r="Y26" s="125"/>
-    </row>
-    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W26" s="131" t="s">
+        <v>57</v>
+      </c>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="133"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="54" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G27" s="69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H27" s="70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I27" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="70" t="s">
-        <v>32</v>
-      </c>
       <c r="M27" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="O27" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" s="70" t="s">
-        <v>32</v>
-      </c>
       <c r="Q27" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="S27" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="T27" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="U27" s="119" t="s">
+      <c r="U27" s="117" t="s">
+        <v>28</v>
+      </c>
+      <c r="W27" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="W27" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="X27" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y27" s="119" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y27" s="117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="30"/>
@@ -3717,7 +3723,7 @@
       <c r="G28" s="76"/>
       <c r="H28" s="5"/>
       <c r="I28" s="77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28" s="76"/>
       <c r="L28" s="5"/>
@@ -3725,19 +3731,19 @@
       <c r="O28" s="76"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="77"/>
-      <c r="S28" s="104"/>
+      <c r="S28" s="102"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="103"/>
-      <c r="W28" s="104"/>
+      <c r="U28" s="101"/>
+      <c r="W28" s="102"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="103"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y28" s="101"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="31"/>
@@ -3745,7 +3751,7 @@
       <c r="G29" s="76"/>
       <c r="H29" s="5"/>
       <c r="I29" s="77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29" s="76"/>
       <c r="L29" s="5"/>
@@ -3753,19 +3759,19 @@
       <c r="O29" s="76"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="77"/>
-      <c r="S29" s="104"/>
+      <c r="S29" s="102"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="103"/>
-      <c r="W29" s="104"/>
+      <c r="U29" s="101"/>
+      <c r="W29" s="102"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="103"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y29" s="101"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="31"/>
@@ -3779,19 +3785,19 @@
       <c r="O30" s="76"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="77"/>
-      <c r="S30" s="104"/>
+      <c r="S30" s="102"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="103"/>
-      <c r="W30" s="104"/>
+      <c r="U30" s="101"/>
+      <c r="W30" s="102"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="103"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y30" s="101"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="31"/>
@@ -3805,16 +3811,16 @@
       <c r="O31" s="76"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="77"/>
-      <c r="S31" s="104"/>
+      <c r="S31" s="102"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="103"/>
-      <c r="W31" s="104"/>
+      <c r="U31" s="101"/>
+      <c r="W31" s="102"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="103"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y31" s="101"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="37"/>
@@ -3829,16 +3835,16 @@
       <c r="O32" s="76"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="77"/>
-      <c r="S32" s="104"/>
+      <c r="S32" s="102"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="103"/>
-      <c r="W32" s="104"/>
+      <c r="U32" s="101"/>
+      <c r="W32" s="102"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="103"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y32" s="101"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="37"/>
@@ -3853,16 +3859,16 @@
       <c r="O33" s="76"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="77"/>
-      <c r="S33" s="104"/>
+      <c r="S33" s="102"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="103"/>
-      <c r="W33" s="104"/>
+      <c r="U33" s="101"/>
+      <c r="W33" s="102"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="103"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y33" s="101"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="37"/>
@@ -3877,16 +3883,16 @@
       <c r="O34" s="76"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="77"/>
-      <c r="S34" s="104"/>
+      <c r="S34" s="102"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="103"/>
-      <c r="W34" s="104"/>
+      <c r="U34" s="101"/>
+      <c r="W34" s="102"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="103"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y34" s="101"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B35" s="31"/>
       <c r="C35" s="37"/>
@@ -3901,16 +3907,16 @@
       <c r="O35" s="76"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="77"/>
-      <c r="S35" s="104"/>
+      <c r="S35" s="102"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="103"/>
-      <c r="W35" s="104"/>
+      <c r="U35" s="101"/>
+      <c r="W35" s="102"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="103"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y35" s="101"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="37"/>
@@ -3925,98 +3931,98 @@
       <c r="O36" s="76"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="77"/>
-      <c r="S36" s="104"/>
+      <c r="S36" s="102"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="103"/>
-      <c r="W36" s="104"/>
+      <c r="U36" s="101"/>
+      <c r="W36" s="102"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="103"/>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y36" s="101"/>
+    </row>
+    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="38"/>
       <c r="D37" s="32"/>
       <c r="E37" s="46"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="82"/>
       <c r="K37" s="72"/>
       <c r="L37" s="6"/>
       <c r="M37" s="73"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="83"/>
-      <c r="Q37" s="84"/>
-      <c r="S37" s="98"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="82"/>
+      <c r="S37" s="96"/>
       <c r="T37" s="6"/>
-      <c r="U37" s="99"/>
-      <c r="W37" s="98"/>
+      <c r="U37" s="97"/>
+      <c r="W37" s="96"/>
       <c r="X37" s="6"/>
-      <c r="Y37" s="99"/>
-    </row>
-    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y37" s="97"/>
+    </row>
+    <row r="38" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G38" s="69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H38" s="70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I38" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="87" t="s">
+      <c r="M38" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="O38" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="P38" s="70" t="s">
-        <v>32</v>
-      </c>
       <c r="Q38" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="S38" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="S38" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="T38" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="U38" s="112" t="s">
+      <c r="U38" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="W38" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="X38" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="W38" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="X38" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y38" s="112" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y38" s="110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="36"/>
@@ -4025,22 +4031,22 @@
       <c r="G39" s="76"/>
       <c r="H39" s="5"/>
       <c r="I39" s="77"/>
-      <c r="K39" s="88"/>
+      <c r="K39" s="86"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="89"/>
+      <c r="M39" s="87"/>
       <c r="O39" s="76"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="77"/>
-      <c r="S39" s="104"/>
+      <c r="S39" s="102"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="103"/>
-      <c r="W39" s="104"/>
+      <c r="U39" s="101"/>
+      <c r="W39" s="102"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="103"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y39" s="101"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B40" s="31"/>
       <c r="C40" s="37"/>
@@ -4049,22 +4055,22 @@
       <c r="G40" s="76"/>
       <c r="H40" s="5"/>
       <c r="I40" s="77"/>
-      <c r="K40" s="88"/>
+      <c r="K40" s="86"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="89"/>
+      <c r="M40" s="87"/>
       <c r="O40" s="76"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="77"/>
-      <c r="S40" s="104"/>
+      <c r="S40" s="102"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="103"/>
-      <c r="W40" s="104"/>
+      <c r="U40" s="101"/>
+      <c r="W40" s="102"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="103"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y40" s="101"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B41" s="31"/>
       <c r="C41" s="37"/>
@@ -4073,22 +4079,22 @@
       <c r="G41" s="76"/>
       <c r="H41" s="5"/>
       <c r="I41" s="77"/>
-      <c r="K41" s="88"/>
+      <c r="K41" s="86"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="89"/>
+      <c r="M41" s="87"/>
       <c r="O41" s="76"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="77"/>
-      <c r="S41" s="104"/>
+      <c r="S41" s="102"/>
       <c r="T41" s="5"/>
-      <c r="U41" s="103"/>
-      <c r="W41" s="104"/>
+      <c r="U41" s="101"/>
+      <c r="W41" s="102"/>
       <c r="X41" s="5"/>
-      <c r="Y41" s="103"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y41" s="101"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="37"/>
@@ -4097,22 +4103,22 @@
       <c r="G42" s="76"/>
       <c r="H42" s="5"/>
       <c r="I42" s="77"/>
-      <c r="K42" s="88"/>
+      <c r="K42" s="86"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="89"/>
+      <c r="M42" s="87"/>
       <c r="O42" s="76"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="77"/>
-      <c r="S42" s="104"/>
+      <c r="S42" s="102"/>
       <c r="T42" s="5"/>
-      <c r="U42" s="103"/>
-      <c r="W42" s="104"/>
+      <c r="U42" s="101"/>
+      <c r="W42" s="102"/>
       <c r="X42" s="5"/>
-      <c r="Y42" s="103"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y42" s="101"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="37"/>
@@ -4121,22 +4127,22 @@
       <c r="G43" s="76"/>
       <c r="H43" s="5"/>
       <c r="I43" s="77"/>
-      <c r="K43" s="88"/>
+      <c r="K43" s="86"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="89"/>
+      <c r="M43" s="87"/>
       <c r="O43" s="76"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="77"/>
-      <c r="S43" s="104"/>
+      <c r="S43" s="102"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="103"/>
-      <c r="W43" s="104"/>
+      <c r="U43" s="101"/>
+      <c r="W43" s="102"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="103"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y43" s="101"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="37"/>
@@ -4145,22 +4151,22 @@
       <c r="G44" s="76"/>
       <c r="H44" s="5"/>
       <c r="I44" s="77"/>
-      <c r="K44" s="88"/>
+      <c r="K44" s="86"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="89"/>
+      <c r="M44" s="87"/>
       <c r="O44" s="76"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="77"/>
-      <c r="S44" s="104"/>
+      <c r="S44" s="102"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="103"/>
-      <c r="W44" s="104"/>
+      <c r="U44" s="101"/>
+      <c r="W44" s="102"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="103"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y44" s="101"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B45" s="31"/>
       <c r="C45" s="37"/>
@@ -4169,22 +4175,22 @@
       <c r="G45" s="76"/>
       <c r="H45" s="5"/>
       <c r="I45" s="77"/>
-      <c r="K45" s="88"/>
+      <c r="K45" s="86"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="89"/>
+      <c r="M45" s="87"/>
       <c r="O45" s="76"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="77"/>
-      <c r="S45" s="104"/>
+      <c r="S45" s="102"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="103"/>
-      <c r="W45" s="104"/>
+      <c r="U45" s="101"/>
+      <c r="W45" s="102"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="103"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y45" s="101"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B46" s="31"/>
       <c r="C46" s="37"/>
@@ -4193,22 +4199,22 @@
       <c r="G46" s="76"/>
       <c r="H46" s="5"/>
       <c r="I46" s="77"/>
-      <c r="K46" s="88"/>
+      <c r="K46" s="86"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="89"/>
+      <c r="M46" s="87"/>
       <c r="O46" s="76"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="77"/>
-      <c r="S46" s="104"/>
+      <c r="S46" s="102"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="103"/>
-      <c r="W46" s="104"/>
+      <c r="U46" s="101"/>
+      <c r="W46" s="102"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="103"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y46" s="101"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B47" s="31"/>
       <c r="C47" s="37"/>
@@ -4217,117 +4223,117 @@
       <c r="G47" s="76"/>
       <c r="H47" s="5"/>
       <c r="I47" s="77"/>
-      <c r="K47" s="88"/>
+      <c r="K47" s="86"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="89"/>
+      <c r="M47" s="87"/>
       <c r="O47" s="76"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="77"/>
-      <c r="S47" s="104"/>
+      <c r="S47" s="102"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="103"/>
-      <c r="W47" s="104"/>
+      <c r="U47" s="101"/>
+      <c r="W47" s="102"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="103"/>
-    </row>
-    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y47" s="101"/>
+    </row>
+    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B48" s="32"/>
       <c r="C48" s="38"/>
       <c r="D48" s="32"/>
       <c r="E48" s="46"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="84"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="91"/>
-      <c r="M48" s="92"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="83"/>
-      <c r="Q48" s="84"/>
-      <c r="S48" s="107"/>
-      <c r="T48" s="108"/>
-      <c r="U48" s="109"/>
-      <c r="W48" s="107"/>
-      <c r="X48" s="108"/>
-      <c r="Y48" s="109"/>
-    </row>
-    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="80"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="82"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="90"/>
+      <c r="O48" s="80"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="82"/>
+      <c r="S48" s="105"/>
+      <c r="T48" s="106"/>
+      <c r="U48" s="107"/>
+      <c r="W48" s="105"/>
+      <c r="X48" s="106"/>
+      <c r="Y48" s="107"/>
+    </row>
+    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G50" s="69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H50" s="70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I50" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="L50" s="70" t="s">
-        <v>32</v>
-      </c>
       <c r="M50" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="O50" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="P50" s="70" t="s">
-        <v>32</v>
-      </c>
       <c r="Q50" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="S50" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="T50" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="S50" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="T50" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="U50" s="112" t="s">
+      <c r="U50" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="W50" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="X50" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="W50" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="X50" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y50" s="112" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y50" s="110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="133" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="134"/>
-      <c r="D51" s="135"/>
+        <v>85</v>
+      </c>
+      <c r="B51" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="126"/>
+      <c r="D51" s="127"/>
       <c r="E51" s="41"/>
       <c r="G51" s="76"/>
       <c r="H51" s="5"/>
@@ -4338,22 +4344,22 @@
       <c r="O51" s="76"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="77"/>
-      <c r="S51" s="104"/>
+      <c r="S51" s="102"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="103"/>
-      <c r="W51" s="104"/>
+      <c r="U51" s="101"/>
+      <c r="W51" s="102"/>
       <c r="X51" s="5"/>
-      <c r="Y51" s="103"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y51" s="101"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="137"/>
-      <c r="D52" s="138"/>
+        <v>87</v>
+      </c>
+      <c r="B52" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="120"/>
+      <c r="D52" s="121"/>
       <c r="E52" s="42"/>
       <c r="G52" s="76"/>
       <c r="H52" s="5"/>
@@ -4364,22 +4370,22 @@
       <c r="O52" s="76"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="77"/>
-      <c r="S52" s="104"/>
+      <c r="S52" s="102"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="103"/>
-      <c r="W52" s="104"/>
+      <c r="U52" s="101"/>
+      <c r="W52" s="102"/>
       <c r="X52" s="5"/>
-      <c r="Y52" s="103"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y52" s="101"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="136" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="137"/>
-      <c r="D53" s="138"/>
+        <v>89</v>
+      </c>
+      <c r="B53" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="120"/>
+      <c r="D53" s="121"/>
       <c r="E53" s="42"/>
       <c r="G53" s="76"/>
       <c r="H53" s="5"/>
@@ -4390,22 +4396,22 @@
       <c r="O53" s="76"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="77"/>
-      <c r="S53" s="104"/>
+      <c r="S53" s="102"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="103"/>
-      <c r="W53" s="104"/>
+      <c r="U53" s="101"/>
+      <c r="W53" s="102"/>
       <c r="X53" s="5"/>
-      <c r="Y53" s="103"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y53" s="101"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" s="136" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="137"/>
-      <c r="D54" s="138"/>
+        <v>91</v>
+      </c>
+      <c r="B54" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="120"/>
+      <c r="D54" s="121"/>
       <c r="E54" s="42"/>
       <c r="G54" s="76"/>
       <c r="H54" s="5"/>
@@ -4416,33 +4422,33 @@
       <c r="O54" s="76"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="77"/>
-      <c r="S54" s="104"/>
+      <c r="S54" s="102"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="103"/>
-      <c r="W54" s="104"/>
+      <c r="U54" s="101"/>
+      <c r="W54" s="102"/>
       <c r="X54" s="5"/>
-      <c r="Y54" s="103"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y54" s="101"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="136" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="137"/>
-      <c r="D55" s="138"/>
+        <v>93</v>
+      </c>
+      <c r="B55" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="120"/>
+      <c r="D55" s="121"/>
       <c r="E55" s="42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G55" s="76" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I55" s="77" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K55" s="76"/>
       <c r="L55" s="5"/>
@@ -4450,14 +4456,14 @@
       <c r="O55" s="76"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="77"/>
-      <c r="S55" s="104"/>
+      <c r="S55" s="102"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="103"/>
-      <c r="W55" s="104"/>
+      <c r="U55" s="101"/>
+      <c r="W55" s="102"/>
       <c r="X55" s="5"/>
-      <c r="Y55" s="103"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y55" s="101"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="34"/>
       <c r="B56" s="55"/>
       <c r="C56" s="56"/>
@@ -4472,18 +4478,18 @@
       <c r="O56" s="76"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="77"/>
-      <c r="S56" s="104"/>
+      <c r="S56" s="102"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="103"/>
-      <c r="W56" s="104"/>
+      <c r="U56" s="101"/>
+      <c r="W56" s="102"/>
       <c r="X56" s="5"/>
-      <c r="Y56" s="103"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y56" s="101"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="34"/>
-      <c r="B57" s="136"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="138"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="121"/>
       <c r="E57" s="42"/>
       <c r="G57" s="76"/>
       <c r="H57" s="5"/>
@@ -4494,18 +4500,18 @@
       <c r="O57" s="76"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="77"/>
-      <c r="S57" s="104"/>
+      <c r="S57" s="102"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="103"/>
-      <c r="W57" s="104"/>
+      <c r="U57" s="101"/>
+      <c r="W57" s="102"/>
       <c r="X57" s="5"/>
-      <c r="Y57" s="103"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y57" s="101"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="34"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="138"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="121"/>
       <c r="E58" s="42"/>
       <c r="G58" s="76"/>
       <c r="H58" s="5"/>
@@ -4516,18 +4522,18 @@
       <c r="O58" s="76"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="77"/>
-      <c r="S58" s="104"/>
+      <c r="S58" s="102"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="103"/>
-      <c r="W58" s="104"/>
+      <c r="U58" s="101"/>
+      <c r="W58" s="102"/>
       <c r="X58" s="5"/>
-      <c r="Y58" s="103"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y58" s="101"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="34"/>
-      <c r="B59" s="136"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="138"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="121"/>
       <c r="E59" s="42"/>
       <c r="G59" s="76"/>
       <c r="H59" s="5"/>
@@ -4538,18 +4544,18 @@
       <c r="O59" s="76"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="77"/>
-      <c r="S59" s="104"/>
+      <c r="S59" s="102"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="103"/>
-      <c r="W59" s="104"/>
+      <c r="U59" s="101"/>
+      <c r="W59" s="102"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="103"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y59" s="101"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="34"/>
-      <c r="B60" s="136"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="138"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="121"/>
       <c r="E60" s="42"/>
       <c r="G60" s="76"/>
       <c r="H60" s="5"/>
@@ -4560,59 +4566,50 @@
       <c r="O60" s="76"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="77"/>
-      <c r="S60" s="104"/>
+      <c r="S60" s="102"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="103"/>
-      <c r="W60" s="104"/>
+      <c r="U60" s="101"/>
+      <c r="W60" s="102"/>
       <c r="X60" s="5"/>
-      <c r="Y60" s="103"/>
-    </row>
-    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y60" s="101"/>
+    </row>
+    <row r="61" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="35"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="141"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="124"/>
       <c r="E61" s="43"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="84"/>
-      <c r="K61" s="82"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="84"/>
-      <c r="O61" s="82"/>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="84"/>
-      <c r="S61" s="107"/>
-      <c r="T61" s="108"/>
-      <c r="U61" s="109"/>
-      <c r="W61" s="107"/>
-      <c r="X61" s="108"/>
-      <c r="Y61" s="109"/>
-    </row>
-    <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="82"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="82"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="82"/>
+      <c r="S61" s="105"/>
+      <c r="T61" s="106"/>
+      <c r="U61" s="107"/>
+      <c r="W61" s="105"/>
+      <c r="X61" s="106"/>
+      <c r="Y61" s="107"/>
+    </row>
+    <row r="62" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="c8EEcgg7c/OT6veU/C3xWZbRprRxXTGRlRDOOnMXwDGvoWL6JOeB1maVWmy1Xw1auZ6GVMf1iSDLpYVZbPMLvw==" saltValue="fLEZ+YE5W3cU2B+blIZxXg==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="boxHoXBX34oUrLUM+h6Wl+v1yk0Mbc8Hmvviu4+faSLpfMLPm7RW8r+t1/6EAnPNbmhwbUKnmUg10Y5G+TRFzw==" saltValue="FOp4u7R0PjClGdxDUddDxQ==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
   <protectedRanges>
+    <protectedRange sqref="S4:Y61" name="customEntities"/>
+    <protectedRange sqref="A51:D55" name="Questionnaire_3"/>
+    <protectedRange sqref="A39:A48" name="Questionnaire_2"/>
+    <protectedRange sqref="A28:A37" name="Questionnaire_1"/>
+    <protectedRange sqref="B8:B12" name="Contact Fields_2"/>
+    <protectedRange sqref="A8:A23" name="Contact Fields_1"/>
+    <protectedRange sqref="B28:Y37 B39:Y48 A56:Y61 A38:E38 E51:Y55" name="Questionnaire"/>
+    <protectedRange sqref="A7:Y7 A24:Y24 B23:Y23 C8:Y8 B13:H22 C9:H12 I9:Y22" name="Contact Fields"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="A7:Y7 A24:Y24 B13:Y23 C8:Y12" name="Contact Fields"/>
-    <protectedRange sqref="B28:Y37 B39:Y48 A56:Y61 A38:E38 E51:Y55" name="Questionnaire"/>
-    <protectedRange sqref="A8:A23" name="Contact Fields_1"/>
-    <protectedRange sqref="B8:B12" name="Contact Fields_2"/>
-    <protectedRange sqref="A28:A37" name="Questionnaire_1"/>
-    <protectedRange sqref="A39:A48" name="Questionnaire_2"/>
-    <protectedRange sqref="A51:D55" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="20">
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="S26:U26"/>
     <mergeCell ref="W4:Y4"/>
@@ -4623,17 +4620,35 @@
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A24:AG27 B13:AG23 C8:AG12 A38:AG38 B28:AG37 B39:AG48">
-    <cfRule type="expression" dxfId="19" priority="19">
+  <conditionalFormatting sqref="A24:AG27 A38:AG38 B28:AG37 B39:AG48 I9:I22 C8:AG11 B23:AG23 B13:P22 C12:P12 R12:AG22">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51:Y61">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$C51="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$D51="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S51:U61">
     <cfRule type="expression" dxfId="17" priority="17">
       <formula>$C51="x"</formula>
     </cfRule>
@@ -4641,7 +4656,7 @@
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S51:U61">
+  <conditionalFormatting sqref="O51:Q61">
     <cfRule type="expression" dxfId="15" priority="15">
       <formula>$C51="x"</formula>
     </cfRule>
@@ -4649,7 +4664,7 @@
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O51:Q61">
+  <conditionalFormatting sqref="K51:M61">
     <cfRule type="expression" dxfId="13" priority="13">
       <formula>$C51="x"</formula>
     </cfRule>
@@ -4657,7 +4672,7 @@
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:M61">
+  <conditionalFormatting sqref="G51:I61">
     <cfRule type="expression" dxfId="11" priority="11">
       <formula>$C51="x"</formula>
     </cfRule>
@@ -4665,15 +4680,15 @@
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:I61">
+  <conditionalFormatting sqref="A8:A23">
     <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$C51="x"</formula>
+      <formula>$C8="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$D51="x"</formula>
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:A23">
+  <conditionalFormatting sqref="B8:B12">
     <cfRule type="expression" dxfId="7" priority="7">
       <formula>$C8="x"</formula>
     </cfRule>
@@ -4681,30 +4696,38 @@
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B12">
+  <conditionalFormatting sqref="A28:A37">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C8="x"</formula>
+      <formula>$C28="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A37">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C28="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$D28="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:A48">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$C39="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$D39="x"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:Q22">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C12="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D12="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D24 C28:D37 C39:D48" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
+      <formula1>"x"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M39:M48 I7:I24 M7:M24 U7:U24 Y7:Y24 Y28:Y37 U28:U37 Q28:Q37 M28:M37 I28:I37 I39:I48 Q39:Q48 U39:U48 Y39:Y48 Y51:Y61 U51:U61 Q51:Q61 M51:M61 I51:I61 Q7:Q24" xr:uid="{602B57E5-9BC3-430C-9CF1-45F2FF9C756D}">
+      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4712,21 +4735,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4935,32 +4943,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4977,4 +4975,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="14_{E7E331D1-8E9B-47B4-AC6C-2D8272A0A12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F403604-52CA-469A-8A5B-D182CB5B0376}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="14_{E7E331D1-8E9B-47B4-AC6C-2D8272A0A12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4126F1FC-571E-4094-AE60-404E374080FE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="98">
   <si>
     <t>Website</t>
   </si>
@@ -117,18 +117,12 @@
     <t>BillingCountry</t>
   </si>
   <si>
-    <t>Field name</t>
-  </si>
-  <si>
     <t>Field type</t>
   </si>
   <si>
     <t>snapADDY</t>
   </si>
   <si>
-    <t>API Name</t>
-  </si>
-  <si>
     <t>snapADDY - Contact Fields</t>
   </si>
   <si>
@@ -175,12 +169,6 @@
   </si>
   <si>
     <t>Field Value</t>
-  </si>
-  <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>not used</t>
   </si>
   <si>
     <t>"snapADDY"</t>
@@ -358,6 +346,18 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>Schema name</t>
+  </si>
+  <si>
+    <t>Display name</t>
+  </si>
+  <si>
+    <t>Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Nicht benötigt</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="91">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -1270,51 +1270,6 @@
       <left style="thick">
         <color rgb="FF002060"/>
       </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF002060"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF002060"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF002060"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
@@ -1530,45 +1485,6 @@
       <left style="thick">
         <color rgb="FFB4C6E7"/>
       </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFB4C6E7"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFB4C6E7"/>
-      </left>
       <right/>
       <top style="thick">
         <color rgb="FFB4C6E7"/>
@@ -1637,7 +1553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1769,34 +1685,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1809,9 +1719,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1849,13 +1756,13 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1870,13 +1777,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -2836,31 +2743,31 @@
   <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" customWidth="1"/>
-    <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5546875" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="19" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1"/>
+    <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="118" t="s">
-        <v>94</v>
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="109" t="s">
+        <v>90</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2869,9 +2776,9 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2880,111 +2787,111 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="59"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:25" ht="61.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="81" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="39" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="E4" s="40"/>
-      <c r="G4" s="137" t="s">
+      <c r="G4" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="O4" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="S4" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="120"/>
+      <c r="U4" s="121"/>
+      <c r="W4" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="137" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="O4" s="137" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="S4" s="128" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" s="129"/>
-      <c r="U4" s="130"/>
-      <c r="W4" s="134" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="136"/>
-    </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X4" s="126"/>
+      <c r="Y4" s="127"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
       <c r="E6" s="50" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G6" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="71" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="71" t="s">
-        <v>28</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="71" t="s">
-        <v>28</v>
-      </c>
       <c r="O6" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="93" t="s">
+      <c r="S6" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="T6" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="93" t="s">
+      <c r="W6" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="X6" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y6" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="X6" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y6" s="95" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="111"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="25"/>
       <c r="E7" s="47"/>
       <c r="G7" s="72"/>
@@ -2997,173 +2904,191 @@
       <c r="O7" s="72"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="73"/>
-      <c r="S7" s="96"/>
+      <c r="S7" s="93"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="97"/>
-      <c r="W7" s="96"/>
+      <c r="U7" s="94"/>
+      <c r="W7" s="93"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="97"/>
-    </row>
-    <row r="8" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y7" s="94"/>
+    </row>
+    <row r="8" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="112"/>
+        <v>91</v>
+      </c>
+      <c r="C8" s="106"/>
       <c r="D8" s="62"/>
       <c r="E8" s="63"/>
       <c r="G8" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="64"/>
+      <c r="H8" s="64" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J8" s="65"/>
       <c r="K8" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="64"/>
+      <c r="L8" s="64" t="s">
+        <v>3</v>
+      </c>
       <c r="M8" s="75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O8" s="74"/>
       <c r="P8" s="64"/>
       <c r="Q8" s="75"/>
-      <c r="S8" s="98" t="s">
-        <v>42</v>
+      <c r="S8" s="95" t="s">
+        <v>40</v>
       </c>
       <c r="T8" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="W8" s="98"/>
+        <v>41</v>
+      </c>
+      <c r="U8" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="W8" s="95"/>
       <c r="X8" s="64"/>
-      <c r="Y8" s="99"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y8" s="96"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="113"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="26"/>
       <c r="E9" s="48"/>
       <c r="G9" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I9" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M9" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O9" s="76"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="77"/>
-      <c r="S9" s="100" t="s">
-        <v>44</v>
+      <c r="S9" s="97" t="s">
+        <v>42</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="W9" s="102"/>
+        <v>43</v>
+      </c>
+      <c r="U9" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="W9" s="99"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="101"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y9" s="98"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="113"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="26"/>
       <c r="E10" s="48"/>
       <c r="G10" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I10" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="M10" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O10" s="76"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="77"/>
-      <c r="S10" s="102"/>
+      <c r="S10" s="99"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="101"/>
-      <c r="W10" s="102"/>
+      <c r="U10" s="98"/>
+      <c r="W10" s="99"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="101"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y10" s="98"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="113"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="26"/>
       <c r="E11" s="48"/>
       <c r="G11" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I11" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="M11" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O11" s="76"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="77"/>
-      <c r="S11" s="102"/>
+      <c r="S11" s="99"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="101"/>
-      <c r="W11" s="102"/>
+      <c r="U11" s="98"/>
+      <c r="W11" s="99"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="101"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y11" s="98"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="113"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="26"/>
       <c r="E12" s="48"/>
       <c r="G12" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I12" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="76"/>
@@ -3172,360 +3097,416 @@
       <c r="O12" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="5"/>
+      <c r="P12" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Q12" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" s="102"/>
+        <v>37</v>
+      </c>
+      <c r="S12" s="99"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="101"/>
-      <c r="W12" s="102"/>
+      <c r="U12" s="98"/>
+      <c r="W12" s="99"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="101"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y12" s="98"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="22"/>
-      <c r="C13" s="113"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="26"/>
       <c r="E13" s="48"/>
       <c r="G13" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="I13" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="6"/>
       <c r="M13" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P13" s="6"/>
       <c r="Q13" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="102"/>
+        <v>37</v>
+      </c>
+      <c r="S13" s="99"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="101"/>
-      <c r="W13" s="102"/>
+      <c r="U13" s="98"/>
+      <c r="W13" s="99"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="101"/>
-    </row>
-    <row r="14" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y13" s="98"/>
+    </row>
+    <row r="14" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="61"/>
-      <c r="C14" s="112"/>
+      <c r="C14" s="106"/>
       <c r="D14" s="62"/>
       <c r="E14" s="63"/>
       <c r="G14" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="66"/>
+      <c r="H14" s="66" t="s">
+        <v>9</v>
+      </c>
       <c r="I14" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J14" s="65"/>
       <c r="K14" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="66"/>
       <c r="M14" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O14" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="P14" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="P14" s="66"/>
       <c r="Q14" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="103"/>
+        <v>37</v>
+      </c>
+      <c r="S14" s="100"/>
       <c r="T14" s="66"/>
-      <c r="U14" s="104"/>
-      <c r="W14" s="103"/>
+      <c r="U14" s="101"/>
+      <c r="W14" s="100"/>
       <c r="X14" s="66"/>
-      <c r="Y14" s="104"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y14" s="101"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B15" s="23"/>
-      <c r="C15" s="113"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="26"/>
       <c r="E15" s="48"/>
       <c r="G15" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="I15" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="10"/>
       <c r="M15" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O15" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="10"/>
       <c r="Q15" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="102"/>
+        <v>37</v>
+      </c>
+      <c r="S15" s="99"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="101"/>
-      <c r="W15" s="102"/>
+      <c r="U15" s="98"/>
+      <c r="W15" s="99"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="101"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y15" s="98"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="113"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="26"/>
       <c r="E16" s="48"/>
       <c r="G16" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="I16" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="5"/>
       <c r="M16" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O16" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="5"/>
       <c r="Q16" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="S16" s="102"/>
+        <v>37</v>
+      </c>
+      <c r="S16" s="99"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="101"/>
-      <c r="W16" s="102"/>
+      <c r="U16" s="98"/>
+      <c r="W16" s="99"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="101"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y16" s="98"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="113"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="26"/>
       <c r="E17" s="48"/>
       <c r="G17" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I17" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="5"/>
       <c r="M17" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O17" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="5"/>
       <c r="Q17" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" s="102"/>
+        <v>37</v>
+      </c>
+      <c r="S17" s="99"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="101"/>
-      <c r="W17" s="102"/>
+      <c r="U17" s="98"/>
+      <c r="W17" s="99"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="101"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y17" s="98"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="113"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="26"/>
       <c r="E18" s="48"/>
       <c r="G18" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="M18" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O18" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="5"/>
+      <c r="P18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Q18" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="S18" s="102"/>
+        <v>37</v>
+      </c>
+      <c r="S18" s="99"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="101"/>
-      <c r="W18" s="102"/>
+      <c r="U18" s="98"/>
+      <c r="W18" s="99"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="101"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y18" s="98"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="113"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="26"/>
       <c r="E19" s="48"/>
       <c r="G19" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I19" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="M19" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="76"/>
+        <v>37</v>
+      </c>
+      <c r="O19" s="76" t="s">
+        <v>14</v>
+      </c>
       <c r="P19" s="5"/>
       <c r="Q19" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="S19" s="102"/>
+        <v>37</v>
+      </c>
+      <c r="S19" s="99"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="101"/>
-      <c r="W19" s="102"/>
+      <c r="U19" s="98"/>
+      <c r="W19" s="99"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="101"/>
-    </row>
-    <row r="20" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y19" s="98"/>
+    </row>
+    <row r="20" spans="1:25" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B20" s="61"/>
-      <c r="C20" s="112"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="62"/>
       <c r="E20" s="63"/>
       <c r="G20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="66"/>
+      <c r="H20" s="66" t="s">
+        <v>2</v>
+      </c>
       <c r="I20" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J20" s="65"/>
       <c r="K20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="66"/>
+      <c r="L20" s="66" t="s">
+        <v>2</v>
+      </c>
       <c r="M20" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="66"/>
+      <c r="P20" s="66" t="s">
+        <v>2</v>
+      </c>
       <c r="Q20" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="S20" s="103"/>
+        <v>37</v>
+      </c>
+      <c r="S20" s="100"/>
       <c r="T20" s="66"/>
-      <c r="U20" s="104"/>
-      <c r="W20" s="103"/>
+      <c r="U20" s="101"/>
+      <c r="W20" s="100"/>
       <c r="X20" s="66"/>
-      <c r="Y20" s="104"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y20" s="101"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="113"/>
+      <c r="C21" s="107"/>
       <c r="D21" s="26"/>
       <c r="E21" s="48"/>
       <c r="G21" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I21" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M21" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O21" s="76"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="S21" s="102"/>
+        <v>37</v>
+      </c>
+      <c r="S21" s="99"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="101"/>
-      <c r="W21" s="102"/>
+      <c r="U21" s="98"/>
+      <c r="W21" s="99"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="101"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y21" s="98"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="113"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="26"/>
       <c r="E22" s="48"/>
       <c r="G22" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="I22" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="72"/>
@@ -3534,23 +3515,25 @@
       <c r="O22" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="Q22" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="S22" s="96"/>
+        <v>37</v>
+      </c>
+      <c r="S22" s="93"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="97"/>
-      <c r="W22" s="96"/>
+      <c r="U22" s="94"/>
+      <c r="W22" s="93"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="97"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y22" s="94"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="113"/>
+      <c r="C23" s="107"/>
       <c r="D23" s="26"/>
       <c r="E23" s="48"/>
       <c r="G23" s="72"/>
@@ -3563,17 +3546,17 @@
       <c r="O23" s="72"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="73"/>
-      <c r="S23" s="96"/>
+      <c r="S23" s="93"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="97"/>
-      <c r="W23" s="96"/>
+      <c r="U23" s="94"/>
+      <c r="W23" s="93"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="97"/>
-    </row>
-    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y23" s="94"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="24"/>
-      <c r="C24" s="114"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="27"/>
       <c r="E24" s="49"/>
       <c r="G24" s="80"/>
@@ -3586,14 +3569,14 @@
       <c r="O24" s="80"/>
       <c r="P24" s="81"/>
       <c r="Q24" s="82"/>
-      <c r="S24" s="105"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="107"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="107"/>
-    </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S24" s="102"/>
+      <c r="T24" s="103"/>
+      <c r="U24" s="104"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="104"/>
+    </row>
+    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G25" s="8"/>
       <c r="H25" s="1"/>
       <c r="I25" s="9"/>
@@ -3604,118 +3587,119 @@
       <c r="O25" s="8"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="9"/>
-      <c r="S25" s="91"/>
+      <c r="S25" s="88"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="92"/>
+      <c r="U25" s="89"/>
       <c r="W25" s="8"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="1:25" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="G26" s="138" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="139"/>
-      <c r="I26" s="140"/>
+      <c r="G26" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="130"/>
+      <c r="I26" s="131"/>
       <c r="J26" s="17"/>
-      <c r="K26" s="138" t="s">
-        <v>55</v>
-      </c>
-      <c r="L26" s="139"/>
-      <c r="M26" s="140"/>
+      <c r="K26" s="129" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="130"/>
+      <c r="M26" s="131"/>
       <c r="N26" s="17" t="e">
         <f>fieldType</f>
         <v>#NAME?</v>
       </c>
-      <c r="O26" s="138" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" s="139"/>
-      <c r="Q26" s="140"/>
+      <c r="O26" s="129" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="130"/>
+      <c r="Q26" s="131"/>
       <c r="R26" s="17"/>
-      <c r="S26" s="131" t="s">
-        <v>57</v>
-      </c>
-      <c r="T26" s="132"/>
-      <c r="U26" s="133"/>
+      <c r="S26" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="T26" s="123"/>
+      <c r="U26" s="124"/>
       <c r="V26" s="17"/>
-      <c r="W26" s="131" t="s">
-        <v>57</v>
-      </c>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="133"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W26" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="X26" s="123"/>
+      <c r="Y26" s="124"/>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G27" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="71" t="s">
-        <v>28</v>
-      </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="M27" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="71" t="s">
-        <v>28</v>
-      </c>
       <c r="O27" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q27" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="P27" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="S27" s="115" t="s">
+      <c r="S27" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="T27" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="U27" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="T27" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="U27" s="117" t="s">
-        <v>28</v>
-      </c>
-      <c r="W27" s="115" t="s">
+      <c r="W27" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="X27" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y27" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="X27" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y27" s="117" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="30"/>
@@ -3723,7 +3707,7 @@
       <c r="G28" s="76"/>
       <c r="H28" s="5"/>
       <c r="I28" s="77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K28" s="76"/>
       <c r="L28" s="5"/>
@@ -3731,19 +3715,19 @@
       <c r="O28" s="76"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="77"/>
-      <c r="S28" s="102"/>
+      <c r="S28" s="99"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="101"/>
-      <c r="W28" s="102"/>
+      <c r="U28" s="98"/>
+      <c r="W28" s="99"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="101"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y28" s="98"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="31"/>
@@ -3751,7 +3735,7 @@
       <c r="G29" s="76"/>
       <c r="H29" s="5"/>
       <c r="I29" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K29" s="76"/>
       <c r="L29" s="5"/>
@@ -3759,19 +3743,19 @@
       <c r="O29" s="76"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="77"/>
-      <c r="S29" s="102"/>
+      <c r="S29" s="99"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="101"/>
-      <c r="W29" s="102"/>
+      <c r="U29" s="98"/>
+      <c r="W29" s="99"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="101"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y29" s="98"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="31"/>
@@ -3785,19 +3769,19 @@
       <c r="O30" s="76"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="77"/>
-      <c r="S30" s="102"/>
+      <c r="S30" s="99"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="101"/>
-      <c r="W30" s="102"/>
+      <c r="U30" s="98"/>
+      <c r="W30" s="99"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="101"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y30" s="98"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="37"/>
       <c r="D31" s="31"/>
@@ -3811,16 +3795,16 @@
       <c r="O31" s="76"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="77"/>
-      <c r="S31" s="102"/>
+      <c r="S31" s="99"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="101"/>
-      <c r="W31" s="102"/>
+      <c r="U31" s="98"/>
+      <c r="W31" s="99"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="101"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y31" s="98"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="37"/>
@@ -3835,16 +3819,16 @@
       <c r="O32" s="76"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="77"/>
-      <c r="S32" s="102"/>
+      <c r="S32" s="99"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="101"/>
-      <c r="W32" s="102"/>
+      <c r="U32" s="98"/>
+      <c r="W32" s="99"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="101"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y32" s="98"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="37"/>
@@ -3859,16 +3843,16 @@
       <c r="O33" s="76"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="77"/>
-      <c r="S33" s="102"/>
+      <c r="S33" s="99"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="101"/>
-      <c r="W33" s="102"/>
+      <c r="U33" s="98"/>
+      <c r="W33" s="99"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="101"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y33" s="98"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="37"/>
@@ -3883,16 +3867,16 @@
       <c r="O34" s="76"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="77"/>
-      <c r="S34" s="102"/>
+      <c r="S34" s="99"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="101"/>
-      <c r="W34" s="102"/>
+      <c r="U34" s="98"/>
+      <c r="W34" s="99"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="101"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y34" s="98"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B35" s="31"/>
       <c r="C35" s="37"/>
@@ -3907,16 +3891,16 @@
       <c r="O35" s="76"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="77"/>
-      <c r="S35" s="102"/>
+      <c r="S35" s="99"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="101"/>
-      <c r="W35" s="102"/>
+      <c r="U35" s="98"/>
+      <c r="W35" s="99"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="101"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y35" s="98"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="37"/>
@@ -3931,16 +3915,16 @@
       <c r="O36" s="76"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="77"/>
-      <c r="S36" s="102"/>
+      <c r="S36" s="99"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="101"/>
-      <c r="W36" s="102"/>
+      <c r="U36" s="98"/>
+      <c r="W36" s="99"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="101"/>
-    </row>
-    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y36" s="98"/>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="38"/>
@@ -3955,74 +3939,75 @@
       <c r="O37" s="80"/>
       <c r="P37" s="81"/>
       <c r="Q37" s="82"/>
-      <c r="S37" s="96"/>
+      <c r="S37" s="93"/>
       <c r="T37" s="6"/>
-      <c r="U37" s="97"/>
-      <c r="W37" s="96"/>
+      <c r="U37" s="94"/>
+      <c r="W37" s="93"/>
       <c r="X37" s="6"/>
-      <c r="Y37" s="97"/>
-    </row>
-    <row r="38" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y37" s="94"/>
+    </row>
+    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>36</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G38" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="83" t="s">
+      <c r="J38" s="1"/>
+      <c r="K38" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="M38" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="L38" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="M38" s="85" t="s">
-        <v>28</v>
-      </c>
       <c r="O38" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="P38" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q38" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="P38" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q38" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="S38" s="109" t="s">
+      <c r="S38" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="T38" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="U38" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="T38" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="U38" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="W38" s="109" t="s">
+      <c r="W38" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="X38" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y38" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="X38" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y38" s="110" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="36"/>
@@ -4031,22 +4016,22 @@
       <c r="G39" s="76"/>
       <c r="H39" s="5"/>
       <c r="I39" s="77"/>
-      <c r="K39" s="86"/>
+      <c r="K39" s="83"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="87"/>
+      <c r="M39" s="84"/>
       <c r="O39" s="76"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="77"/>
-      <c r="S39" s="102"/>
+      <c r="S39" s="99"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="101"/>
-      <c r="W39" s="102"/>
+      <c r="U39" s="98"/>
+      <c r="W39" s="99"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="101"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y39" s="98"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B40" s="31"/>
       <c r="C40" s="37"/>
@@ -4055,22 +4040,22 @@
       <c r="G40" s="76"/>
       <c r="H40" s="5"/>
       <c r="I40" s="77"/>
-      <c r="K40" s="86"/>
+      <c r="K40" s="83"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="87"/>
+      <c r="M40" s="84"/>
       <c r="O40" s="76"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="77"/>
-      <c r="S40" s="102"/>
+      <c r="S40" s="99"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="101"/>
-      <c r="W40" s="102"/>
+      <c r="U40" s="98"/>
+      <c r="W40" s="99"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="101"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y40" s="98"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B41" s="31"/>
       <c r="C41" s="37"/>
@@ -4079,22 +4064,22 @@
       <c r="G41" s="76"/>
       <c r="H41" s="5"/>
       <c r="I41" s="77"/>
-      <c r="K41" s="86"/>
+      <c r="K41" s="83"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="87"/>
+      <c r="M41" s="84"/>
       <c r="O41" s="76"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="77"/>
-      <c r="S41" s="102"/>
+      <c r="S41" s="99"/>
       <c r="T41" s="5"/>
-      <c r="U41" s="101"/>
-      <c r="W41" s="102"/>
+      <c r="U41" s="98"/>
+      <c r="W41" s="99"/>
       <c r="X41" s="5"/>
-      <c r="Y41" s="101"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y41" s="98"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="37"/>
@@ -4103,22 +4088,22 @@
       <c r="G42" s="76"/>
       <c r="H42" s="5"/>
       <c r="I42" s="77"/>
-      <c r="K42" s="86"/>
+      <c r="K42" s="83"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="87"/>
+      <c r="M42" s="84"/>
       <c r="O42" s="76"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="77"/>
-      <c r="S42" s="102"/>
+      <c r="S42" s="99"/>
       <c r="T42" s="5"/>
-      <c r="U42" s="101"/>
-      <c r="W42" s="102"/>
+      <c r="U42" s="98"/>
+      <c r="W42" s="99"/>
       <c r="X42" s="5"/>
-      <c r="Y42" s="101"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y42" s="98"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="37"/>
@@ -4127,22 +4112,22 @@
       <c r="G43" s="76"/>
       <c r="H43" s="5"/>
       <c r="I43" s="77"/>
-      <c r="K43" s="86"/>
+      <c r="K43" s="83"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="87"/>
+      <c r="M43" s="84"/>
       <c r="O43" s="76"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="77"/>
-      <c r="S43" s="102"/>
+      <c r="S43" s="99"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="101"/>
-      <c r="W43" s="102"/>
+      <c r="U43" s="98"/>
+      <c r="W43" s="99"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="101"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y43" s="98"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="37"/>
@@ -4151,22 +4136,22 @@
       <c r="G44" s="76"/>
       <c r="H44" s="5"/>
       <c r="I44" s="77"/>
-      <c r="K44" s="86"/>
+      <c r="K44" s="83"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="87"/>
+      <c r="M44" s="84"/>
       <c r="O44" s="76"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="77"/>
-      <c r="S44" s="102"/>
+      <c r="S44" s="99"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="101"/>
-      <c r="W44" s="102"/>
+      <c r="U44" s="98"/>
+      <c r="W44" s="99"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="101"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y44" s="98"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B45" s="31"/>
       <c r="C45" s="37"/>
@@ -4175,22 +4160,22 @@
       <c r="G45" s="76"/>
       <c r="H45" s="5"/>
       <c r="I45" s="77"/>
-      <c r="K45" s="86"/>
+      <c r="K45" s="83"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="87"/>
+      <c r="M45" s="84"/>
       <c r="O45" s="76"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="77"/>
-      <c r="S45" s="102"/>
+      <c r="S45" s="99"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="101"/>
-      <c r="W45" s="102"/>
+      <c r="U45" s="98"/>
+      <c r="W45" s="99"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="101"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y45" s="98"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B46" s="31"/>
       <c r="C46" s="37"/>
@@ -4199,22 +4184,22 @@
       <c r="G46" s="76"/>
       <c r="H46" s="5"/>
       <c r="I46" s="77"/>
-      <c r="K46" s="86"/>
+      <c r="K46" s="83"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="87"/>
+      <c r="M46" s="84"/>
       <c r="O46" s="76"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="77"/>
-      <c r="S46" s="102"/>
+      <c r="S46" s="99"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="101"/>
-      <c r="W46" s="102"/>
+      <c r="U46" s="98"/>
+      <c r="W46" s="99"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="101"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y46" s="98"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B47" s="31"/>
       <c r="C47" s="37"/>
@@ -4223,22 +4208,22 @@
       <c r="G47" s="76"/>
       <c r="H47" s="5"/>
       <c r="I47" s="77"/>
-      <c r="K47" s="86"/>
+      <c r="K47" s="83"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="87"/>
+      <c r="M47" s="84"/>
       <c r="O47" s="76"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="77"/>
-      <c r="S47" s="102"/>
+      <c r="S47" s="99"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="101"/>
-      <c r="W47" s="102"/>
+      <c r="U47" s="98"/>
+      <c r="W47" s="99"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="101"/>
-    </row>
-    <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y47" s="98"/>
+    </row>
+    <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B48" s="32"/>
       <c r="C48" s="38"/>
@@ -4247,93 +4232,94 @@
       <c r="G48" s="80"/>
       <c r="H48" s="81"/>
       <c r="I48" s="82"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="90"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="86"/>
+      <c r="M48" s="87"/>
       <c r="O48" s="80"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="82"/>
-      <c r="S48" s="105"/>
-      <c r="T48" s="106"/>
-      <c r="U48" s="107"/>
-      <c r="W48" s="105"/>
-      <c r="X48" s="106"/>
-      <c r="Y48" s="107"/>
-    </row>
-    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S48" s="102"/>
+      <c r="T48" s="103"/>
+      <c r="U48" s="104"/>
+      <c r="W48" s="102"/>
+      <c r="X48" s="103"/>
+      <c r="Y48" s="104"/>
+    </row>
+    <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G50" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" s="71" t="s">
-        <v>28</v>
-      </c>
+      <c r="J50" s="1"/>
       <c r="K50" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="L50" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="M50" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="L50" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="M50" s="71" t="s">
-        <v>28</v>
-      </c>
       <c r="O50" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="P50" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q50" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="P50" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q50" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="S50" s="109" t="s">
+      <c r="S50" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="T50" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="U50" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="T50" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="U50" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="W50" s="109" t="s">
+      <c r="W50" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="X50" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y50" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="X50" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y50" s="110" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="126"/>
-      <c r="D51" s="127"/>
+        <v>81</v>
+      </c>
+      <c r="B51" s="116" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="117"/>
+      <c r="D51" s="118"/>
       <c r="E51" s="41"/>
       <c r="G51" s="76"/>
       <c r="H51" s="5"/>
@@ -4344,22 +4330,22 @@
       <c r="O51" s="76"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="77"/>
-      <c r="S51" s="102"/>
+      <c r="S51" s="99"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="101"/>
-      <c r="W51" s="102"/>
+      <c r="U51" s="98"/>
+      <c r="W51" s="99"/>
       <c r="X51" s="5"/>
-      <c r="Y51" s="101"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y51" s="98"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="119" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="120"/>
-      <c r="D52" s="121"/>
+        <v>83</v>
+      </c>
+      <c r="B52" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="111"/>
+      <c r="D52" s="112"/>
       <c r="E52" s="42"/>
       <c r="G52" s="76"/>
       <c r="H52" s="5"/>
@@ -4370,22 +4356,22 @@
       <c r="O52" s="76"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="77"/>
-      <c r="S52" s="102"/>
+      <c r="S52" s="99"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="101"/>
-      <c r="W52" s="102"/>
+      <c r="U52" s="98"/>
+      <c r="W52" s="99"/>
       <c r="X52" s="5"/>
-      <c r="Y52" s="101"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y52" s="98"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53" s="119" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="120"/>
-      <c r="D53" s="121"/>
+        <v>85</v>
+      </c>
+      <c r="B53" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="111"/>
+      <c r="D53" s="112"/>
       <c r="E53" s="42"/>
       <c r="G53" s="76"/>
       <c r="H53" s="5"/>
@@ -4396,22 +4382,22 @@
       <c r="O53" s="76"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="77"/>
-      <c r="S53" s="102"/>
+      <c r="S53" s="99"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="101"/>
-      <c r="W53" s="102"/>
+      <c r="U53" s="98"/>
+      <c r="W53" s="99"/>
       <c r="X53" s="5"/>
-      <c r="Y53" s="101"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y53" s="98"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="120"/>
-      <c r="D54" s="121"/>
+        <v>87</v>
+      </c>
+      <c r="B54" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="111"/>
+      <c r="D54" s="112"/>
       <c r="E54" s="42"/>
       <c r="G54" s="76"/>
       <c r="H54" s="5"/>
@@ -4422,33 +4408,33 @@
       <c r="O54" s="76"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="77"/>
-      <c r="S54" s="102"/>
+      <c r="S54" s="99"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="101"/>
-      <c r="W54" s="102"/>
+      <c r="U54" s="98"/>
+      <c r="W54" s="99"/>
       <c r="X54" s="5"/>
-      <c r="Y54" s="101"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y54" s="98"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="119" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="120"/>
-      <c r="D55" s="121"/>
+        <v>89</v>
+      </c>
+      <c r="B55" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="111"/>
+      <c r="D55" s="112"/>
       <c r="E55" s="42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G55" s="76" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I55" s="77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K55" s="76"/>
       <c r="L55" s="5"/>
@@ -4456,14 +4442,14 @@
       <c r="O55" s="76"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="77"/>
-      <c r="S55" s="102"/>
+      <c r="S55" s="99"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="101"/>
-      <c r="W55" s="102"/>
+      <c r="U55" s="98"/>
+      <c r="W55" s="99"/>
       <c r="X55" s="5"/>
-      <c r="Y55" s="101"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y55" s="98"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="34"/>
       <c r="B56" s="55"/>
       <c r="C56" s="56"/>
@@ -4478,18 +4464,18 @@
       <c r="O56" s="76"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="77"/>
-      <c r="S56" s="102"/>
+      <c r="S56" s="99"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="101"/>
-      <c r="W56" s="102"/>
+      <c r="U56" s="98"/>
+      <c r="W56" s="99"/>
       <c r="X56" s="5"/>
-      <c r="Y56" s="101"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y56" s="98"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="34"/>
-      <c r="B57" s="119"/>
-      <c r="C57" s="120"/>
-      <c r="D57" s="121"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="112"/>
       <c r="E57" s="42"/>
       <c r="G57" s="76"/>
       <c r="H57" s="5"/>
@@ -4500,18 +4486,18 @@
       <c r="O57" s="76"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="77"/>
-      <c r="S57" s="102"/>
+      <c r="S57" s="99"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="101"/>
-      <c r="W57" s="102"/>
+      <c r="U57" s="98"/>
+      <c r="W57" s="99"/>
       <c r="X57" s="5"/>
-      <c r="Y57" s="101"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y57" s="98"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="34"/>
-      <c r="B58" s="119"/>
-      <c r="C58" s="120"/>
-      <c r="D58" s="121"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="112"/>
       <c r="E58" s="42"/>
       <c r="G58" s="76"/>
       <c r="H58" s="5"/>
@@ -4522,18 +4508,18 @@
       <c r="O58" s="76"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="77"/>
-      <c r="S58" s="102"/>
+      <c r="S58" s="99"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="101"/>
-      <c r="W58" s="102"/>
+      <c r="U58" s="98"/>
+      <c r="W58" s="99"/>
       <c r="X58" s="5"/>
-      <c r="Y58" s="101"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y58" s="98"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="34"/>
-      <c r="B59" s="119"/>
-      <c r="C59" s="120"/>
-      <c r="D59" s="121"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="112"/>
       <c r="E59" s="42"/>
       <c r="G59" s="76"/>
       <c r="H59" s="5"/>
@@ -4544,18 +4530,18 @@
       <c r="O59" s="76"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="77"/>
-      <c r="S59" s="102"/>
+      <c r="S59" s="99"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="101"/>
-      <c r="W59" s="102"/>
+      <c r="U59" s="98"/>
+      <c r="W59" s="99"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="101"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y59" s="98"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="34"/>
-      <c r="B60" s="119"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="121"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="112"/>
       <c r="E60" s="42"/>
       <c r="G60" s="76"/>
       <c r="H60" s="5"/>
@@ -4566,18 +4552,18 @@
       <c r="O60" s="76"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="77"/>
-      <c r="S60" s="102"/>
+      <c r="S60" s="99"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="101"/>
-      <c r="W60" s="102"/>
+      <c r="U60" s="98"/>
+      <c r="W60" s="99"/>
       <c r="X60" s="5"/>
-      <c r="Y60" s="101"/>
-    </row>
-    <row r="61" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Y60" s="98"/>
+    </row>
+    <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="35"/>
-      <c r="B61" s="122"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="124"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="115"/>
       <c r="E61" s="43"/>
       <c r="G61" s="80"/>
       <c r="H61" s="81"/>
@@ -4588,16 +4574,16 @@
       <c r="O61" s="80"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="82"/>
-      <c r="S61" s="105"/>
-      <c r="T61" s="106"/>
-      <c r="U61" s="107"/>
-      <c r="W61" s="105"/>
-      <c r="X61" s="106"/>
-      <c r="Y61" s="107"/>
-    </row>
-    <row r="62" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="S61" s="102"/>
+      <c r="T61" s="103"/>
+      <c r="U61" s="104"/>
+      <c r="W61" s="102"/>
+      <c r="X61" s="103"/>
+      <c r="Y61" s="104"/>
+    </row>
+    <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="boxHoXBX34oUrLUM+h6Wl+v1yk0Mbc8Hmvviu4+faSLpfMLPm7RW8r+t1/6EAnPNbmhwbUKnmUg10Y5G+TRFzw==" saltValue="FOp4u7R0PjClGdxDUddDxQ==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection formatCells="0" insertColumns="0" insertRows="0"/>
   <protectedRanges>
     <protectedRange sqref="S4:Y61" name="customEntities"/>
     <protectedRange sqref="A51:D55" name="Questionnaire_3"/>
@@ -4632,7 +4618,7 @@
     <mergeCell ref="B61:D61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A24:AG27 A38:AG38 B28:AG37 B39:AG48 I9:I22 C8:AG11 B23:AG23 B13:P22 C12:P12 R12:AG22">
+  <conditionalFormatting sqref="A24:AG26 A38:F38 B28:AG37 B39:AG48 I9:I22 C8:AG11 B23:AG23 B13:P22 C12:P12 R12:AG22 A27:F27 Z27:AG27 Z38:AG38">
     <cfRule type="expression" dxfId="21" priority="21">
       <formula>$C8="x"</formula>
     </cfRule>
@@ -4735,6 +4721,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4943,22 +4944,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4975,29 +4986,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\MS Dynamics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1254A253-EB2A-4195-B65C-CA0240AEABE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B86BB6-5D9B-48EE-82CF-7957E46A6728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,8 +33,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{6B1319F2-E215-4EAE-AE11-450C199B1B07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter "x", if the field must be filled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{3BE3DC7B-08DF-46AD-B4B7-F03AEF16B47D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter "x", if the field is not used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="89">
   <si>
     <t>Website</t>
   </si>
@@ -186,18 +224,6 @@
     </r>
   </si>
   <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>not used</t>
-  </si>
-  <si>
-    <t>MS D: Custom Entity (optional)</t>
-  </si>
-  <si>
-    <t>MS D: Custom Entity</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -222,9 +248,6 @@
     <t xml:space="preserve">Group 2 </t>
   </si>
   <si>
-    <t>MS Dynamics: Custom Entity</t>
-  </si>
-  <si>
     <t>Beispiel: "Welche unserer Produkte verwenden sie bereits?"</t>
   </si>
   <si>
@@ -325,13 +348,34 @@
   </si>
   <si>
     <t>Schema Name</t>
+  </si>
+  <si>
+    <t>nicht benötigt</t>
+  </si>
+  <si>
+    <t>Pflichtfeld</t>
+  </si>
+  <si>
+    <t>MS D: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>MS D: Additional Entity</t>
+  </si>
+  <si>
+    <t>MS Dynamics: Additional Entity</t>
+  </si>
+  <si>
+    <t>custom 1</t>
+  </si>
+  <si>
+    <t>custom1__c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +463,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2047,6 +2098,56 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2074,61 +2175,33 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="89">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3105,11 +3178,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="86"/>
-      <tableStyleElement type="headerRow" dxfId="85"/>
-      <tableStyleElement type="firstColumn" dxfId="84"/>
-      <tableStyleElement type="firstRowStripe" dxfId="83"/>
-      <tableStyleElement type="secondRowStripe" dxfId="82"/>
+      <tableStyleElement type="wholeTable" dxfId="88"/>
+      <tableStyleElement type="headerRow" dxfId="87"/>
+      <tableStyleElement type="firstColumn" dxfId="86"/>
+      <tableStyleElement type="firstRowStripe" dxfId="85"/>
+      <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3808,11 +3881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3860,44 +3933,44 @@
       <c r="G3" s="37"/>
       <c r="K3" s="37"/>
     </row>
-    <row r="4" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="27" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="G4" s="160" t="s">
+      <c r="G4" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="160" t="s">
+      <c r="K4" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="O4" s="160" t="s">
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="O4" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="S4" s="154" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="155"/>
-      <c r="U4" s="156"/>
-      <c r="W4" s="157" t="s">
-        <v>43</v>
-      </c>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="159"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="S4" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="139"/>
+      <c r="U4" s="140"/>
+      <c r="W4" s="141" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" s="142"/>
+      <c r="Y4" s="143"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3982,17 +4055,17 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="81"/>
       <c r="D8" s="82"/>
       <c r="E8" s="32"/>
       <c r="G8" s="50" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I8" s="51" t="s">
         <v>13</v>
@@ -4013,16 +4086,16 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C9" s="81"/>
       <c r="D9" s="82"/>
       <c r="E9" s="32"/>
       <c r="G9" s="52" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>3</v>
@@ -4032,7 +4105,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="52" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>3</v>
@@ -4043,23 +4116,29 @@
       <c r="O9" s="52"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="51"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="69"/>
+      <c r="S9" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" s="69" t="s">
+        <v>25</v>
+      </c>
       <c r="W9" s="70"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="69"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="78"/>
       <c r="D10" s="22"/>
       <c r="E10" s="33"/>
       <c r="G10" s="52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>4</v>
@@ -4069,7 +4148,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="52" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>4</v>
@@ -4095,14 +4174,14 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="78"/>
       <c r="D11" s="22"/>
       <c r="E11" s="33"/>
       <c r="G11" s="52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>5</v>
@@ -4112,7 +4191,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>5</v>
@@ -4132,14 +4211,14 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="78"/>
       <c r="D12" s="22"/>
       <c r="E12" s="33"/>
       <c r="G12" s="52" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>28</v>
@@ -4149,7 +4228,7 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="52" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>28</v>
@@ -4169,14 +4248,14 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="78"/>
       <c r="D13" s="22"/>
       <c r="E13" s="33"/>
       <c r="G13" s="52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>29</v>
@@ -4235,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="53" t="s">
         <v>13</v>
@@ -4286,14 +4365,14 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="78"/>
       <c r="D16" s="22"/>
       <c r="E16" s="33"/>
       <c r="G16" s="55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>32</v>
@@ -4303,7 +4382,7 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>32</v>
@@ -4312,7 +4391,7 @@
         <v>13</v>
       </c>
       <c r="O16" s="55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>32</v>
@@ -4329,14 +4408,14 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="78"/>
       <c r="D17" s="22"/>
       <c r="E17" s="33"/>
       <c r="G17" s="52" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>7</v>
@@ -4346,7 +4425,7 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="52" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>7</v>
@@ -4409,14 +4488,14 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="78"/>
       <c r="D19" s="22"/>
       <c r="E19" s="33"/>
       <c r="G19" s="52" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>33</v>
@@ -4426,7 +4505,7 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="52" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>33</v>
@@ -4435,7 +4514,7 @@
         <v>13</v>
       </c>
       <c r="O19" s="52" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>33</v>
@@ -4452,14 +4531,14 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="78"/>
       <c r="D20" s="22"/>
       <c r="E20" s="33"/>
       <c r="G20" s="52" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>34</v>
@@ -4469,7 +4548,7 @@
       </c>
       <c r="J20" s="123"/>
       <c r="K20" s="52" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>34</v>
@@ -4478,7 +4557,7 @@
         <v>13</v>
       </c>
       <c r="O20" s="52" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>35</v>
@@ -4538,14 +4617,14 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="78"/>
       <c r="D22" s="22"/>
       <c r="E22" s="33"/>
       <c r="G22" s="52" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>36</v>
@@ -4555,7 +4634,7 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="52" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>36</v>
@@ -4564,7 +4643,7 @@
         <v>13</v>
       </c>
       <c r="O22" s="52" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>36</v>
@@ -4581,14 +4660,14 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="78"/>
       <c r="D23" s="22"/>
       <c r="E23" s="33"/>
       <c r="G23" s="50" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>37</v>
@@ -4618,7 +4697,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="78"/>
@@ -4629,7 +4708,7 @@
       <c r="I24" s="51"/>
       <c r="J24" s="1"/>
       <c r="K24" s="50" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>38</v>
@@ -4690,48 +4769,48 @@
     </row>
     <row r="27" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="130" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B27" s="132"/>
       <c r="C27" s="133"/>
       <c r="D27" s="133"/>
       <c r="E27" s="134"/>
-      <c r="G27" s="136" t="s">
+      <c r="G27" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="137"/>
-      <c r="I27" s="138"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="156"/>
       <c r="J27" s="86"/>
-      <c r="K27" s="136" t="s">
+      <c r="K27" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="137"/>
-      <c r="M27" s="138"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="156"/>
       <c r="N27" s="86"/>
-      <c r="O27" s="139" t="s">
+      <c r="O27" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="141"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="159"/>
       <c r="R27" s="87"/>
-      <c r="S27" s="142" t="s">
-        <v>52</v>
-      </c>
-      <c r="T27" s="143"/>
-      <c r="U27" s="144"/>
+      <c r="S27" s="160" t="s">
+        <v>86</v>
+      </c>
+      <c r="T27" s="161"/>
+      <c r="U27" s="162"/>
       <c r="V27" s="87"/>
-      <c r="W27" s="142" t="s">
-        <v>52</v>
-      </c>
-      <c r="X27" s="143"/>
-      <c r="Y27" s="144"/>
+      <c r="W27" s="160" t="s">
+        <v>86</v>
+      </c>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="162"/>
     </row>
     <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="129" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B28" s="88" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C28" s="89"/>
       <c r="D28" s="89"/>
@@ -4739,7 +4818,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="127" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H28" s="48" t="s">
         <v>26</v>
@@ -4748,7 +4827,7 @@
         <v>9</v>
       </c>
       <c r="K28" s="127" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L28" s="48" t="s">
         <v>26</v>
@@ -4757,7 +4836,7 @@
         <v>9</v>
       </c>
       <c r="O28" s="127" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P28" s="48" t="s">
         <v>26</v>
@@ -4766,19 +4845,19 @@
         <v>9</v>
       </c>
       <c r="S28" s="90" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="T28" s="91" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="U28" s="92" t="s">
         <v>9</v>
       </c>
       <c r="W28" s="90" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="X28" s="91" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Y28" s="92" t="s">
         <v>9</v>
@@ -4786,15 +4865,15 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C29" s="95"/>
       <c r="D29" s="94"/>
       <c r="E29" s="96" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G29" s="50"/>
       <c r="H29" s="6"/>
@@ -4814,7 +4893,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B30" s="99"/>
       <c r="C30" s="100"/>
@@ -4838,7 +4917,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B31" s="101"/>
       <c r="C31" s="102"/>
@@ -4862,7 +4941,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B32" s="101"/>
       <c r="C32" s="102"/>
@@ -4886,7 +4965,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B33" s="101"/>
       <c r="C33" s="102"/>
@@ -4910,7 +4989,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B34" s="101"/>
       <c r="C34" s="102"/>
@@ -4934,7 +5013,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B35" s="101"/>
       <c r="C35" s="102"/>
@@ -4958,7 +5037,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B36" s="101"/>
       <c r="C36" s="102"/>
@@ -4982,7 +5061,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B37" s="101"/>
       <c r="C37" s="102"/>
@@ -5006,7 +5085,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B38" s="101"/>
       <c r="C38" s="102"/>
@@ -5030,7 +5109,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B39" s="104"/>
       <c r="C39" s="105"/>
@@ -5075,11 +5154,11 @@
       <c r="Y40" s="114"/>
     </row>
     <row r="41" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="162" t="s">
-        <v>51</v>
+      <c r="A41" s="137" t="s">
+        <v>47</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C41" s="89"/>
       <c r="D41" s="89"/>
@@ -5087,7 +5166,7 @@
         <v>18</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H41" s="48" t="s">
         <v>26</v>
@@ -5096,7 +5175,7 @@
         <v>9</v>
       </c>
       <c r="K41" s="47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L41" s="48" t="s">
         <v>26</v>
@@ -5105,7 +5184,7 @@
         <v>9</v>
       </c>
       <c r="O41" s="124" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P41" s="48" t="s">
         <v>26</v>
@@ -5114,19 +5193,19 @@
         <v>9</v>
       </c>
       <c r="S41" s="115" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="T41" s="116" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="U41" s="117" t="s">
         <v>9</v>
       </c>
       <c r="W41" s="115" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="X41" s="116" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Y41" s="117" t="s">
         <v>9</v>
@@ -5134,7 +5213,7 @@
     </row>
     <row r="42" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B42" s="94"/>
       <c r="C42" s="95"/>
@@ -5158,7 +5237,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B43" s="101"/>
       <c r="C43" s="102"/>
@@ -5182,7 +5261,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B44" s="101"/>
       <c r="C44" s="102"/>
@@ -5206,7 +5285,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B45" s="101"/>
       <c r="C45" s="102"/>
@@ -5230,7 +5309,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B46" s="101"/>
       <c r="C46" s="102"/>
@@ -5254,7 +5333,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B47" s="101"/>
       <c r="C47" s="102"/>
@@ -5278,7 +5357,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B48" s="101"/>
       <c r="C48" s="102"/>
@@ -5302,7 +5381,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B49" s="101"/>
       <c r="C49" s="102"/>
@@ -5326,7 +5405,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B50" s="101"/>
       <c r="C50" s="102"/>
@@ -5350,7 +5429,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B51" s="104"/>
       <c r="C51" s="105"/>
@@ -5407,7 +5486,7 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="161" t="s">
+      <c r="A54" s="136" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -5467,13 +5546,13 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="151" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="152"/>
-      <c r="D55" s="153"/>
+        <v>74</v>
+      </c>
+      <c r="B55" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="146"/>
+      <c r="D55" s="147"/>
       <c r="E55" s="29"/>
       <c r="G55" s="52"/>
       <c r="H55" s="5"/>
@@ -5493,13 +5572,13 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="145" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="146"/>
-      <c r="D56" s="147"/>
+        <v>76</v>
+      </c>
+      <c r="B56" s="148" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="149"/>
+      <c r="D56" s="150"/>
       <c r="E56" s="30"/>
       <c r="G56" s="52"/>
       <c r="H56" s="5"/>
@@ -5519,13 +5598,13 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="145" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="146"/>
-      <c r="D57" s="147"/>
+        <v>78</v>
+      </c>
+      <c r="B57" s="148" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="149"/>
+      <c r="D57" s="150"/>
       <c r="E57" s="30"/>
       <c r="G57" s="52"/>
       <c r="H57" s="5"/>
@@ -5545,13 +5624,13 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="146"/>
-      <c r="D58" s="147"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="150"/>
       <c r="E58" s="30"/>
       <c r="G58" s="52"/>
       <c r="H58" s="5"/>
@@ -5571,9 +5650,9 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="146"/>
-      <c r="D59" s="147"/>
+      <c r="B59" s="148"/>
+      <c r="C59" s="149"/>
+      <c r="D59" s="150"/>
       <c r="E59" s="30"/>
       <c r="G59" s="52"/>
       <c r="H59" s="5"/>
@@ -5615,9 +5694,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="146"/>
-      <c r="D61" s="147"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="150"/>
       <c r="E61" s="30"/>
       <c r="G61" s="52"/>
       <c r="H61" s="5"/>
@@ -5637,9 +5716,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
-      <c r="B62" s="145"/>
-      <c r="C62" s="146"/>
-      <c r="D62" s="147"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="150"/>
       <c r="E62" s="30"/>
       <c r="G62" s="52"/>
       <c r="H62" s="5"/>
@@ -5659,9 +5738,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
-      <c r="B63" s="145"/>
-      <c r="C63" s="146"/>
-      <c r="D63" s="147"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="150"/>
       <c r="E63" s="30"/>
       <c r="G63" s="52"/>
       <c r="H63" s="5"/>
@@ -5681,9 +5760,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
-      <c r="B64" s="145"/>
-      <c r="C64" s="146"/>
-      <c r="D64" s="147"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="150"/>
       <c r="E64" s="30"/>
       <c r="G64" s="52"/>
       <c r="H64" s="5"/>
@@ -5703,9 +5782,9 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="26"/>
-      <c r="B65" s="148"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="150"/>
+      <c r="B65" s="151"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="153"/>
       <c r="E65" s="31"/>
       <c r="G65" s="56"/>
       <c r="H65" s="57"/>
@@ -5743,37 +5822,45 @@
     <protectedRange sqref="A60:E65 E55:E59" name="Questionnaire_4"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:AG26 M10:N23 R13:AG23 W7:Y9 C10:F25 H10:J25 L24:N25 P24:AG25 P10:AG12 P13:P23">
-    <cfRule type="expression" dxfId="81" priority="95">
+    <cfRule type="expression" dxfId="83" priority="97">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="96">
+    <cfRule type="expression" dxfId="82" priority="98">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55:Y65">
+    <cfRule type="expression" dxfId="81" priority="95">
+      <formula>$C55="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="96">
+      <formula>$D55="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S55:U65">
     <cfRule type="expression" dxfId="79" priority="93">
       <formula>$C55="x"</formula>
     </cfRule>
@@ -5781,7 +5868,7 @@
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S55:U65">
+  <conditionalFormatting sqref="O55:Q65">
     <cfRule type="expression" dxfId="77" priority="91">
       <formula>$C55="x"</formula>
     </cfRule>
@@ -5789,7 +5876,7 @@
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O55:Q65">
+  <conditionalFormatting sqref="K55:M65">
     <cfRule type="expression" dxfId="75" priority="89">
       <formula>$C55="x"</formula>
     </cfRule>
@@ -5797,7 +5884,7 @@
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:M65">
+  <conditionalFormatting sqref="G55:I65">
     <cfRule type="expression" dxfId="73" priority="87">
       <formula>$C55="x"</formula>
     </cfRule>
@@ -5805,63 +5892,63 @@
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55:I65">
-    <cfRule type="expression" dxfId="71" priority="85">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="86">
-      <formula>$D55="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q23">
-    <cfRule type="expression" dxfId="69" priority="75">
+    <cfRule type="expression" dxfId="71" priority="77">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="76">
+    <cfRule type="expression" dxfId="70" priority="78">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L23">
-    <cfRule type="expression" dxfId="67" priority="73">
+    <cfRule type="expression" dxfId="69" priority="75">
       <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="74">
+    <cfRule type="expression" dxfId="68" priority="76">
       <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7:U9">
-    <cfRule type="expression" dxfId="65" priority="67">
+  <conditionalFormatting sqref="S7:U8">
+    <cfRule type="expression" dxfId="67" priority="69">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="68">
+    <cfRule type="expression" dxfId="66" priority="70">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:AE53">
-    <cfRule type="expression" dxfId="63" priority="57">
+    <cfRule type="expression" dxfId="65" priority="59">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="58">
+    <cfRule type="expression" dxfId="64" priority="60">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z29:AG34 A41:G41 AA35:AG52 B34 A34:A36 C34:F36 A28:G28 A27:F27 J27 N27 R27:AG27 A29:F33 A37:F40 N29:N40 J29:J40 R29:R40 A42:R52 I28:K28 M28:O28 Q28:AG28 I41:K41 M41:O41 Q41:Y41">
-    <cfRule type="expression" dxfId="61" priority="55">
+    <cfRule type="expression" dxfId="63" priority="57">
       <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="56">
+    <cfRule type="expression" dxfId="62" priority="58">
       <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="59" priority="53">
+    <cfRule type="expression" dxfId="61" priority="55">
       <formula>$C34="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54">
+    <cfRule type="expression" dxfId="60" priority="56">
       <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:O30">
+    <cfRule type="expression" dxfId="59" priority="53">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="54">
+      <formula>$D29="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P29:Q30">
     <cfRule type="expression" dxfId="57" priority="51">
       <formula>$C29="x"</formula>
     </cfRule>
@@ -5869,15 +5956,15 @@
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P29:Q30">
+  <conditionalFormatting sqref="O31:O40">
     <cfRule type="expression" dxfId="55" priority="49">
-      <formula>$C29="x"</formula>
+      <formula>$C31="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="54" priority="50">
-      <formula>$D29="x"</formula>
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O31:O40">
+  <conditionalFormatting sqref="P31:Q40">
     <cfRule type="expression" dxfId="53" priority="47">
       <formula>$C31="x"</formula>
     </cfRule>
@@ -5885,15 +5972,15 @@
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31:Q40">
+  <conditionalFormatting sqref="K29:K30">
     <cfRule type="expression" dxfId="51" priority="45">
-      <formula>$C31="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="50" priority="46">
-      <formula>$D31="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K30">
+  <conditionalFormatting sqref="L29:M30">
     <cfRule type="expression" dxfId="49" priority="43">
       <formula>$C29="x"</formula>
     </cfRule>
@@ -5901,15 +5988,15 @@
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29:M30">
+  <conditionalFormatting sqref="K31:K40">
     <cfRule type="expression" dxfId="47" priority="41">
-      <formula>$C29="x"</formula>
+      <formula>$C31="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="46" priority="42">
-      <formula>$D29="x"</formula>
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K40">
+  <conditionalFormatting sqref="L31:M40">
     <cfRule type="expression" dxfId="45" priority="39">
       <formula>$C31="x"</formula>
     </cfRule>
@@ -5917,15 +6004,15 @@
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:M40">
+  <conditionalFormatting sqref="G29:G30">
     <cfRule type="expression" dxfId="43" priority="37">
-      <formula>$C31="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="38">
-      <formula>$D31="x"</formula>
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G30">
+  <conditionalFormatting sqref="H29:I30">
     <cfRule type="expression" dxfId="41" priority="35">
       <formula>$C29="x"</formula>
     </cfRule>
@@ -5933,15 +6020,15 @@
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:I30">
+  <conditionalFormatting sqref="G31:G40">
     <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$C29="x"</formula>
+      <formula>$C31="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$D29="x"</formula>
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G40">
+  <conditionalFormatting sqref="H31:I40">
     <cfRule type="expression" dxfId="37" priority="31">
       <formula>$C31="x"</formula>
     </cfRule>
@@ -5949,79 +6036,79 @@
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:I40">
+  <conditionalFormatting sqref="S29:Y39">
     <cfRule type="expression" dxfId="35" priority="29">
-      <formula>$C31="x"</formula>
+      <formula>$C29="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="30">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29:Y39">
-    <cfRule type="expression" dxfId="33" priority="27">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S42:Y51">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>$C42="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>$D42="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:Y52">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>$C52="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>$D52="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:Y40">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z49">
-    <cfRule type="expression" dxfId="25" priority="59">
+    <cfRule type="expression" dxfId="27" priority="61">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="60">
+    <cfRule type="expression" dxfId="26" priority="62">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35 Z40:Z47">
-    <cfRule type="expression" dxfId="23" priority="61">
+    <cfRule type="expression" dxfId="25" priority="63">
       <formula>$C38="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="62">
+    <cfRule type="expression" dxfId="24" priority="64">
       <formula>$D38="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z48 Z36:Z39">
-    <cfRule type="expression" dxfId="21" priority="63">
+    <cfRule type="expression" dxfId="23" priority="65">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="64">
+    <cfRule type="expression" dxfId="22" priority="66">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B24 A25:B25">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$C14="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$D14="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A24">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B13">
     <cfRule type="expression" dxfId="17" priority="17">
       <formula>$C9="x"</formula>
     </cfRule>
@@ -6029,7 +6116,7 @@
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B13">
+  <conditionalFormatting sqref="G9:G25">
     <cfRule type="expression" dxfId="15" priority="15">
       <formula>$C9="x"</formula>
     </cfRule>
@@ -6037,39 +6124,39 @@
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G25">
+  <conditionalFormatting sqref="G7:G8">
     <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$C9="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G8">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K25">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K8">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:O25">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>$C9="x"</formula>
     </cfRule>
@@ -6077,40 +6164,53 @@
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9:O25">
+  <conditionalFormatting sqref="O7:O8">
     <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9:U9">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O8">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y55:Y65 U55:U65 Q55:Q65 M55:M65 I55:I65 U7:U25 I7:I25 Y7:Y25 Q7:Q25 M7:M25 Q42:Q52 I42:I52 M42:M52" xr:uid="{602B57E5-9BC3-430C-9CF1-45F2FF9C756D}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D52 C29:D40" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y29:Y40 Q29:Q40 M29:M40 I29:I40 Y42:Y52 U42:U52 U29:U40" xr:uid="{32478F7B-812E-47AE-BD17-876FC13230A9}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7:Y25 Y55:Y65 U55:U65 U42:U52 Y42:Y52 Y29:Y40 U29:U40 U7:U25 Q7:Q25 M7:M25 I7:I25 I29:I40 I42:I52 I55:I65 M55:M65 Q55:Q65 Q42:Q52 Q29:Q40 M29:M40 M42:M52" xr:uid="{6BA81C7E-2A54-47E6-BB5B-703D2A70EF71}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6319,36 +6419,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6371,9 +6445,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B86BB6-5D9B-48EE-82CF-7957E46A6728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296C12EF-98C7-4810-A511-916FCE1F1275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -2100,54 +2100,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2175,11 +2127,543 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="133">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3178,11 +3662,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="88"/>
-      <tableStyleElement type="headerRow" dxfId="87"/>
-      <tableStyleElement type="firstColumn" dxfId="86"/>
-      <tableStyleElement type="firstRowStripe" dxfId="85"/>
-      <tableStyleElement type="secondRowStripe" dxfId="84"/>
+      <tableStyleElement type="wholeTable" dxfId="132"/>
+      <tableStyleElement type="headerRow" dxfId="131"/>
+      <tableStyleElement type="firstColumn" dxfId="130"/>
+      <tableStyleElement type="firstRowStripe" dxfId="129"/>
+      <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3884,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3945,32 +4429,32 @@
         <v>82</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="G4" s="144" t="s">
+      <c r="G4" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="144" t="s">
+      <c r="K4" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="O4" s="144" t="s">
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="O4" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="S4" s="138" t="s">
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
+      <c r="S4" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="139"/>
-      <c r="U4" s="140"/>
-      <c r="W4" s="141" t="s">
+      <c r="T4" s="157"/>
+      <c r="U4" s="158"/>
+      <c r="W4" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="143"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4057,26 +4541,26 @@
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="81"/>
       <c r="D8" s="82"/>
       <c r="E8" s="32"/>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="51"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="51"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="53"/>
       <c r="S8" s="70"/>
       <c r="T8" s="5"/>
       <c r="U8" s="69"/>
@@ -4091,31 +4575,31 @@
       <c r="B9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="32"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="33"/>
       <c r="G9" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="53" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="53" t="s">
         <v>14</v>
       </c>
       <c r="O9" s="52"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="51"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="53"/>
       <c r="S9" s="68" t="s">
         <v>87</v>
       </c>
@@ -4775,35 +5259,35 @@
       <c r="C27" s="133"/>
       <c r="D27" s="133"/>
       <c r="E27" s="134"/>
-      <c r="G27" s="154" t="s">
+      <c r="G27" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="155"/>
-      <c r="I27" s="156"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="140"/>
       <c r="J27" s="86"/>
-      <c r="K27" s="154" t="s">
+      <c r="K27" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="155"/>
-      <c r="M27" s="156"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="140"/>
       <c r="N27" s="86"/>
-      <c r="O27" s="157" t="s">
+      <c r="O27" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="159"/>
+      <c r="P27" s="142"/>
+      <c r="Q27" s="143"/>
       <c r="R27" s="87"/>
-      <c r="S27" s="160" t="s">
+      <c r="S27" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="T27" s="161"/>
-      <c r="U27" s="162"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="146"/>
       <c r="V27" s="87"/>
-      <c r="W27" s="160" t="s">
+      <c r="W27" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="X27" s="161"/>
-      <c r="Y27" s="162"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="146"/>
     </row>
     <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="129" t="s">
@@ -5111,7 +5595,7 @@
       <c r="A39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="104"/>
+      <c r="B39" s="101"/>
       <c r="C39" s="105"/>
       <c r="D39" s="104"/>
       <c r="E39" s="106"/>
@@ -5548,11 +6032,11 @@
       <c r="A55" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="145" t="s">
+      <c r="B55" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="146"/>
-      <c r="D55" s="147"/>
+      <c r="C55" s="154"/>
+      <c r="D55" s="155"/>
       <c r="E55" s="29"/>
       <c r="G55" s="52"/>
       <c r="H55" s="5"/>
@@ -5574,11 +6058,11 @@
       <c r="A56" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="148" t="s">
+      <c r="B56" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="149"/>
-      <c r="D56" s="150"/>
+      <c r="C56" s="148"/>
+      <c r="D56" s="149"/>
       <c r="E56" s="30"/>
       <c r="G56" s="52"/>
       <c r="H56" s="5"/>
@@ -5600,11 +6084,11 @@
       <c r="A57" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="148" t="s">
+      <c r="B57" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="149"/>
-      <c r="D57" s="150"/>
+      <c r="C57" s="148"/>
+      <c r="D57" s="149"/>
       <c r="E57" s="30"/>
       <c r="G57" s="52"/>
       <c r="H57" s="5"/>
@@ -5626,11 +6110,11 @@
       <c r="A58" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="148" t="s">
+      <c r="B58" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="149"/>
-      <c r="D58" s="150"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="149"/>
       <c r="E58" s="30"/>
       <c r="G58" s="52"/>
       <c r="H58" s="5"/>
@@ -5650,9 +6134,9 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
-      <c r="B59" s="148"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="150"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="149"/>
       <c r="E59" s="30"/>
       <c r="G59" s="52"/>
       <c r="H59" s="5"/>
@@ -5694,9 +6178,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
-      <c r="B61" s="148"/>
-      <c r="C61" s="149"/>
-      <c r="D61" s="150"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="149"/>
       <c r="E61" s="30"/>
       <c r="G61" s="52"/>
       <c r="H61" s="5"/>
@@ -5716,9 +6200,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
-      <c r="B62" s="148"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="150"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="149"/>
       <c r="E62" s="30"/>
       <c r="G62" s="52"/>
       <c r="H62" s="5"/>
@@ -5738,9 +6222,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
-      <c r="B63" s="148"/>
-      <c r="C63" s="149"/>
-      <c r="D63" s="150"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="149"/>
       <c r="E63" s="30"/>
       <c r="G63" s="52"/>
       <c r="H63" s="5"/>
@@ -5760,9 +6244,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
-      <c r="B64" s="148"/>
-      <c r="C64" s="149"/>
-      <c r="D64" s="150"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="148"/>
+      <c r="D64" s="149"/>
       <c r="E64" s="30"/>
       <c r="G64" s="52"/>
       <c r="H64" s="5"/>
@@ -5782,9 +6266,9 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="26"/>
-      <c r="B65" s="151"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="153"/>
+      <c r="B65" s="150"/>
+      <c r="C65" s="151"/>
+      <c r="D65" s="152"/>
       <c r="E65" s="31"/>
       <c r="G65" s="56"/>
       <c r="H65" s="57"/>
@@ -5812,379 +6296,507 @@
     <protectedRange sqref="A1" name="Titel"/>
     <protectedRange sqref="S27:Y28 S41:Y41" name="customEntities_1"/>
     <protectedRange sqref="N29:N40 J29:J40 R29:R40 A42:R52 A29:F40" name="Questionnaire_1"/>
-    <protectedRange sqref="B9:B13" name="Contact Fields_2_1"/>
+    <protectedRange sqref="B8:B13" name="Contact Fields_2_1"/>
     <protectedRange sqref="A9:A24" name="Contact Fields_1"/>
-    <protectedRange sqref="A25:B25 B14:B24 A7:B8" name="Contact Fields_3"/>
-    <protectedRange sqref="G7:G25" name="Contact Fields_4"/>
-    <protectedRange sqref="K7:K25" name="Contact Fields_5"/>
-    <protectedRange sqref="O7:O25" name="Contact Fields_6"/>
+    <protectedRange sqref="A25:B25 B14:B24 A7:B7 A8" name="Contact Fields_3"/>
+    <protectedRange sqref="K9 G7:G25" name="Contact Fields_4"/>
+    <protectedRange sqref="K7 K10:K25" name="Contact Fields_5"/>
+    <protectedRange sqref="O7:O25 K8" name="Contact Fields_6"/>
     <protectedRange sqref="A55:D59" name="Questionnaire_3_1"/>
     <protectedRange sqref="A60:E65 E55:E59" name="Questionnaire_4"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="O27:Q27"/>
     <mergeCell ref="S27:U27"/>
     <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:AG26 M10:N23 R13:AG23 W7:Y9 C10:F25 H10:J25 L24:N25 P24:AG25 P10:AG12 P13:P23">
-    <cfRule type="expression" dxfId="83" priority="97">
+    <cfRule type="expression" dxfId="127" priority="141">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="98">
+    <cfRule type="expression" dxfId="126" priority="142">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55:Y65">
-    <cfRule type="expression" dxfId="81" priority="95">
+    <cfRule type="expression" dxfId="125" priority="139">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="96">
+    <cfRule type="expression" dxfId="124" priority="140">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S55:U65">
-    <cfRule type="expression" dxfId="79" priority="93">
+    <cfRule type="expression" dxfId="123" priority="137">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="94">
+    <cfRule type="expression" dxfId="122" priority="138">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55:Q65">
-    <cfRule type="expression" dxfId="77" priority="91">
+    <cfRule type="expression" dxfId="121" priority="135">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="92">
+    <cfRule type="expression" dxfId="120" priority="136">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55:M65">
-    <cfRule type="expression" dxfId="75" priority="89">
+    <cfRule type="expression" dxfId="119" priority="133">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="90">
+    <cfRule type="expression" dxfId="118" priority="134">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:I65">
-    <cfRule type="expression" dxfId="73" priority="87">
+    <cfRule type="expression" dxfId="117" priority="131">
       <formula>$C55="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="88">
+    <cfRule type="expression" dxfId="116" priority="132">
       <formula>$D55="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13:Q23">
-    <cfRule type="expression" dxfId="71" priority="77">
+    <cfRule type="expression" dxfId="115" priority="121">
       <formula>$C13="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="78">
+    <cfRule type="expression" dxfId="114" priority="122">
       <formula>$D13="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L23">
-    <cfRule type="expression" dxfId="69" priority="75">
+    <cfRule type="expression" dxfId="113" priority="119">
       <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="76">
+    <cfRule type="expression" dxfId="112" priority="120">
       <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7:U8">
-    <cfRule type="expression" dxfId="67" priority="69">
+  <conditionalFormatting sqref="S7:U7">
+    <cfRule type="expression" dxfId="111" priority="113">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="70">
+    <cfRule type="expression" dxfId="110" priority="114">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:AE53">
-    <cfRule type="expression" dxfId="65" priority="59">
+    <cfRule type="expression" dxfId="109" priority="103">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="60">
+    <cfRule type="expression" dxfId="108" priority="104">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z29:AG34 A41:G41 AA35:AG52 B34 A34:A36 C34:F36 A28:G28 A27:F27 J27 N27 R27:AG27 A29:F33 A37:F40 N29:N40 J29:J40 R29:R40 A42:R52 I28:K28 M28:O28 Q28:AG28 I41:K41 M41:O41 Q41:Y41">
-    <cfRule type="expression" dxfId="63" priority="57">
+  <conditionalFormatting sqref="Z29:AG34 A41:G41 AA35:AG52 A34:A36 C34:F36 A28:G28 A27:F27 J27 N27 R27:AG27 A29:F33 N29:N40 J29:J40 R29:R40 A42:R52 I28:K28 M28:O28 Q28:AG28 I41:K41 M41:O41 Q41:Y41 B34 A37:F40">
+    <cfRule type="expression" dxfId="107" priority="101">
       <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="58">
+    <cfRule type="expression" dxfId="106" priority="102">
       <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="61" priority="55">
-      <formula>$C34="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="56">
-      <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:O30">
-    <cfRule type="expression" dxfId="59" priority="53">
+    <cfRule type="expression" dxfId="103" priority="97">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54">
+    <cfRule type="expression" dxfId="102" priority="98">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:Q30">
-    <cfRule type="expression" dxfId="57" priority="51">
+    <cfRule type="expression" dxfId="101" priority="95">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="52">
+    <cfRule type="expression" dxfId="100" priority="96">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:O40">
-    <cfRule type="expression" dxfId="55" priority="49">
+    <cfRule type="expression" dxfId="99" priority="93">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="98" priority="94">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:Q40">
-    <cfRule type="expression" dxfId="53" priority="47">
+    <cfRule type="expression" dxfId="97" priority="91">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="48">
+    <cfRule type="expression" dxfId="96" priority="92">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="51" priority="45">
+    <cfRule type="expression" dxfId="95" priority="89">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="46">
+    <cfRule type="expression" dxfId="94" priority="90">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:M30">
-    <cfRule type="expression" dxfId="49" priority="43">
+    <cfRule type="expression" dxfId="93" priority="87">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="44">
+    <cfRule type="expression" dxfId="92" priority="88">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:K40">
-    <cfRule type="expression" dxfId="47" priority="41">
+    <cfRule type="expression" dxfId="91" priority="85">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="90" priority="86">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:M40">
-    <cfRule type="expression" dxfId="45" priority="39">
+    <cfRule type="expression" dxfId="89" priority="83">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="40">
+    <cfRule type="expression" dxfId="88" priority="84">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:G30">
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="87" priority="81">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="86" priority="82">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:I30">
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="85" priority="79">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="84" priority="80">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:G40">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="83" priority="77">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="82" priority="78">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:I40">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="81" priority="75">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="80" priority="76">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:Y39">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="79" priority="73">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="78" priority="74">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S42:Y51">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="77" priority="71">
       <formula>$C42="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="76" priority="72">
       <formula>$D42="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52:Y52">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="75" priority="69">
       <formula>$C52="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="74" priority="70">
       <formula>$D52="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40:Y40">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="73" priority="67">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="72" priority="68">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z49">
-    <cfRule type="expression" dxfId="27" priority="61">
+    <cfRule type="expression" dxfId="71" priority="105">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="62">
+    <cfRule type="expression" dxfId="70" priority="106">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35 Z40:Z47">
-    <cfRule type="expression" dxfId="25" priority="63">
+    <cfRule type="expression" dxfId="69" priority="107">
       <formula>$C38="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="64">
+    <cfRule type="expression" dxfId="68" priority="108">
       <formula>$D38="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z48 Z36:Z39">
-    <cfRule type="expression" dxfId="23" priority="65">
+    <cfRule type="expression" dxfId="67" priority="109">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="66">
+    <cfRule type="expression" dxfId="66" priority="110">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B24 A25:B25">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="65" priority="65">
       <formula>$C14="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="64" priority="66">
       <formula>$D14="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:A24">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="63" priority="63">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="62" priority="64">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B13">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$D9="x"</formula>
+  <conditionalFormatting sqref="B10:B13">
+    <cfRule type="expression" dxfId="61" priority="61">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="62">
+      <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G25">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$D9="x"</formula>
+  <conditionalFormatting sqref="G10:G25">
+    <cfRule type="expression" dxfId="59" priority="59">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="60">
+      <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G8">
-    <cfRule type="expression" dxfId="13" priority="13">
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="57" priority="57">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="56" priority="58">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K25">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="55" priority="55">
       <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="54" priority="56">
       <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K8">
-    <cfRule type="expression" dxfId="9" priority="9">
+  <conditionalFormatting sqref="K7">
+    <cfRule type="expression" dxfId="53" priority="53">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="52" priority="54">
       <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10:O25">
+    <cfRule type="expression" dxfId="49" priority="49">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="50">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="expression" dxfId="47" priority="47">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="48">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9:U9">
+    <cfRule type="expression" dxfId="45" priority="45">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="46">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:I9">
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="44">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:M9">
+    <cfRule type="expression" dxfId="39" priority="39">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="40">
+      <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="38">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:Q9">
+    <cfRule type="expression" dxfId="35" priority="35">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="36">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="expression" dxfId="33" priority="33">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:E9">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:I8">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:Q8">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:M8">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
     <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C9="x"</formula>
+      <formula>$C8="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$D9="x"</formula>
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9:O25">
+  <conditionalFormatting sqref="B35">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C9="x"</formula>
+      <formula>$C35="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$D9="x"</formula>
+      <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O8">
+  <conditionalFormatting sqref="B36">
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C7="x"</formula>
+      <formula>$C36="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D7="x"</formula>
+      <formula>$D36="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S9:U9">
+  <conditionalFormatting sqref="S8:U8">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C9="x"</formula>
+      <formula>$C8="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D9="x"</formula>
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D52 C29:D40" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:D40 C42:D52 C7:D25" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7:Y25 Y55:Y65 U55:U65 U42:U52 Y42:Y52 Y29:Y40 U29:U40 U7:U25 Q7:Q25 M7:M25 I7:I25 I29:I40 I42:I52 I55:I65 M55:M65 Q55:Q65 Q42:Q52 Q29:Q40 M29:M40 M42:M52" xr:uid="{6BA81C7E-2A54-47E6-BB5B-703D2A70EF71}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7:Y25 Y55:Y65 U55:U65 U42:U52 Y42:Y52 Y29:Y40 U29:U40 Q7:Q25 M7:M25 I7:I25 M42:M52 I29:I40 I42:I52 I55:I65 M55:M65 Q55:Q65 Q42:Q52 Q29:Q40 M29:M40 U7:U25" xr:uid="{6BA81C7E-2A54-47E6-BB5B-703D2A70EF71}">
       <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6196,21 +6808,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6419,10 +7016,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6445,20 +7068,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\MS Dynamics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1254A253-EB2A-4195-B65C-CA0240AEABE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C98683-6D25-4E7B-8310-C69F8FDD2C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2047,6 +2047,56 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2074,56 +2124,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3811,8 +3811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3872,32 +3872,32 @@
         <v>41</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="G4" s="160" t="s">
+      <c r="G4" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="160" t="s">
+      <c r="K4" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="O4" s="160" t="s">
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="O4" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="S4" s="154" t="s">
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="S4" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="155"/>
-      <c r="U4" s="156"/>
-      <c r="W4" s="157" t="s">
+      <c r="T4" s="139"/>
+      <c r="U4" s="140"/>
+      <c r="W4" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="159"/>
+      <c r="X4" s="142"/>
+      <c r="Y4" s="143"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4696,35 +4696,35 @@
       <c r="C27" s="133"/>
       <c r="D27" s="133"/>
       <c r="E27" s="134"/>
-      <c r="G27" s="136" t="s">
+      <c r="G27" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="137"/>
-      <c r="I27" s="138"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="156"/>
       <c r="J27" s="86"/>
-      <c r="K27" s="136" t="s">
+      <c r="K27" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="137"/>
-      <c r="M27" s="138"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="156"/>
       <c r="N27" s="86"/>
-      <c r="O27" s="139" t="s">
+      <c r="O27" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="141"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="159"/>
       <c r="R27" s="87"/>
-      <c r="S27" s="142" t="s">
+      <c r="S27" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="143"/>
-      <c r="U27" s="144"/>
+      <c r="T27" s="161"/>
+      <c r="U27" s="162"/>
       <c r="V27" s="87"/>
-      <c r="W27" s="142" t="s">
+      <c r="W27" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="X27" s="143"/>
-      <c r="Y27" s="144"/>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="162"/>
     </row>
     <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="129" t="s">
@@ -5075,7 +5075,7 @@
       <c r="Y40" s="114"/>
     </row>
     <row r="41" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="137" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="89" t="s">
@@ -5407,7 +5407,7 @@
       <c r="Y53" s="9"/>
     </row>
     <row r="54" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="161" t="s">
+      <c r="A54" s="136" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -5469,11 +5469,11 @@
       <c r="A55" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="152"/>
-      <c r="D55" s="153"/>
+      <c r="C55" s="146"/>
+      <c r="D55" s="147"/>
       <c r="E55" s="29"/>
       <c r="G55" s="52"/>
       <c r="H55" s="5"/>
@@ -5495,11 +5495,11 @@
       <c r="A56" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="145" t="s">
+      <c r="B56" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="146"/>
-      <c r="D56" s="147"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="150"/>
       <c r="E56" s="30"/>
       <c r="G56" s="52"/>
       <c r="H56" s="5"/>
@@ -5521,11 +5521,11 @@
       <c r="A57" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="145" t="s">
+      <c r="B57" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="146"/>
-      <c r="D57" s="147"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="150"/>
       <c r="E57" s="30"/>
       <c r="G57" s="52"/>
       <c r="H57" s="5"/>
@@ -5547,11 +5547,11 @@
       <c r="A58" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="145" t="s">
+      <c r="B58" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="146"/>
-      <c r="D58" s="147"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="150"/>
       <c r="E58" s="30"/>
       <c r="G58" s="52"/>
       <c r="H58" s="5"/>
@@ -5571,9 +5571,9 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
-      <c r="B59" s="145"/>
-      <c r="C59" s="146"/>
-      <c r="D59" s="147"/>
+      <c r="B59" s="148"/>
+      <c r="C59" s="149"/>
+      <c r="D59" s="150"/>
       <c r="E59" s="30"/>
       <c r="G59" s="52"/>
       <c r="H59" s="5"/>
@@ -5615,9 +5615,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
-      <c r="B61" s="145"/>
-      <c r="C61" s="146"/>
-      <c r="D61" s="147"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="150"/>
       <c r="E61" s="30"/>
       <c r="G61" s="52"/>
       <c r="H61" s="5"/>
@@ -5637,9 +5637,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
-      <c r="B62" s="145"/>
-      <c r="C62" s="146"/>
-      <c r="D62" s="147"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="150"/>
       <c r="E62" s="30"/>
       <c r="G62" s="52"/>
       <c r="H62" s="5"/>
@@ -5659,9 +5659,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
-      <c r="B63" s="145"/>
-      <c r="C63" s="146"/>
-      <c r="D63" s="147"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="150"/>
       <c r="E63" s="30"/>
       <c r="G63" s="52"/>
       <c r="H63" s="5"/>
@@ -5681,9 +5681,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
-      <c r="B64" s="145"/>
-      <c r="C64" s="146"/>
-      <c r="D64" s="147"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="150"/>
       <c r="E64" s="30"/>
       <c r="G64" s="52"/>
       <c r="H64" s="5"/>
@@ -5703,9 +5703,9 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="26"/>
-      <c r="B65" s="148"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="150"/>
+      <c r="B65" s="151"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="153"/>
       <c r="E65" s="31"/>
       <c r="G65" s="56"/>
       <c r="H65" s="57"/>
@@ -5743,26 +5743,26 @@
     <protectedRange sqref="A60:E65 E55:E59" name="Questionnaire_4"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:AG26 M10:N23 R13:AG23 W7:Y9 C10:F25 H10:J25 L24:N25 P24:AG25 P10:AG12 P13:P23">
@@ -6093,15 +6093,12 @@
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y55:Y65 U55:U65 Q55:Q65 M55:M65 I55:I65 U7:U25 I7:I25 Y7:Y25 Q7:Q25 M7:M25 Q42:Q52 I42:I52 M42:M52" xr:uid="{602B57E5-9BC3-430C-9CF1-45F2FF9C756D}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D52 C29:D40" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y29:Y40 Q29:Q40 M29:M40 I29:I40 Y42:Y52 U42:U52 U29:U40" xr:uid="{32478F7B-812E-47AE-BD17-876FC13230A9}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U8:U25 U7 Y7:Y25 Y29:Y40 U29:U40 M29:M40 Q29:Q40 I29:I40 I43:I52 I42 M42:M52 Q42:Q52 U42:U52 Y42:Y52 I55:I65 M55:M65 Q55:Q65 U55:U65 Y55:Y65" xr:uid="{BF1108E1-26DB-42ED-8030-59CD352434CB}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6111,6 +6108,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6319,12 +6322,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6335,6 +6332,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6353,23 +6367,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C98683-6D25-4E7B-8310-C69F8FDD2C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF63356-F6FF-4EA9-981D-C1C000637929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,9 +267,6 @@
     <t>Anrede</t>
   </si>
   <si>
-    <t>das ist eine Notiz</t>
-  </si>
-  <si>
     <t>Vorname</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>Schema Name</t>
+  </si>
+  <si>
+    <t>Notizen</t>
   </si>
 </sst>
 </file>
@@ -2049,54 +2049,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2122,6 +2074,54 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -3812,7 +3812,7 @@
   <dimension ref="A1:Y66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3872,39 +3872,41 @@
         <v>41</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="G4" s="144" t="s">
+      <c r="G4" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="144" t="s">
+      <c r="K4" s="162" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="O4" s="144" t="s">
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="O4" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="S4" s="138" t="s">
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
+      <c r="S4" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="139"/>
-      <c r="U4" s="140"/>
-      <c r="W4" s="141" t="s">
+      <c r="T4" s="157"/>
+      <c r="U4" s="158"/>
+      <c r="W4" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="143"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="161"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="45" t="s">
+        <v>86</v>
+      </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
       <c r="E6" s="35" t="s">
@@ -4015,9 +4017,7 @@
       <c r="A9" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>67</v>
-      </c>
+      <c r="B9" s="39"/>
       <c r="C9" s="81"/>
       <c r="D9" s="82"/>
       <c r="E9" s="32"/>
@@ -4052,14 +4052,14 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="78"/>
       <c r="D10" s="22"/>
       <c r="E10" s="33"/>
       <c r="G10" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>4</v>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>4</v>
@@ -4095,14 +4095,14 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="78"/>
       <c r="D11" s="22"/>
       <c r="E11" s="33"/>
       <c r="G11" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>5</v>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>5</v>
@@ -4132,14 +4132,14 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="78"/>
       <c r="D12" s="22"/>
       <c r="E12" s="33"/>
       <c r="G12" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>28</v>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>28</v>
@@ -4169,14 +4169,14 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="78"/>
       <c r="D13" s="22"/>
       <c r="E13" s="33"/>
       <c r="G13" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>29</v>
@@ -4286,14 +4286,14 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="78"/>
       <c r="D16" s="22"/>
       <c r="E16" s="33"/>
       <c r="G16" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>32</v>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>32</v>
@@ -4312,7 +4312,7 @@
         <v>13</v>
       </c>
       <c r="O16" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>32</v>
@@ -4329,14 +4329,14 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="78"/>
       <c r="D17" s="22"/>
       <c r="E17" s="33"/>
       <c r="G17" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>7</v>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>7</v>
@@ -4409,14 +4409,14 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="78"/>
       <c r="D19" s="22"/>
       <c r="E19" s="33"/>
       <c r="G19" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>33</v>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>33</v>
@@ -4435,7 +4435,7 @@
         <v>13</v>
       </c>
       <c r="O19" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>33</v>
@@ -4452,14 +4452,14 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="78"/>
       <c r="D20" s="22"/>
       <c r="E20" s="33"/>
       <c r="G20" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>34</v>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="J20" s="123"/>
       <c r="K20" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>34</v>
@@ -4478,7 +4478,7 @@
         <v>13</v>
       </c>
       <c r="O20" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>35</v>
@@ -4538,14 +4538,14 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="78"/>
       <c r="D22" s="22"/>
       <c r="E22" s="33"/>
       <c r="G22" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>36</v>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>36</v>
@@ -4564,7 +4564,7 @@
         <v>13</v>
       </c>
       <c r="O22" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>36</v>
@@ -4581,14 +4581,14 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="78"/>
       <c r="D23" s="22"/>
       <c r="E23" s="33"/>
       <c r="G23" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>37</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="78"/>
@@ -4629,7 +4629,7 @@
       <c r="I24" s="51"/>
       <c r="J24" s="1"/>
       <c r="K24" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>38</v>
@@ -4696,35 +4696,35 @@
       <c r="C27" s="133"/>
       <c r="D27" s="133"/>
       <c r="E27" s="134"/>
-      <c r="G27" s="154" t="s">
+      <c r="G27" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="155"/>
-      <c r="I27" s="156"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="140"/>
       <c r="J27" s="86"/>
-      <c r="K27" s="154" t="s">
+      <c r="K27" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="155"/>
-      <c r="M27" s="156"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="140"/>
       <c r="N27" s="86"/>
-      <c r="O27" s="157" t="s">
+      <c r="O27" s="141" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="159"/>
+      <c r="P27" s="142"/>
+      <c r="Q27" s="143"/>
       <c r="R27" s="87"/>
-      <c r="S27" s="160" t="s">
+      <c r="S27" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="161"/>
-      <c r="U27" s="162"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="146"/>
       <c r="V27" s="87"/>
-      <c r="W27" s="160" t="s">
+      <c r="W27" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="X27" s="161"/>
-      <c r="Y27" s="162"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="146"/>
     </row>
     <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="129" t="s">
@@ -4769,7 +4769,7 @@
         <v>48</v>
       </c>
       <c r="T28" s="91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U28" s="92" t="s">
         <v>9</v>
@@ -4778,7 +4778,7 @@
         <v>48</v>
       </c>
       <c r="X28" s="91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y28" s="92" t="s">
         <v>9</v>
@@ -5117,7 +5117,7 @@
         <v>48</v>
       </c>
       <c r="T41" s="116" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U41" s="117" t="s">
         <v>9</v>
@@ -5126,7 +5126,7 @@
         <v>48</v>
       </c>
       <c r="X41" s="116" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y41" s="117" t="s">
         <v>9</v>
@@ -5467,13 +5467,13 @@
     </row>
     <row r="55" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="145" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="146"/>
-      <c r="D55" s="147"/>
+      <c r="C55" s="154"/>
+      <c r="D55" s="155"/>
       <c r="E55" s="29"/>
       <c r="G55" s="52"/>
       <c r="H55" s="5"/>
@@ -5493,13 +5493,13 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="149"/>
-      <c r="D56" s="150"/>
+      <c r="C56" s="148"/>
+      <c r="D56" s="149"/>
       <c r="E56" s="30"/>
       <c r="G56" s="52"/>
       <c r="H56" s="5"/>
@@ -5519,13 +5519,13 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="148" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="149"/>
-      <c r="D57" s="150"/>
+      <c r="C57" s="148"/>
+      <c r="D57" s="149"/>
       <c r="E57" s="30"/>
       <c r="G57" s="52"/>
       <c r="H57" s="5"/>
@@ -5545,13 +5545,13 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="148" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="149"/>
-      <c r="D58" s="150"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="149"/>
       <c r="E58" s="30"/>
       <c r="G58" s="52"/>
       <c r="H58" s="5"/>
@@ -5571,9 +5571,9 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
-      <c r="B59" s="148"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="150"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="149"/>
       <c r="E59" s="30"/>
       <c r="G59" s="52"/>
       <c r="H59" s="5"/>
@@ -5615,9 +5615,9 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
-      <c r="B61" s="148"/>
-      <c r="C61" s="149"/>
-      <c r="D61" s="150"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="149"/>
       <c r="E61" s="30"/>
       <c r="G61" s="52"/>
       <c r="H61" s="5"/>
@@ -5637,9 +5637,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
-      <c r="B62" s="148"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="150"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="149"/>
       <c r="E62" s="30"/>
       <c r="G62" s="52"/>
       <c r="H62" s="5"/>
@@ -5659,9 +5659,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
-      <c r="B63" s="148"/>
-      <c r="C63" s="149"/>
-      <c r="D63" s="150"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="149"/>
       <c r="E63" s="30"/>
       <c r="G63" s="52"/>
       <c r="H63" s="5"/>
@@ -5681,9 +5681,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
-      <c r="B64" s="148"/>
-      <c r="C64" s="149"/>
-      <c r="D64" s="150"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="148"/>
+      <c r="D64" s="149"/>
       <c r="E64" s="30"/>
       <c r="G64" s="52"/>
       <c r="H64" s="5"/>
@@ -5703,9 +5703,9 @@
     </row>
     <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="26"/>
-      <c r="B65" s="151"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="153"/>
+      <c r="B65" s="150"/>
+      <c r="C65" s="151"/>
+      <c r="D65" s="152"/>
       <c r="E65" s="31"/>
       <c r="G65" s="56"/>
       <c r="H65" s="57"/>
@@ -5743,26 +5743,26 @@
     <protectedRange sqref="A60:E65 E55:E59" name="Questionnaire_4"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="O27:Q27"/>
     <mergeCell ref="S27:U27"/>
     <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A26:AG26 M10:N23 R13:AG23 W7:Y9 C10:F25 H10:J25 L24:N25 P24:AG25 P10:AG12 P13:P23">
@@ -6108,12 +6108,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6322,6 +6316,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6332,23 +6332,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6367,6 +6350,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF63356-F6FF-4EA9-981D-C1C000637929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09073B86-3782-41B5-B466-5C81A3DBEA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8835" yWindow="9045" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Field_type">Specifications!$I$7:$I$25,Specifications!$M$7:$M$25,Specifications!$Q$7:$Q$25,Specifications!$U$7:$U$25,Specifications!$Y$7:$Y$25,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$55:$Y$65,Specifications!$U$55:$U$65,Specifications!$Q$55:$Q$65,Specifications!$M$55:$M$65,Specifications!$I$55:$I$65,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$I$7:$I$29,Specifications!$M$7:$M$29,Specifications!$Q$7:$Q$29,Specifications!$U$7:$U$29,Specifications!$Y$7:$Y$29,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$59:$Y$66,Specifications!$U$59:$U$66,Specifications!$Q$59:$Q$66,Specifications!$M$59:$M$66,Specifications!$I$59:$I$66,Specifications!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="95">
   <si>
     <t>Website</t>
   </si>
@@ -326,12 +326,36 @@
   <si>
     <t>Notizen</t>
   </si>
+  <si>
+    <t>Beispiel Nicht-benötigtes Feld</t>
+  </si>
+  <si>
+    <t>Nicht benötigt</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Nicht Benötigt</t>
+  </si>
+  <si>
+    <t>Beispiel Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Pflichfeld</t>
+  </si>
+  <si>
+    <t>(= Felder mit automatischem Wert)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,15 +437,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,14 +481,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="110">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -542,142 +553,59 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
       <right/>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1055,28 +983,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF001E51"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF001E51"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF001E51"/>
       </left>
@@ -1185,6 +1091,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFB4C6E7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FFB4C6E7"/>
       </left>
@@ -1192,7 +1111,33 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFB4C6E7"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1203,117 +1148,8 @@
       <top style="thin">
         <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFB4C6E7"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFB4C6E7"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFB4C6E7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFB4C6E7"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFB4C6E7"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
       <bottom style="thick">
         <color rgb="FFB4C6E7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFB4C6E7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFB4C6E7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFB4C6E7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,130 +1231,6 @@
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
       <right style="thick">
@@ -1563,43 +1275,6 @@
     </border>
     <border>
       <left style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </right>
-      <top style="thick">
-        <color theme="4" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF001E51"/>
       </left>
       <right style="thin">
@@ -1622,17 +1297,6 @@
         <color rgb="FF001E51"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF001E51"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1842,11 +1506,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1859,53 +1549,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1913,79 +1584,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1993,108 +1616,83 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2103,32 +1701,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="89">
     <dxf>
       <font>
         <b val="0"/>
@@ -2269,8 +1884,140 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2335,8 +2082,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.1498764000366222"/>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2379,8 +2126,184 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.1498764000366222"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2665,7 +2588,7 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
+        <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -2710,293 +2633,7 @@
       </font>
       <fill>
         <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.1498764000366222"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.1498764000366222"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.1498764000366222"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -3105,11 +2742,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="86"/>
-      <tableStyleElement type="headerRow" dxfId="85"/>
-      <tableStyleElement type="firstColumn" dxfId="84"/>
-      <tableStyleElement type="firstRowStripe" dxfId="83"/>
-      <tableStyleElement type="secondRowStripe" dxfId="82"/>
+      <tableStyleElement type="wholeTable" dxfId="88"/>
+      <tableStyleElement type="headerRow" dxfId="87"/>
+      <tableStyleElement type="firstColumn" dxfId="86"/>
+      <tableStyleElement type="firstRowStripe" dxfId="85"/>
+      <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3229,13 +2866,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3300,13 +2937,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>949569</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>14255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>153866</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>6928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3322,8 +2959,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5582529" y="5971190"/>
-          <a:ext cx="370157" cy="213653"/>
+          <a:off x="5569194" y="6548405"/>
+          <a:ext cx="366347" cy="211748"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3371,13 +3008,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>187569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>197826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3442,13 +3079,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3466,6 +3103,148 @@
         <a:xfrm>
           <a:off x="5609785" y="6096000"/>
           <a:ext cx="182150" cy="217756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 64615"/>
+            <a:gd name="adj2" fmla="val 79428"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FE6C36"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>973015</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105510</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>4396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Pfeil: nach rechts 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFFA1826-0EA1-4641-ACF7-81E0FF13B8A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5592640" y="12096750"/>
+          <a:ext cx="180245" cy="213946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 64615"/>
+            <a:gd name="adj2" fmla="val 79428"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FE6C36"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>973015</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105510</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>4396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Pfeil: nach rechts 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A71029-28E0-4CBB-9639-DC24BC16FFEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5592640" y="12096750"/>
+          <a:ext cx="180245" cy="213946"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3809,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:AG67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3835,7 +3614,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="49" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="1"/>
@@ -3846,7 +3625,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1"/>
@@ -3857,2247 +3636,2351 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="G3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="G4" s="162" t="s">
+      <c r="E4" s="19"/>
+      <c r="G4" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="162" t="s">
+      <c r="K4" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="O4" s="162" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="O4" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="S4" s="156" t="s">
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="S4" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="157"/>
-      <c r="U4" s="158"/>
-      <c r="W4" s="159" t="s">
+      <c r="T4" s="101"/>
+      <c r="U4" s="102"/>
+      <c r="W4" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="161"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="105"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="35" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="31" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="M6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="47" t="s">
+      <c r="O6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="48" t="s">
+      <c r="P6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="49" t="s">
+      <c r="Q6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="61" t="s">
+      <c r="S6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="62" t="s">
+      <c r="T6" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="61" t="s">
+      <c r="W6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="X6" s="62" t="s">
+      <c r="X6" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="63" t="s">
+      <c r="Y6" s="42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="32"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="51"/>
+      <c r="A7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="G7" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>13</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="51"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="51"/>
-      <c r="S7" s="70"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="34"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="34"/>
+      <c r="S7" s="44"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="69"/>
-      <c r="W7" s="70"/>
+      <c r="U7" s="43"/>
+      <c r="W7" s="44"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="69"/>
+      <c r="Y7" s="43"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="23"/>
+      <c r="G8" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="34"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="34"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="43"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="43"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="23"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="34"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="34"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="43"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="43"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="32"/>
-      <c r="G8" s="50" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="23"/>
+      <c r="G10" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="51"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="51"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="69"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="69"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="34"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="34"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="43"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="43"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="32"/>
-      <c r="G9" s="52" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="23"/>
+      <c r="G11" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="52" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="52"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="51"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="69"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="69"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="O11" s="33"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="34"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="43"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="43"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="33"/>
-      <c r="G10" s="52" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="23"/>
+      <c r="G12" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="52" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="53" t="s">
+      <c r="M12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="52"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="53"/>
-      <c r="S10" s="68" t="s">
+      <c r="O12" s="33"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="34"/>
+      <c r="S12" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="10" t="s">
+      <c r="T12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="U10" s="69" t="s">
+      <c r="U12" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="W10" s="70"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="69"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="W12" s="44"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="43"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="33"/>
-      <c r="G11" s="52" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="23"/>
+      <c r="G13" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="52" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="M13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="52"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="53"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="69"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="69"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="33"/>
-      <c r="G12" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="52"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="53"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="69"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="69"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="33"/>
-      <c r="G13" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="53"/>
-      <c r="O13" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="S13" s="70"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="34"/>
+      <c r="S13" s="44"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="69"/>
-      <c r="W13" s="70"/>
+      <c r="U13" s="43"/>
+      <c r="W13" s="44"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="69"/>
+      <c r="Y13" s="43"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="23"/>
+      <c r="G14" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="33"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="34"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="43"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="43"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="23"/>
+      <c r="G15" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="34"/>
+      <c r="O15" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" s="44"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="43"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="43"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="33"/>
-      <c r="G14" s="50" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="23"/>
+      <c r="G16" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="53" t="s">
+      <c r="I16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="50" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="53" t="s">
+      <c r="M16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="50" t="s">
+      <c r="O16" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="Q14" s="53" t="s">
+      <c r="Q16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="S14" s="70"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="69"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="69"/>
-    </row>
-    <row r="15" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="S16" s="44"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="43"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="43"/>
+    </row>
+    <row r="17" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="G15" s="54" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="23"/>
+      <c r="F17"/>
+      <c r="G17" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="54" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="L17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="53" t="s">
+      <c r="M17" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="54"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="53"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="72"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="72"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="N17"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="34"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="43"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="33"/>
-      <c r="G16" s="55" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="23"/>
+      <c r="G18" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I18" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="55" t="s">
+      <c r="J18" s="1"/>
+      <c r="K18" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="53" t="s">
+      <c r="M18" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="55" t="s">
+      <c r="O18" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="53" t="s">
+      <c r="Q18" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="S16" s="70"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="69"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="69"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="S18" s="44"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="43"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="43"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="33"/>
-      <c r="G17" s="52" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="23"/>
+      <c r="G19" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I19" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="52" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="53" t="s">
+      <c r="M19" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="52"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="53"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="67"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="69"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="O19" s="33"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="34"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="43"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="43"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="33"/>
-      <c r="G18" s="52" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="23"/>
+      <c r="G20" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="52" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="53" t="s">
+      <c r="M20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="52" t="s">
+      <c r="O20" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="53" t="s">
+      <c r="Q20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="S18" s="70"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="69"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="69"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="S20" s="44"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="43"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="43"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="33"/>
-      <c r="G19" s="52" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="23"/>
+      <c r="G21" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="52" t="s">
+      <c r="J21" s="1"/>
+      <c r="K21" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="53" t="s">
+      <c r="M21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="52" t="s">
+      <c r="O21" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="53" t="s">
+      <c r="Q21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="S19" s="70"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="69"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="69"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="S21" s="44"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="43"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="43"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="33"/>
-      <c r="G20" s="52" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="23"/>
+      <c r="G22" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="122" t="s">
+      <c r="I22" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="123"/>
-      <c r="K20" s="52" t="s">
+      <c r="J22" s="1"/>
+      <c r="K22" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="53" t="s">
+      <c r="M22" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="52" t="s">
+      <c r="O22" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" s="53" t="s">
+      <c r="Q22" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="S20" s="70"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="69"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="69"/>
-    </row>
-    <row r="21" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="S22" s="44"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="43"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="43"/>
+    </row>
+    <row r="23" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="G21" s="54" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="23"/>
+      <c r="F23"/>
+      <c r="G23" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="53" t="s">
+      <c r="I23" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="54" t="s">
+      <c r="J23" s="1"/>
+      <c r="K23" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="44" t="s">
+      <c r="L23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="53" t="s">
+      <c r="M23" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="54" t="s">
+      <c r="N23"/>
+      <c r="O23" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="44" t="s">
+      <c r="P23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q21" s="53" t="s">
+      <c r="Q23" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="71"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="72"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="72"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="S23" s="44"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="43"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="33"/>
-      <c r="G22" s="52" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="23"/>
+      <c r="G24" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I24" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="52" t="s">
+      <c r="J24" s="1"/>
+      <c r="K24" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="53" t="s">
+      <c r="M24" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O22" s="52" t="s">
+      <c r="O24" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q22" s="53" t="s">
+      <c r="Q24" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="S22" s="70"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="69"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="69"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="S24" s="44"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="43"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="43"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="33"/>
-      <c r="G23" s="50" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="23"/>
+      <c r="G25" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I25" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="51"/>
-      <c r="O23" s="50" t="s">
+      <c r="J25" s="1"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="34"/>
+      <c r="O25" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Q23" s="53" t="s">
+      <c r="Q25" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="S23" s="64"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="65"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="65"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="S25" s="44"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="43"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="43"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="33"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="50" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="23"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M24" s="51" t="s">
+      <c r="M26" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O24" s="50"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="51"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="65"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="65"/>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="34"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="58"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="58"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="75"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="75"/>
-    </row>
-    <row r="26" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="8"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="9"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="9"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="60"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="9"/>
-    </row>
-    <row r="27" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="130" t="s">
+      <c r="O26" s="33"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="34"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="43"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="43"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="23"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="34"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="34"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="43"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="43"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="23"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="34"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="34"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="43"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="43"/>
+    </row>
+    <row r="29" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="107"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="111"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="37"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="37"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="47"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="47"/>
+    </row>
+    <row r="30" spans="1:33" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="8"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="9"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="9"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="39"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="9"/>
+    </row>
+    <row r="31" spans="1:33" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134"/>
-      <c r="G27" s="138" t="s">
+      <c r="B31" s="76"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78"/>
+      <c r="G31" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="139"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="138" t="s">
+      <c r="H31" s="86"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="139"/>
-      <c r="M27" s="140"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="141" t="s">
+      <c r="L31" s="86"/>
+      <c r="M31" s="87"/>
+      <c r="O31" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="142"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="144" t="s">
+      <c r="P31" s="89"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="T27" s="145"/>
-      <c r="U27" s="146"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="144" t="s">
+      <c r="T31" s="92"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="X27" s="145"/>
-      <c r="Y27" s="146"/>
-    </row>
-    <row r="28" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="129" t="s">
+      <c r="X31" s="92"/>
+      <c r="Y31" s="93"/>
+    </row>
+    <row r="32" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B32" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="135" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="127" t="s">
+      <c r="G32" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="48" t="s">
+      <c r="H32" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="128" t="s">
+      <c r="I32" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="127" t="s">
+      <c r="J32" s="1"/>
+      <c r="K32" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="48" t="s">
+      <c r="L32" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="128" t="s">
+      <c r="M32" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="O28" s="127" t="s">
+      <c r="O32" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="P28" s="48" t="s">
+      <c r="P32" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q28" s="128" t="s">
+      <c r="Q32" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="S28" s="90" t="s">
+      <c r="S32" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="T28" s="91" t="s">
+      <c r="T32" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="U28" s="92" t="s">
+      <c r="U32" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="W28" s="90" t="s">
+      <c r="W32" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="X28" s="91" t="s">
+      <c r="X32" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="Y28" s="92" t="s">
+      <c r="Y32" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+    <row r="33" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="94" t="s">
+      <c r="B33" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="96" t="s">
+      <c r="C33" s="58"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="50"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="53"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="53"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="98"/>
-      <c r="W29" s="97"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="98"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="99"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="96"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="53"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="53"/>
-      <c r="S30" s="97"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="98"/>
-      <c r="W30" s="97"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="98"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="103"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="53"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="53"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="53"/>
-      <c r="S31" s="97"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="98"/>
-      <c r="W31" s="97"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="98"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="103"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="53"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="53"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="53"/>
-      <c r="S32" s="97"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="98"/>
-      <c r="W32" s="97"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="98"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="103"/>
-      <c r="G33" s="50"/>
+      <c r="G33" s="32"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="53"/>
-      <c r="K33" s="50"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="32"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="53"/>
-      <c r="O33" s="50"/>
+      <c r="M33" s="34"/>
+      <c r="O33" s="32"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="53"/>
-      <c r="S33" s="97"/>
+      <c r="Q33" s="34"/>
+      <c r="S33" s="44"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="98"/>
-      <c r="W33" s="97"/>
+      <c r="U33" s="43"/>
+      <c r="W33" s="44"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="98"/>
+      <c r="Y33" s="43"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="103"/>
-      <c r="G34" s="50"/>
+        <v>54</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="62"/>
+      <c r="G34" s="32"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="53"/>
-      <c r="K34" s="50"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="32"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="53"/>
-      <c r="O34" s="50"/>
+      <c r="M34" s="34"/>
+      <c r="O34" s="32"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="53"/>
-      <c r="S34" s="97"/>
+      <c r="Q34" s="34"/>
+      <c r="S34" s="44"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="98"/>
-      <c r="W34" s="97"/>
+      <c r="U34" s="43"/>
+      <c r="W34" s="44"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="98"/>
+      <c r="Y34" s="43"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="103"/>
-      <c r="G35" s="50"/>
+        <v>55</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="62"/>
+      <c r="G35" s="32"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="53"/>
-      <c r="K35" s="50"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="32"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="53"/>
-      <c r="O35" s="50"/>
+      <c r="M35" s="34"/>
+      <c r="O35" s="32"/>
       <c r="P35" s="6"/>
-      <c r="Q35" s="53"/>
-      <c r="S35" s="97"/>
+      <c r="Q35" s="34"/>
+      <c r="S35" s="44"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="98"/>
-      <c r="W35" s="97"/>
+      <c r="U35" s="43"/>
+      <c r="W35" s="44"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="98"/>
+      <c r="Y35" s="43"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="103"/>
-      <c r="G36" s="50"/>
+        <v>56</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="62"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="53"/>
-      <c r="K36" s="50"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="32"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="53"/>
-      <c r="O36" s="50"/>
+      <c r="M36" s="34"/>
+      <c r="O36" s="32"/>
       <c r="P36" s="6"/>
-      <c r="Q36" s="53"/>
-      <c r="S36" s="97"/>
+      <c r="Q36" s="34"/>
+      <c r="S36" s="44"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="98"/>
-      <c r="W36" s="97"/>
+      <c r="U36" s="43"/>
+      <c r="W36" s="44"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="98"/>
+      <c r="Y36" s="43"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="103"/>
-      <c r="G37" s="50"/>
+        <v>57</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="62"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="53"/>
-      <c r="K37" s="50"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="32"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="53"/>
-      <c r="O37" s="50"/>
+      <c r="M37" s="34"/>
+      <c r="O37" s="32"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="53"/>
-      <c r="S37" s="97"/>
+      <c r="Q37" s="34"/>
+      <c r="S37" s="44"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="98"/>
-      <c r="W37" s="97"/>
+      <c r="U37" s="43"/>
+      <c r="W37" s="44"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="98"/>
+      <c r="Y37" s="43"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="101"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="103"/>
-      <c r="G38" s="50"/>
+        <v>58</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="62"/>
+      <c r="G38" s="32"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="53"/>
-      <c r="K38" s="50"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="32"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="53"/>
-      <c r="O38" s="50"/>
+      <c r="M38" s="34"/>
+      <c r="O38" s="32"/>
       <c r="P38" s="6"/>
-      <c r="Q38" s="53"/>
-      <c r="S38" s="97"/>
+      <c r="Q38" s="34"/>
+      <c r="S38" s="44"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="98"/>
-      <c r="W38" s="97"/>
+      <c r="U38" s="43"/>
+      <c r="W38" s="44"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="98"/>
+      <c r="Y38" s="43"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="104"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="106"/>
-      <c r="G39" s="50"/>
+        <v>59</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="62"/>
+      <c r="G39" s="32"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="51"/>
-      <c r="K39" s="50"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="32"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="51"/>
-      <c r="O39" s="50"/>
+      <c r="M39" s="34"/>
+      <c r="O39" s="32"/>
       <c r="P39" s="6"/>
-      <c r="Q39" s="51"/>
-      <c r="S39" s="107"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="108"/>
-      <c r="W39" s="107"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="108"/>
-    </row>
-    <row r="40" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="109"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="111"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="58"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="58"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="58"/>
-      <c r="S40" s="112"/>
-      <c r="T40" s="113"/>
-      <c r="U40" s="114"/>
-      <c r="W40" s="112"/>
-      <c r="X40" s="113"/>
-      <c r="Y40" s="114"/>
-    </row>
-    <row r="41" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="137" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="L41" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="M41" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="O41" s="124" t="s">
-        <v>48</v>
-      </c>
-      <c r="P41" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q41" s="125" t="s">
-        <v>9</v>
-      </c>
-      <c r="S41" s="115" t="s">
-        <v>48</v>
-      </c>
-      <c r="T41" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="U41" s="117" t="s">
-        <v>9</v>
-      </c>
-      <c r="W41" s="115" t="s">
-        <v>48</v>
-      </c>
-      <c r="X41" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y41" s="117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="96"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="53"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="53"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="126"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="119"/>
-      <c r="U42" s="120"/>
-      <c r="W42" s="118"/>
-      <c r="X42" s="119"/>
-      <c r="Y42" s="120"/>
+      <c r="Q39" s="34"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="43"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="43"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="62"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="34"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="34"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="43"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="43"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="62"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="34"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="34"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="43"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="43"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="62"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="34"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="34"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="43"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="43"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="101"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="103"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="53"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="53"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="53"/>
-      <c r="S43" s="97"/>
+        <v>63</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="62"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="34"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="34"/>
+      <c r="S43" s="44"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="98"/>
-      <c r="W43" s="97"/>
+      <c r="U43" s="43"/>
+      <c r="W43" s="44"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="98"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="103"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="53"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="53"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="53"/>
-      <c r="S44" s="97"/>
+      <c r="Y43" s="43"/>
+    </row>
+    <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="65"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="37"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="37"/>
+      <c r="S44" s="44"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="98"/>
-      <c r="W44" s="97"/>
+      <c r="U44" s="43"/>
+      <c r="W44" s="44"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="98"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="103"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="53"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="53"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="53"/>
-      <c r="S45" s="97"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="98"/>
-      <c r="W45" s="97"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="98"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="103"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="53"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="53"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="53"/>
-      <c r="S46" s="97"/>
+      <c r="Y44" s="43"/>
+    </row>
+    <row r="45" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="O45" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="P45" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q45" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="S45" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="T45" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="U45" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="W45" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="X45" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y45" s="68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="57"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="59"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="34"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="34"/>
+      <c r="S46" s="44"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="98"/>
-      <c r="W46" s="97"/>
+      <c r="U46" s="43"/>
+      <c r="W46" s="44"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="98"/>
+      <c r="Y46" s="43"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="101"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="103"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="53"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="53"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="53"/>
-      <c r="S47" s="97"/>
+        <v>55</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="62"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="34"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="34"/>
+      <c r="S47" s="44"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="98"/>
-      <c r="W47" s="97"/>
+      <c r="U47" s="43"/>
+      <c r="W47" s="44"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="98"/>
+      <c r="Y47" s="43"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="103"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="53"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="53"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="53"/>
-      <c r="S48" s="97"/>
+        <v>56</v>
+      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="62"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="34"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="34"/>
+      <c r="S48" s="44"/>
       <c r="T48" s="5"/>
-      <c r="U48" s="98"/>
-      <c r="W48" s="97"/>
+      <c r="U48" s="43"/>
+      <c r="W48" s="44"/>
       <c r="X48" s="5"/>
-      <c r="Y48" s="98"/>
+      <c r="Y48" s="43"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="101"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="103"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="53"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="53"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="53"/>
-      <c r="S49" s="97"/>
+        <v>57</v>
+      </c>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="62"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="34"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="34"/>
+      <c r="S49" s="44"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="98"/>
-      <c r="W49" s="97"/>
+      <c r="U49" s="43"/>
+      <c r="W49" s="44"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="98"/>
+      <c r="Y49" s="43"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="103"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="53"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="53"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="53"/>
-      <c r="S50" s="97"/>
+        <v>58</v>
+      </c>
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="62"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="34"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="34"/>
+      <c r="S50" s="44"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="98"/>
-      <c r="W50" s="97"/>
+      <c r="U50" s="43"/>
+      <c r="W50" s="44"/>
       <c r="X50" s="5"/>
-      <c r="Y50" s="98"/>
+      <c r="Y50" s="43"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="62"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="34"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="34"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="43"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="43"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="60"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="62"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="34"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="34"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="43"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="43"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="62"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="34"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="34"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="43"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="43"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="62"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="34"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="34"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="43"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="43"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="104"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="106"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="51"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="51"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="51"/>
-      <c r="S51" s="107"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="108"/>
-      <c r="W51" s="107"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="108"/>
-    </row>
-    <row r="52" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="121"/>
-      <c r="B52" s="109"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="111"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="58"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="58"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="58"/>
-      <c r="S52" s="112"/>
-      <c r="T52" s="113"/>
-      <c r="U52" s="114"/>
-      <c r="W52" s="112"/>
-      <c r="X52" s="113"/>
-      <c r="Y52" s="114"/>
-    </row>
-    <row r="53" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="8"/>
-      <c r="I53" s="9"/>
-      <c r="K53" s="8"/>
-      <c r="M53" s="9"/>
-      <c r="O53" s="8"/>
-      <c r="Q53" s="9"/>
-      <c r="S53" s="8"/>
-      <c r="U53" s="9"/>
-      <c r="W53" s="8"/>
-      <c r="Y53" s="9"/>
-    </row>
-    <row r="54" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="136" t="s">
+      <c r="B55" s="60"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="62"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="34"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="34"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="43"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="43"/>
+    </row>
+    <row r="56" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="107"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="111"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="37"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="37"/>
+      <c r="S56" s="45"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="47"/>
+      <c r="W56" s="45"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="47"/>
+    </row>
+    <row r="57" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="8"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="8"/>
+      <c r="M57" s="9"/>
+      <c r="O57" s="8"/>
+      <c r="Q57" s="9"/>
+      <c r="S57" s="8"/>
+      <c r="U57" s="9"/>
+      <c r="W57" s="8"/>
+      <c r="Y57" s="9"/>
+    </row>
+    <row r="58" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="47" t="s">
+      <c r="G58" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H54" s="48" t="s">
+      <c r="H58" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I54" s="49" t="s">
+      <c r="I58" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="47" t="s">
+      <c r="J58" s="1"/>
+      <c r="K58" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="L54" s="48" t="s">
+      <c r="L58" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M54" s="49" t="s">
+      <c r="M58" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="O54" s="47" t="s">
+      <c r="O58" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="P54" s="48" t="s">
+      <c r="P58" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q54" s="49" t="s">
+      <c r="Q58" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="S54" s="61" t="s">
+      <c r="S58" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="T54" s="62" t="s">
+      <c r="T58" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="U54" s="63" t="s">
+      <c r="U58" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="W54" s="61" t="s">
+      <c r="W58" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="X54" s="62" t="s">
+      <c r="X58" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="Y54" s="63" t="s">
+      <c r="Y58" s="42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+    <row r="59" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="97"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="20"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="34"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="34"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="43"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="43"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="153" t="s">
+      <c r="B60" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="154"/>
-      <c r="D55" s="155"/>
-      <c r="E55" s="29"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="53"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="53"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="53"/>
-      <c r="S55" s="70"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="69"/>
-      <c r="W55" s="70"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="69"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="C60" s="83"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="21"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="34"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="34"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="43"/>
+      <c r="W60" s="44"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="43"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="147" t="s">
+      <c r="B61" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="148"/>
-      <c r="D56" s="149"/>
-      <c r="E56" s="30"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="53"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="53"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="53"/>
-      <c r="S56" s="70"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="69"/>
-      <c r="W56" s="70"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="69"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
+      <c r="C61" s="83"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="21"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="34"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="34"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="43"/>
+      <c r="W61" s="44"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="43"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="147" t="s">
+      <c r="B62" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="148"/>
-      <c r="D57" s="149"/>
-      <c r="E57" s="30"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="53"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="53"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="53"/>
-      <c r="S57" s="70"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="69"/>
-      <c r="W57" s="70"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="69"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="C62" s="83"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="21"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="34"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="34"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="43"/>
+      <c r="W62" s="44"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="43"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="147" t="s">
+      <c r="B63" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="148"/>
-      <c r="D58" s="149"/>
-      <c r="E58" s="30"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="53"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="53"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="53"/>
-      <c r="S58" s="70"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="69"/>
-      <c r="W58" s="70"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="69"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="147"/>
-      <c r="C59" s="148"/>
-      <c r="D59" s="149"/>
-      <c r="E59" s="30"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="53"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="53"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="53"/>
-      <c r="S59" s="70"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="69"/>
-      <c r="W59" s="70"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="69"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="30"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="53"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="53"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="53"/>
-      <c r="S60" s="70"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="69"/>
-      <c r="W60" s="70"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="69"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="147"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="149"/>
-      <c r="E61" s="30"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="53"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="53"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="53"/>
-      <c r="S61" s="70"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="69"/>
-      <c r="W61" s="70"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="69"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="147"/>
-      <c r="C62" s="148"/>
-      <c r="D62" s="149"/>
-      <c r="E62" s="30"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="53"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="53"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="53"/>
-      <c r="S62" s="70"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="69"/>
-      <c r="W62" s="70"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="69"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="147"/>
-      <c r="C63" s="148"/>
-      <c r="D63" s="149"/>
-      <c r="E63" s="30"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="53"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="53"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="53"/>
-      <c r="S63" s="70"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="21"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="34"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="34"/>
+      <c r="S63" s="44"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="69"/>
-      <c r="W63" s="70"/>
+      <c r="U63" s="43"/>
+      <c r="W63" s="44"/>
       <c r="X63" s="5"/>
-      <c r="Y63" s="69"/>
+      <c r="Y63" s="43"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="147"/>
-      <c r="C64" s="148"/>
-      <c r="D64" s="149"/>
-      <c r="E64" s="30"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="53"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="53"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="53"/>
-      <c r="S64" s="70"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="21"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="34"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="34"/>
+      <c r="S64" s="44"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="69"/>
-      <c r="W64" s="70"/>
+      <c r="U64" s="43"/>
+      <c r="W64" s="44"/>
       <c r="X64" s="5"/>
-      <c r="Y64" s="69"/>
-    </row>
-    <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="26"/>
-      <c r="B65" s="150"/>
-      <c r="C65" s="151"/>
-      <c r="D65" s="152"/>
-      <c r="E65" s="31"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="58"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="58"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="58"/>
-      <c r="S65" s="73"/>
-      <c r="T65" s="74"/>
-      <c r="U65" s="75"/>
-      <c r="W65" s="73"/>
-      <c r="X65" s="74"/>
-      <c r="Y65" s="75"/>
-    </row>
-    <row r="66" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="Y64" s="43"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="21"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="34"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="34"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="43"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="43"/>
+    </row>
+    <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="17"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="22"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="37"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="37"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="47"/>
+      <c r="W66" s="45"/>
+      <c r="X66" s="46"/>
+      <c r="Y66" s="47"/>
+    </row>
+    <row r="67" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="S54:Y65 S4:Y26" name="customEntities"/>
-    <protectedRange sqref="F55:Y65" name="Questionnaire"/>
-    <protectedRange sqref="C7:F25 H7:J25 L7:N25 P7:Y25" name="Contact Fields"/>
+    <protectedRange sqref="S4:Y30 S58:Y65 S56:U56 W56:Y56 W66:Y66 S66:U66" name="customEntities"/>
+    <protectedRange sqref="G59:I65 K59:M65 O59:Y65" name="Questionnaire"/>
+    <protectedRange sqref="C7:E28 H7:I29 L7:M29 P7:Y29 S56:U56 W56:Y56 W66:Y66 S66:U66" name="Contact Fields"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="S27:Y28 S41:Y41" name="customEntities_1"/>
-    <protectedRange sqref="N29:N40 J29:J40 R29:R40 A42:R52 A29:F40" name="Questionnaire_1"/>
-    <protectedRange sqref="B9:B13" name="Contact Fields_2_1"/>
-    <protectedRange sqref="A9:A24" name="Contact Fields_1"/>
-    <protectedRange sqref="A25:B25 B14:B24 A7:B8" name="Contact Fields_3"/>
-    <protectedRange sqref="G7:G25" name="Contact Fields_4"/>
-    <protectedRange sqref="K7:K25" name="Contact Fields_5"/>
-    <protectedRange sqref="O7:O25" name="Contact Fields_6"/>
-    <protectedRange sqref="A55:D59" name="Questionnaire_3_1"/>
-    <protectedRange sqref="A60:E65 E55:E59" name="Questionnaire_4"/>
+    <protectedRange sqref="S31:Y32 S45:Y45" name="customEntities_1"/>
+    <protectedRange sqref="R33:R44 A46:E55 A33:E44 G66:I66 G46:I56 K66:M66 K46:M56 O66:R66 O46:R56" name="Questionnaire_1"/>
+    <protectedRange sqref="A11:A28" name="Contact Fields_1"/>
+    <protectedRange sqref="A7:B10 B16:B28" name="Contact Fields_3"/>
+    <protectedRange sqref="G7:G29" name="Contact Fields_4"/>
+    <protectedRange sqref="K7:K29" name="Contact Fields_5"/>
+    <protectedRange sqref="O7:O29" name="Contact Fields_6"/>
+    <protectedRange sqref="A64:E66" name="Questionnaire_2"/>
+    <protectedRange sqref="A59:E63" name="Questionnaire_1_1"/>
+    <protectedRange sqref="A29:E29" name="Contact Fields_2"/>
+    <protectedRange sqref="A56:E56" name="Contact Fields_7"/>
   </protectedRanges>
-  <mergeCells count="20">
+  <mergeCells count="18">
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
     <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="S31:U31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A26:AG26 M10:N23 R13:AG23 W7:Y9 C10:F25 H10:J25 L24:N25 P24:AG25 P10:AG12 P13:P23">
-    <cfRule type="expression" dxfId="81" priority="95">
+  <conditionalFormatting sqref="A30:E30 L29:M29 P29:Y29 R12:V25 H7:I29 R28:V28 S7:U28 G30:I30 K30:M30 O30:Y30">
+    <cfRule type="expression" dxfId="83" priority="147">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="96">
+    <cfRule type="expression" dxfId="82" priority="148">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W55:Y65">
-    <cfRule type="expression" dxfId="79" priority="93">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="94">
-      <formula>$D55="x"</formula>
+  <conditionalFormatting sqref="S7:U11">
+    <cfRule type="expression" dxfId="81" priority="119">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="120">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S55:U65">
-    <cfRule type="expression" dxfId="77" priority="91">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="92">
-      <formula>$D55="x"</formula>
+  <conditionalFormatting sqref="A57:E57 G57:I57 K57:M57 O57:Y57">
+    <cfRule type="expression" dxfId="79" priority="109">
+      <formula>$C57="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="110">
+      <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O55:Q65">
-    <cfRule type="expression" dxfId="75" priority="89">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="90">
-      <formula>$D55="x"</formula>
+  <conditionalFormatting sqref="A45:E45 A31:E32 R31:Y31 R33:R44 G56:I56 I32 M32 Q32:Y32 I45 M45 Q45:Y45 R46:R55 G32 G45 K45 K32 K56:M56 O56:R56 O45 O32">
+    <cfRule type="expression" dxfId="77" priority="107">
+      <formula>$C31="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="108">
+      <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:M65">
-    <cfRule type="expression" dxfId="73" priority="87">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="88">
-      <formula>$D55="x"</formula>
+  <conditionalFormatting sqref="O44">
+    <cfRule type="expression" dxfId="75" priority="99">
+      <formula>$C44="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="100">
+      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55:I65">
-    <cfRule type="expression" dxfId="71" priority="85">
-      <formula>$C55="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="86">
-      <formula>$D55="x"</formula>
+  <conditionalFormatting sqref="P44:Q44">
+    <cfRule type="expression" dxfId="73" priority="97">
+      <formula>$C44="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="98">
+      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q23">
-    <cfRule type="expression" dxfId="69" priority="75">
-      <formula>$C13="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="76">
-      <formula>$D13="x"</formula>
+  <conditionalFormatting sqref="K44">
+    <cfRule type="expression" dxfId="71" priority="91">
+      <formula>$C44="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="92">
+      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L23">
-    <cfRule type="expression" dxfId="67" priority="73">
-      <formula>$C10="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="74">
-      <formula>$D10="x"</formula>
+  <conditionalFormatting sqref="L44:M44">
+    <cfRule type="expression" dxfId="69" priority="89">
+      <formula>$C44="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="90">
+      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7:U9">
-    <cfRule type="expression" dxfId="65" priority="67">
+  <conditionalFormatting sqref="G33:G34">
+    <cfRule type="expression" dxfId="67" priority="87">
+      <formula>$C33="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="88">
+      <formula>$D33="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:I34">
+    <cfRule type="expression" dxfId="65" priority="85">
+      <formula>$C33="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="86">
+      <formula>$D33="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G44">
+    <cfRule type="expression" dxfId="63" priority="83">
+      <formula>$C33="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="84">
+      <formula>$D33="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:I44">
+    <cfRule type="expression" dxfId="61" priority="81">
+      <formula>$C33="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="82">
+      <formula>$D33="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V33:V43">
+    <cfRule type="expression" dxfId="59" priority="79">
+      <formula>$C33="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="80">
+      <formula>$D33="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V46:V55">
+    <cfRule type="expression" dxfId="57" priority="77">
+      <formula>$C46="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="78">
+      <formula>$D46="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V56">
+    <cfRule type="expression" dxfId="55" priority="75">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="76">
+      <formula>$D56="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V44">
+    <cfRule type="expression" dxfId="53" priority="73">
+      <formula>$C44="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="74">
+      <formula>$D44="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G29">
+    <cfRule type="expression" dxfId="51" priority="65">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="68">
+    <cfRule type="expression" dxfId="50" priority="66">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:AE53">
-    <cfRule type="expression" dxfId="63" priority="57">
-      <formula>$C53="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="58">
-      <formula>$D53="x"</formula>
+  <conditionalFormatting sqref="G7:G10">
+    <cfRule type="expression" dxfId="49" priority="63">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="64">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z29:AG34 A41:G41 AA35:AG52 B34 A34:A36 C34:F36 A28:G28 A27:F27 J27 N27 R27:AG27 A29:F33 A37:F40 N29:N40 J29:J40 R29:R40 A42:R52 I28:K28 M28:O28 Q28:AG28 I41:K41 M41:O41 Q41:Y41">
-    <cfRule type="expression" dxfId="61" priority="55">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="56">
-      <formula>$D27="x"</formula>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="expression" dxfId="47" priority="61">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="62">
+      <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B36">
-    <cfRule type="expression" dxfId="59" priority="53">
+  <conditionalFormatting sqref="O29">
+    <cfRule type="expression" dxfId="45" priority="55">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="56">
+      <formula>$D29="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26:V27 H26:I27">
+    <cfRule type="expression" dxfId="43" priority="51">
+      <formula>$C26="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="52">
+      <formula>$D26="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:E38 A33:E33 A44:E44">
+    <cfRule type="expression" dxfId="41" priority="35">
+      <formula>$C33="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="36">
+      <formula>$D33="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27">
+    <cfRule type="expression" dxfId="39" priority="45">
+      <formula>$C26="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="46">
+      <formula>$D26="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:E55 A47:E50">
+    <cfRule type="expression" dxfId="37" priority="29">
+      <formula>$C47="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="30">
+      <formula>$D47="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E28">
+    <cfRule type="expression" dxfId="35" priority="39">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="40">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A28">
+    <cfRule type="expression" dxfId="33" priority="37">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="38">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:E43 A34:E37">
+    <cfRule type="expression" dxfId="31" priority="33">
       <formula>$C34="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54">
+    <cfRule type="expression" dxfId="30" priority="34">
       <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O29:O30">
-    <cfRule type="expression" dxfId="57" priority="51">
+  <conditionalFormatting sqref="A51:E51 A46:E46">
+    <cfRule type="expression" dxfId="29" priority="31">
+      <formula>$C46="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="32">
+      <formula>$D46="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66:I66 K66:M66 O66:R66">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>$C66="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>$D66="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V66">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$C66="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>$D66="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7:Q28 L7:M28">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:O28 K7:K28">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W59:Y65 S59:U65 S46:U55 W46:Y55 W33:Y44 S33:U44 W7:Y28">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O59:O65 K59:K65 G59:G65 G46:G55 K46:K55 O46:O55 O33:O43 K33:K43">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>$C33="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>$D33="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P59:Q65 L59:M65 H59:I65 H46:I55 L46:M55 P46:Q55 P33:Q43 L33:M43">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$C33="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$D33="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:E29">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="52">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P29:Q30">
-    <cfRule type="expression" dxfId="55" priority="49">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="50">
-      <formula>$D29="x"</formula>
+  <conditionalFormatting sqref="A56:E56">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O31:O40">
-    <cfRule type="expression" dxfId="53" priority="47">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="48">
-      <formula>$D31="x"</formula>
+  <conditionalFormatting sqref="S56:U56">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31:Q40">
-    <cfRule type="expression" dxfId="51" priority="45">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="46">
-      <formula>$D31="x"</formula>
+  <conditionalFormatting sqref="W56:Y56">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K30">
-    <cfRule type="expression" dxfId="49" priority="43">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="44">
-      <formula>$D29="x"</formula>
+  <conditionalFormatting sqref="W66:Y66">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C66="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D66="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29:M30">
-    <cfRule type="expression" dxfId="47" priority="41">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31:K40">
-    <cfRule type="expression" dxfId="45" priority="39">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="40">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31:M40">
-    <cfRule type="expression" dxfId="43" priority="37">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G30">
-    <cfRule type="expression" dxfId="41" priority="35">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:I30">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:G40">
-    <cfRule type="expression" dxfId="37" priority="31">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31:I40">
-    <cfRule type="expression" dxfId="35" priority="29">
-      <formula>$C31="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
-      <formula>$D31="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S29:Y39">
-    <cfRule type="expression" dxfId="33" priority="27">
-      <formula>$C29="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
-      <formula>$D29="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S42:Y51">
-    <cfRule type="expression" dxfId="31" priority="25">
-      <formula>$C42="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
-      <formula>$D42="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S52:Y52">
-    <cfRule type="expression" dxfId="29" priority="23">
-      <formula>$C52="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
-      <formula>$D52="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S40:Y40">
-    <cfRule type="expression" dxfId="27" priority="21">
-      <formula>$C40="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
-      <formula>$D40="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z49">
-    <cfRule type="expression" dxfId="25" priority="59">
-      <formula>$C53="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="60">
-      <formula>$D53="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z35 Z40:Z47">
-    <cfRule type="expression" dxfId="23" priority="61">
-      <formula>$C38="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="62">
-      <formula>$D38="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z48 Z36:Z39">
-    <cfRule type="expression" dxfId="21" priority="63">
-      <formula>$C40="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="64">
-      <formula>$D40="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B24 A25:B25">
-    <cfRule type="expression" dxfId="19" priority="19">
-      <formula>$C14="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>$D14="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A24">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B13">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G25">
-    <cfRule type="expression" dxfId="13" priority="13">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G8">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K25">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>$C10="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$D10="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K8">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O9:O25">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:O8">
+  <conditionalFormatting sqref="S66:U66">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C7="x"</formula>
+      <formula>$C66="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D7="x"</formula>
+      <formula>$D66="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25 C42:D52 C29:D40" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:D44 C7:D29 C46:D56" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 U8:U25 U7 Y7:Y25 Y29:Y40 U29:U40 M29:M40 Q29:Q40 I29:I40 I43:I52 I42 M42:M52 Q42:Q52 U42:U52 Y42:Y52 I55:I65 M55:M65 Q55:Q65 U55:U65 Y55:Y65" xr:uid="{BF1108E1-26DB-42ED-8030-59CD352434CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I59:I66 Y33:Y44 U33:U44 M33:M44 Q33:Q44 I33:I44 I46:I56 M46:M56 Q46:Q56 Y46:Y56 U46:U56 M59:M66 Q59:Q66 Y59:Y66 I7:I29 Y7:Y29 U7:U29 Q7:Q29 M7:M29 U59:U66" xr:uid="{BF1108E1-26DB-42ED-8030-59CD352434CB}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6108,6 +5991,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6316,22 +6214,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6348,29 +6256,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09073B86-3782-41B5-B466-5C81A3DBEA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E987288-5DD0-4C2B-BF30-643E391D6FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8835" yWindow="9045" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="95">
   <si>
     <t>Website</t>
   </si>
@@ -1536,7 +1536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1609,9 +1609,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1653,59 +1650,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1728,22 +1682,65 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="87">
     <dxf>
       <font>
         <b val="0"/>
@@ -1864,28 +1861,6 @@
       <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.1498764000366222"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2742,11 +2717,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="88"/>
-      <tableStyleElement type="headerRow" dxfId="87"/>
-      <tableStyleElement type="firstColumn" dxfId="86"/>
-      <tableStyleElement type="firstRowStripe" dxfId="85"/>
-      <tableStyleElement type="secondRowStripe" dxfId="84"/>
+      <tableStyleElement type="wholeTable" dxfId="86"/>
+      <tableStyleElement type="headerRow" dxfId="85"/>
+      <tableStyleElement type="firstColumn" dxfId="84"/>
+      <tableStyleElement type="firstRowStripe" dxfId="83"/>
+      <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3591,7 +3566,7 @@
   <dimension ref="A1:AG67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3651,36 +3626,36 @@
         <v>41</v>
       </c>
       <c r="E4" s="19"/>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="O4" s="106" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="O4" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="S4" s="100" t="s">
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="S4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="101"/>
-      <c r="U4" s="102"/>
-      <c r="W4" s="103" t="s">
+      <c r="T4" s="87"/>
+      <c r="U4" s="88"/>
+      <c r="W4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="105"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="91"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="74" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -3905,7 +3880,9 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="48"/>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="E12" s="23"/>
       <c r="G12" s="33" t="s">
         <v>67</v>
@@ -4128,9 +4105,11 @@
       <c r="O17" s="33"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="34"/>
+      <c r="R17"/>
       <c r="S17" s="44"/>
       <c r="T17" s="5"/>
       <c r="U17" s="43"/>
+      <c r="V17"/>
       <c r="W17" s="44"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="43"/>
@@ -4390,9 +4369,11 @@
       <c r="Q23" s="34" t="s">
         <v>13</v>
       </c>
+      <c r="R23"/>
       <c r="S23" s="44"/>
       <c r="T23" s="5"/>
       <c r="U23" s="43"/>
+      <c r="V23"/>
       <c r="W23" s="44"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="43"/>
@@ -4563,11 +4544,11 @@
       <c r="Y28" s="43"/>
     </row>
     <row r="29" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="107"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="111"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
       <c r="G29" s="35"/>
       <c r="H29" s="36"/>
       <c r="I29" s="37"/>
@@ -4604,111 +4585,109 @@
       <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="1:33" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
-      <c r="G31" s="85" t="s">
+      <c r="B31" s="75"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
+      <c r="G31" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="86"/>
-      <c r="I31" s="87"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="85" t="s">
+      <c r="K31" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="86"/>
-      <c r="M31" s="87"/>
-      <c r="O31" s="88" t="s">
+      <c r="L31" s="106"/>
+      <c r="M31" s="107"/>
+      <c r="O31" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="91" t="s">
+      <c r="P31" s="109"/>
+      <c r="Q31" s="110"/>
+      <c r="S31" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="T31" s="92"/>
-      <c r="U31" s="93"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="91" t="s">
+      <c r="T31" s="94"/>
+      <c r="U31" s="95"/>
+      <c r="W31" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="93"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="95"/>
     </row>
     <row r="32" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="79" t="s">
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="70" t="s">
         <v>48</v>
       </c>
       <c r="H32" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="72" t="s">
+      <c r="I32" s="71" t="s">
         <v>9</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="71" t="s">
+      <c r="K32" s="70" t="s">
         <v>48</v>
       </c>
       <c r="L32" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="72" t="s">
+      <c r="M32" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="O32" s="71" t="s">
+      <c r="O32" s="70" t="s">
         <v>48</v>
       </c>
       <c r="P32" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q32" s="72" t="s">
+      <c r="Q32" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="S32" s="53" t="s">
+      <c r="S32" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="T32" s="54" t="s">
+      <c r="T32" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="U32" s="55" t="s">
+      <c r="U32" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="W32" s="53" t="s">
+      <c r="W32" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="X32" s="54" t="s">
+      <c r="X32" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="Y32" s="55" t="s">
+      <c r="Y32" s="54" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="59" t="s">
+      <c r="C33" s="57"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="58" t="s">
         <v>50</v>
       </c>
       <c r="G33" s="32"/>
@@ -4732,10 +4711,10 @@
       <c r="A34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="62"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="61"/>
       <c r="G34" s="32"/>
       <c r="H34" s="6"/>
       <c r="I34" s="34"/>
@@ -4757,10 +4736,10 @@
       <c r="A35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="62"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="61"/>
       <c r="G35" s="32"/>
       <c r="H35" s="6"/>
       <c r="I35" s="34"/>
@@ -4782,10 +4761,10 @@
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="62"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="61"/>
       <c r="G36" s="32"/>
       <c r="H36" s="6"/>
       <c r="I36" s="34"/>
@@ -4807,10 +4786,10 @@
       <c r="A37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="62"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="61"/>
       <c r="G37" s="32"/>
       <c r="H37" s="6"/>
       <c r="I37" s="34"/>
@@ -4832,10 +4811,10 @@
       <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="62"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="61"/>
       <c r="G38" s="32"/>
       <c r="H38" s="6"/>
       <c r="I38" s="34"/>
@@ -4857,10 +4836,10 @@
       <c r="A39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="62"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="61"/>
       <c r="G39" s="32"/>
       <c r="H39" s="6"/>
       <c r="I39" s="34"/>
@@ -4882,10 +4861,10 @@
       <c r="A40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="62"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="61"/>
       <c r="G40" s="32"/>
       <c r="H40" s="6"/>
       <c r="I40" s="34"/>
@@ -4907,10 +4886,10 @@
       <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="62"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="61"/>
       <c r="G41" s="32"/>
       <c r="H41" s="6"/>
       <c r="I41" s="34"/>
@@ -4932,10 +4911,10 @@
       <c r="A42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="62"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="61"/>
       <c r="G42" s="32"/>
       <c r="H42" s="6"/>
       <c r="I42" s="34"/>
@@ -4957,10 +4936,10 @@
       <c r="A43" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="62"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="61"/>
       <c r="G43" s="32"/>
       <c r="H43" s="6"/>
       <c r="I43" s="34"/>
@@ -4980,10 +4959,10 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="65"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="64"/>
       <c r="G44" s="35"/>
       <c r="H44" s="36"/>
       <c r="I44" s="37"/>
@@ -5002,15 +4981,15 @@
       <c r="Y44" s="43"/>
     </row>
     <row r="45" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52" t="s">
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="29" t="s">
@@ -5032,42 +5011,42 @@
       <c r="M45" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="O45" s="69" t="s">
+      <c r="O45" s="68" t="s">
         <v>48</v>
       </c>
       <c r="P45" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="Q45" s="70" t="s">
+      <c r="Q45" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="S45" s="66" t="s">
+      <c r="S45" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="T45" s="67" t="s">
+      <c r="T45" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="U45" s="68" t="s">
+      <c r="U45" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="W45" s="66" t="s">
+      <c r="W45" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="X45" s="67" t="s">
+      <c r="X45" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="Y45" s="68" t="s">
+      <c r="Y45" s="67" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="59"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="58"/>
       <c r="G46" s="32"/>
       <c r="H46" s="6"/>
       <c r="I46" s="34"/>
@@ -5089,10 +5068,10 @@
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="60"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="62"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="61"/>
       <c r="G47" s="32"/>
       <c r="H47" s="6"/>
       <c r="I47" s="34"/>
@@ -5114,10 +5093,10 @@
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="62"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="61"/>
       <c r="G48" s="32"/>
       <c r="H48" s="6"/>
       <c r="I48" s="34"/>
@@ -5139,10 +5118,10 @@
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="62"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="61"/>
       <c r="G49" s="32"/>
       <c r="H49" s="6"/>
       <c r="I49" s="34"/>
@@ -5164,10 +5143,10 @@
       <c r="A50" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="62"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="61"/>
       <c r="G50" s="32"/>
       <c r="H50" s="6"/>
       <c r="I50" s="34"/>
@@ -5189,10 +5168,10 @@
       <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="62"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="61"/>
       <c r="G51" s="32"/>
       <c r="H51" s="6"/>
       <c r="I51" s="34"/>
@@ -5214,10 +5193,10 @@
       <c r="A52" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="62"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="61"/>
       <c r="G52" s="32"/>
       <c r="H52" s="6"/>
       <c r="I52" s="34"/>
@@ -5239,10 +5218,10 @@
       <c r="A53" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="62"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="61"/>
       <c r="G53" s="32"/>
       <c r="H53" s="6"/>
       <c r="I53" s="34"/>
@@ -5264,10 +5243,10 @@
       <c r="A54" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="60"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="62"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="61"/>
       <c r="G54" s="32"/>
       <c r="H54" s="6"/>
       <c r="I54" s="34"/>
@@ -5289,10 +5268,10 @@
       <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="60"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="62"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="61"/>
       <c r="G55" s="32"/>
       <c r="H55" s="6"/>
       <c r="I55" s="34"/>
@@ -5311,11 +5290,11 @@
       <c r="Y55" s="43"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="107"/>
-      <c r="B56" s="108"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="111"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="85"/>
       <c r="G56" s="35"/>
       <c r="H56" s="36"/>
       <c r="I56" s="37"/>
@@ -5347,7 +5326,7 @@
       <c r="Y57" s="9"/>
     </row>
     <row r="58" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="80" t="s">
+      <c r="A58" s="79" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -5409,9 +5388,9 @@
       <c r="A59" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="97"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="99"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="104"/>
       <c r="E59" s="20"/>
       <c r="G59" s="32"/>
       <c r="H59" s="6"/>
@@ -5434,11 +5413,11 @@
       <c r="A60" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="82" t="s">
+      <c r="B60" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="83"/>
-      <c r="D60" s="84"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="98"/>
       <c r="E60" s="21"/>
       <c r="G60" s="32"/>
       <c r="H60" s="6"/>
@@ -5461,11 +5440,11 @@
       <c r="A61" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="82" t="s">
+      <c r="B61" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="83"/>
-      <c r="D61" s="84"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="98"/>
       <c r="E61" s="21"/>
       <c r="G61" s="32"/>
       <c r="H61" s="6"/>
@@ -5488,11 +5467,11 @@
       <c r="A62" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="82" t="s">
+      <c r="B62" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="83"/>
-      <c r="D62" s="84"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="98"/>
       <c r="E62" s="21"/>
       <c r="G62" s="32"/>
       <c r="H62" s="6"/>
@@ -5515,11 +5494,11 @@
       <c r="A63" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="82" t="s">
+      <c r="B63" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="84"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="98"/>
       <c r="E63" s="21"/>
       <c r="G63" s="32"/>
       <c r="H63" s="6"/>
@@ -5540,9 +5519,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="84"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="98"/>
       <c r="E64" s="21"/>
       <c r="G64" s="32"/>
       <c r="H64" s="6"/>
@@ -5563,9 +5542,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
-      <c r="B65" s="82"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="84"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="98"/>
       <c r="E65" s="21"/>
       <c r="G65" s="32"/>
       <c r="H65" s="6"/>
@@ -5586,9 +5565,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="96"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="101"/>
       <c r="E66" s="22"/>
       <c r="G66" s="35"/>
       <c r="H66" s="36"/>
@@ -5611,12 +5590,12 @@
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="S4:Y30 S58:Y65 S56:U56 W56:Y56 W66:Y66 S66:U66" name="customEntities"/>
-    <protectedRange sqref="G59:I65 K59:M65 O59:Y65" name="Questionnaire"/>
-    <protectedRange sqref="C7:E28 H7:I29 L7:M29 P7:Y29 S56:U56 W56:Y56 W66:Y66 S66:U66" name="Contact Fields"/>
+    <protectedRange sqref="S4:Y6 S56:U56 W56:Y56 S58:U66 S7:U30 W7:Y30 W58:Y66 V7:V66" name="customEntities"/>
+    <protectedRange sqref="G59:I65 K59:M65 O59:Q65 S59:U65 W59:Y65" name="Questionnaire"/>
+    <protectedRange sqref="C7:E28 H7:I29 L7:M29 P7:Q29 S56:U56 W56:Y56 W66:Y66 S66:U66 S7:U29 W7:Y29" name="Contact Fields"/>
     <protectedRange sqref="A1" name="Titel"/>
-    <protectedRange sqref="S31:Y32 S45:Y45" name="customEntities_1"/>
-    <protectedRange sqref="R33:R44 A46:E55 A33:E44 G66:I66 G46:I56 K66:M66 K46:M56 O66:R66 O46:R56" name="Questionnaire_1"/>
+    <protectedRange sqref="S31:U32 S45:U45 W31:Y32 W45:Y45" name="customEntities_1"/>
+    <protectedRange sqref="A46:E55 A33:E44 G66:I66 G46:I56 K66:M66 K46:M56 O66:Q66 O46:Q56" name="Questionnaire_1"/>
     <protectedRange sqref="A11:A28" name="Contact Fields_1"/>
     <protectedRange sqref="A7:B10 B16:B28" name="Contact Fields_3"/>
     <protectedRange sqref="G7:G29" name="Contact Fields_4"/>
@@ -5628,11 +5607,6 @@
     <protectedRange sqref="A56:E56" name="Contact Fields_7"/>
   </protectedRanges>
   <mergeCells count="18">
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="W31:Y31"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
@@ -5646,285 +5620,250 @@
     <mergeCell ref="K31:M31"/>
     <mergeCell ref="O31:Q31"/>
     <mergeCell ref="S31:U31"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A30:E30 L29:M29 P29:Y29 R12:V25 H7:I29 R28:V28 S7:U28 G30:I30 K30:M30 O30:Y30">
-    <cfRule type="expression" dxfId="83" priority="147">
+  <conditionalFormatting sqref="A30:E30 L29:M29 P29:Q29 H7:I29 G30:I30 K30:M30 O30:Q30 S7:U30 W29:Y30">
+    <cfRule type="expression" dxfId="81" priority="147">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="148">
+    <cfRule type="expression" dxfId="80" priority="148">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:U11">
-    <cfRule type="expression" dxfId="81" priority="119">
+    <cfRule type="expression" dxfId="79" priority="119">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="120">
+    <cfRule type="expression" dxfId="78" priority="120">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:E57 G57:I57 K57:M57 O57:Y57">
-    <cfRule type="expression" dxfId="79" priority="109">
+  <conditionalFormatting sqref="A57:E57 G57:I57 K57:M57 O57:Q57 S57:U57 W57:Y57">
+    <cfRule type="expression" dxfId="77" priority="109">
       <formula>$C57="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="110">
+    <cfRule type="expression" dxfId="76" priority="110">
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A45:E45 A31:E32 R31:Y31 R33:R44 G56:I56 I32 M32 Q32:Y32 I45 M45 Q45:Y45 R46:R55 G32 G45 K45 K32 K56:M56 O56:R56 O45 O32">
-    <cfRule type="expression" dxfId="77" priority="107">
+  <conditionalFormatting sqref="A45:E45 A31:E32 G56:I56 I32 M32 Q32 I45 M45 Q45 G32 G45 K45 K32 K56:M56 O56:Q56 O45 O32 S45:U45 S31:U32 W31:Y32 W45:Y45">
+    <cfRule type="expression" dxfId="75" priority="107">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="108">
+    <cfRule type="expression" dxfId="74" priority="108">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44">
-    <cfRule type="expression" dxfId="75" priority="99">
+    <cfRule type="expression" dxfId="73" priority="99">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="100">
+    <cfRule type="expression" dxfId="72" priority="100">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:Q44">
-    <cfRule type="expression" dxfId="73" priority="97">
+    <cfRule type="expression" dxfId="71" priority="97">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="98">
+    <cfRule type="expression" dxfId="70" priority="98">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="expression" dxfId="71" priority="91">
+    <cfRule type="expression" dxfId="69" priority="91">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="92">
+    <cfRule type="expression" dxfId="68" priority="92">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:M44">
-    <cfRule type="expression" dxfId="69" priority="89">
+    <cfRule type="expression" dxfId="67" priority="89">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="90">
+    <cfRule type="expression" dxfId="66" priority="90">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G34">
-    <cfRule type="expression" dxfId="67" priority="87">
+    <cfRule type="expression" dxfId="65" priority="87">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="88">
+    <cfRule type="expression" dxfId="64" priority="88">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I34">
-    <cfRule type="expression" dxfId="65" priority="85">
+    <cfRule type="expression" dxfId="63" priority="85">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="86">
+    <cfRule type="expression" dxfId="62" priority="86">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G44">
-    <cfRule type="expression" dxfId="63" priority="83">
+    <cfRule type="expression" dxfId="61" priority="83">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="84">
+    <cfRule type="expression" dxfId="60" priority="84">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I44">
-    <cfRule type="expression" dxfId="61" priority="81">
+    <cfRule type="expression" dxfId="59" priority="81">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="82">
+    <cfRule type="expression" dxfId="58" priority="82">
       <formula>$D33="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V33:V43">
-    <cfRule type="expression" dxfId="59" priority="79">
-      <formula>$C33="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="80">
-      <formula>$D33="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V46:V55">
-    <cfRule type="expression" dxfId="57" priority="77">
-      <formula>$C46="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="78">
-      <formula>$D46="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V56">
-    <cfRule type="expression" dxfId="55" priority="75">
-      <formula>$C56="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="76">
-      <formula>$D56="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V44">
-    <cfRule type="expression" dxfId="53" priority="73">
-      <formula>$C44="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="74">
-      <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G29">
-    <cfRule type="expression" dxfId="51" priority="65">
+    <cfRule type="expression" dxfId="49" priority="65">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="66">
+    <cfRule type="expression" dxfId="48" priority="66">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G10">
-    <cfRule type="expression" dxfId="49" priority="63">
+    <cfRule type="expression" dxfId="47" priority="63">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="64">
+    <cfRule type="expression" dxfId="46" priority="64">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="47" priority="61">
+    <cfRule type="expression" dxfId="45" priority="61">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="62">
+    <cfRule type="expression" dxfId="44" priority="62">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="expression" dxfId="45" priority="55">
+    <cfRule type="expression" dxfId="43" priority="55">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="56">
+    <cfRule type="expression" dxfId="42" priority="56">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R26:V27 H26:I27">
-    <cfRule type="expression" dxfId="43" priority="51">
+  <conditionalFormatting sqref="S26:U27 H26:I27">
+    <cfRule type="expression" dxfId="41" priority="51">
       <formula>$C26="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="52">
+    <cfRule type="expression" dxfId="40" priority="52">
       <formula>$D26="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:E38 A33:E33 A44:E44">
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="39" priority="35">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="expression" dxfId="39" priority="45">
+    <cfRule type="expression" dxfId="37" priority="45">
       <formula>$C26="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="46">
+    <cfRule type="expression" dxfId="36" priority="46">
       <formula>$D26="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:E55 A47:E50">
-    <cfRule type="expression" dxfId="37" priority="29">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>$C47="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="30">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>$D47="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:E28">
-    <cfRule type="expression" dxfId="35" priority="39">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="40">
+    <cfRule type="expression" dxfId="32" priority="40">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A28">
-    <cfRule type="expression" dxfId="33" priority="37">
+    <cfRule type="expression" dxfId="31" priority="37">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="38">
+    <cfRule type="expression" dxfId="30" priority="38">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:E43 A34:E37">
-    <cfRule type="expression" dxfId="31" priority="33">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>$C34="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="34">
+    <cfRule type="expression" dxfId="28" priority="34">
       <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:E51 A46:E46">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>$C46="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="26" priority="32">
       <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66:I66 K66:M66 O66:R66">
-    <cfRule type="expression" dxfId="27" priority="27">
+  <conditionalFormatting sqref="G66:I66 K66:M66 O66:Q66">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$C66="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28">
-      <formula>$D66="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V66">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>$C66="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>$D66="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:Q28 L7:M28">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:O28 K7:K28">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W59:Y65 S59:U65 S46:U55 W46:Y55 W33:Y44 S33:U44 W7:Y28">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O59:O65 K59:K65 G59:G65 G46:G55 K46:K55 O46:O55 O33:O43 K33:K43">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P59:Q65 L59:M65 H59:I65 H46:I55 L46:M55 P46:Q55 P33:Q43 L33:M43">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5991,18 +5930,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6215,6 +6154,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6227,14 +6174,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E987288-5DD0-4C2B-BF30-643E391D6FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDBFEC3-6228-47EC-9D38-BC811B038160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="95">
   <si>
     <t>Website</t>
   </si>
@@ -1661,27 +1661,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1736,11 +1715,32 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="77">
     <dxf>
       <font>
         <b val="0"/>
@@ -1991,7 +1991,7 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
+        <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -2079,28 +2079,6 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
@@ -2279,94 +2257,6 @@
       <fill>
         <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.1498764000366222"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -2717,11 +2607,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="86"/>
-      <tableStyleElement type="headerRow" dxfId="85"/>
-      <tableStyleElement type="firstColumn" dxfId="84"/>
-      <tableStyleElement type="firstRowStripe" dxfId="83"/>
-      <tableStyleElement type="secondRowStripe" dxfId="82"/>
+      <tableStyleElement type="wholeTable" dxfId="76"/>
+      <tableStyleElement type="headerRow" dxfId="75"/>
+      <tableStyleElement type="firstColumn" dxfId="74"/>
+      <tableStyleElement type="firstRowStripe" dxfId="73"/>
+      <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3566,7 +3456,7 @@
   <dimension ref="A1:AG67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,32 +3516,32 @@
         <v>41</v>
       </c>
       <c r="E4" s="19"/>
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="O4" s="92" t="s">
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="O4" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="S4" s="86" t="s">
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="S4" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="87"/>
-      <c r="U4" s="88"/>
-      <c r="W4" s="89" t="s">
+      <c r="T4" s="105"/>
+      <c r="U4" s="106"/>
+      <c r="W4" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="91"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="109"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3880,9 +3770,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="48"/>
-      <c r="D12" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="23"/>
       <c r="G12" s="33" t="s">
         <v>67</v>
@@ -4592,32 +4480,32 @@
       <c r="C31" s="76"/>
       <c r="D31" s="76"/>
       <c r="E31" s="77"/>
-      <c r="G31" s="105" t="s">
+      <c r="G31" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="100"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="105" t="s">
+      <c r="K31" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="106"/>
-      <c r="M31" s="107"/>
-      <c r="O31" s="108" t="s">
+      <c r="L31" s="99"/>
+      <c r="M31" s="100"/>
+      <c r="O31" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="110"/>
-      <c r="S31" s="93" t="s">
+      <c r="P31" s="102"/>
+      <c r="Q31" s="103"/>
+      <c r="S31" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="T31" s="94"/>
-      <c r="U31" s="95"/>
-      <c r="W31" s="93" t="s">
+      <c r="T31" s="87"/>
+      <c r="U31" s="88"/>
+      <c r="W31" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="95"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="88"/>
     </row>
     <row r="32" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="72" t="s">
@@ -5388,9 +5276,9 @@
       <c r="A59" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="102"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="104"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="97"/>
       <c r="E59" s="20"/>
       <c r="G59" s="32"/>
       <c r="H59" s="6"/>
@@ -5413,11 +5301,11 @@
       <c r="A60" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="96" t="s">
+      <c r="B60" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="97"/>
-      <c r="D60" s="98"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="91"/>
       <c r="E60" s="21"/>
       <c r="G60" s="32"/>
       <c r="H60" s="6"/>
@@ -5440,11 +5328,11 @@
       <c r="A61" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="96" t="s">
+      <c r="B61" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="97"/>
-      <c r="D61" s="98"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="91"/>
       <c r="E61" s="21"/>
       <c r="G61" s="32"/>
       <c r="H61" s="6"/>
@@ -5467,11 +5355,11 @@
       <c r="A62" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="96" t="s">
+      <c r="B62" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="97"/>
-      <c r="D62" s="98"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="91"/>
       <c r="E62" s="21"/>
       <c r="G62" s="32"/>
       <c r="H62" s="6"/>
@@ -5494,11 +5382,11 @@
       <c r="A63" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="96" t="s">
+      <c r="B63" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="97"/>
-      <c r="D63" s="98"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="91"/>
       <c r="E63" s="21"/>
       <c r="G63" s="32"/>
       <c r="H63" s="6"/>
@@ -5519,9 +5407,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
-      <c r="B64" s="96"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="98"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="91"/>
       <c r="E64" s="21"/>
       <c r="G64" s="32"/>
       <c r="H64" s="6"/>
@@ -5542,9 +5430,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
-      <c r="B65" s="96"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="98"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="91"/>
       <c r="E65" s="21"/>
       <c r="G65" s="32"/>
       <c r="H65" s="6"/>
@@ -5565,9 +5453,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
-      <c r="B66" s="99"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="101"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="94"/>
       <c r="E66" s="22"/>
       <c r="G66" s="35"/>
       <c r="H66" s="36"/>
@@ -5607,6 +5495,11 @@
     <protectedRange sqref="A56:E56" name="Contact Fields_7"/>
   </protectedRanges>
   <mergeCells count="18">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="W31:Y31"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
@@ -5620,210 +5513,205 @@
     <mergeCell ref="K31:M31"/>
     <mergeCell ref="O31:Q31"/>
     <mergeCell ref="S31:U31"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A30:E30 L29:M29 P29:Q29 H7:I29 G30:I30 K30:M30 O30:Q30 S7:U30 W29:Y30">
-    <cfRule type="expression" dxfId="81" priority="147">
+    <cfRule type="expression" dxfId="71" priority="147">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="148">
+    <cfRule type="expression" dxfId="70" priority="148">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7:U11">
-    <cfRule type="expression" dxfId="79" priority="119">
+    <cfRule type="expression" dxfId="69" priority="119">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="120">
+    <cfRule type="expression" dxfId="68" priority="120">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:E57 G57:I57 K57:M57 O57:Q57 S57:U57 W57:Y57">
-    <cfRule type="expression" dxfId="77" priority="109">
+    <cfRule type="expression" dxfId="67" priority="109">
       <formula>$C57="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="110">
+    <cfRule type="expression" dxfId="66" priority="110">
       <formula>$D57="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:E45 A31:E32 G56:I56 I32 M32 Q32 I45 M45 Q45 G32 G45 K45 K32 K56:M56 O56:Q56 O45 O32 S45:U45 S31:U32 W31:Y32 W45:Y45">
-    <cfRule type="expression" dxfId="75" priority="107">
+    <cfRule type="expression" dxfId="65" priority="107">
       <formula>$C31="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="108">
+    <cfRule type="expression" dxfId="64" priority="108">
       <formula>$D31="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44">
-    <cfRule type="expression" dxfId="73" priority="99">
+    <cfRule type="expression" dxfId="63" priority="99">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="100">
+    <cfRule type="expression" dxfId="62" priority="100">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:Q44">
-    <cfRule type="expression" dxfId="71" priority="97">
+    <cfRule type="expression" dxfId="61" priority="97">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="98">
+    <cfRule type="expression" dxfId="60" priority="98">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="expression" dxfId="69" priority="91">
+    <cfRule type="expression" dxfId="59" priority="91">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="92">
+    <cfRule type="expression" dxfId="58" priority="92">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:M44">
-    <cfRule type="expression" dxfId="67" priority="89">
+    <cfRule type="expression" dxfId="57" priority="89">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="90">
+    <cfRule type="expression" dxfId="56" priority="90">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G34">
-    <cfRule type="expression" dxfId="65" priority="87">
+    <cfRule type="expression" dxfId="55" priority="87">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="88">
+    <cfRule type="expression" dxfId="54" priority="88">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I34">
-    <cfRule type="expression" dxfId="63" priority="85">
+    <cfRule type="expression" dxfId="53" priority="85">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="86">
+    <cfRule type="expression" dxfId="52" priority="86">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G44">
-    <cfRule type="expression" dxfId="61" priority="83">
+    <cfRule type="expression" dxfId="51" priority="83">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="84">
+    <cfRule type="expression" dxfId="50" priority="84">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:I44">
-    <cfRule type="expression" dxfId="59" priority="81">
+    <cfRule type="expression" dxfId="49" priority="81">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="82">
+    <cfRule type="expression" dxfId="48" priority="82">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G29">
-    <cfRule type="expression" dxfId="49" priority="65">
+    <cfRule type="expression" dxfId="47" priority="65">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="66">
+    <cfRule type="expression" dxfId="46" priority="66">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G10">
-    <cfRule type="expression" dxfId="47" priority="63">
+    <cfRule type="expression" dxfId="45" priority="63">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="64">
+    <cfRule type="expression" dxfId="44" priority="64">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="45" priority="61">
+    <cfRule type="expression" dxfId="43" priority="61">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="62">
+    <cfRule type="expression" dxfId="42" priority="62">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="expression" dxfId="43" priority="55">
+    <cfRule type="expression" dxfId="41" priority="55">
       <formula>$C29="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="56">
+    <cfRule type="expression" dxfId="40" priority="56">
       <formula>$D29="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26:U27 H26:I27">
-    <cfRule type="expression" dxfId="41" priority="51">
+    <cfRule type="expression" dxfId="39" priority="51">
       <formula>$C26="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="52">
+    <cfRule type="expression" dxfId="38" priority="52">
       <formula>$D26="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:E38 A33:E33 A44:E44">
-    <cfRule type="expression" dxfId="39" priority="35">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="expression" dxfId="37" priority="45">
+    <cfRule type="expression" dxfId="35" priority="45">
       <formula>$C26="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="46">
+    <cfRule type="expression" dxfId="34" priority="46">
       <formula>$D26="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:E55 A47:E50">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="33" priority="29">
       <formula>$C47="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="32" priority="30">
       <formula>$D47="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:E28">
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="31" priority="39">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
+    <cfRule type="expression" dxfId="30" priority="40">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A28">
-    <cfRule type="expression" dxfId="31" priority="37">
+    <cfRule type="expression" dxfId="29" priority="37">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="38">
+    <cfRule type="expression" dxfId="28" priority="38">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:E43 A34:E37">
-    <cfRule type="expression" dxfId="29" priority="33">
+    <cfRule type="expression" dxfId="27" priority="33">
       <formula>$C34="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="34">
+    <cfRule type="expression" dxfId="26" priority="34">
       <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:E51 A46:E46">
-    <cfRule type="expression" dxfId="27" priority="31">
+    <cfRule type="expression" dxfId="25" priority="31">
       <formula>$C46="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="32">
+    <cfRule type="expression" dxfId="24" priority="32">
       <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G66:I66 K66:M66 O66:Q66">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>$C66="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28">
+    <cfRule type="expression" dxfId="22" priority="28">
       <formula>$D66="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5930,18 +5818,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6154,14 +6042,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6174,6 +6054,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_MSDynamics_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDBFEC3-6228-47EC-9D38-BC811B038160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B99FEA-D9C6-4233-9F07-1C03D1AE3AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1661,6 +1661,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1713,27 +1734,6 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -3455,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:AG67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y59" activeCellId="20" sqref="I7:I29 M7:M29 Q7:Q29 U7:U29 Y7:Y29 Y33:Y44 U33:U44 Q33:Q44 M33:M44 I33:I44 I46:I56 M47:M56 Q46:Q56 M46 U46:U56 Y46:Y56 I59:I66 M59:M66 Q59:Q66 U59:U66 Y59:Y66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3516,32 +3516,32 @@
         <v>41</v>
       </c>
       <c r="E4" s="19"/>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="O4" s="110" t="s">
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="O4" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="S4" s="104" t="s">
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="S4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="105"/>
-      <c r="U4" s="106"/>
-      <c r="W4" s="107" t="s">
+      <c r="T4" s="87"/>
+      <c r="U4" s="88"/>
+      <c r="W4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="109"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="91"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4480,32 +4480,32 @@
       <c r="C31" s="76"/>
       <c r="D31" s="76"/>
       <c r="E31" s="77"/>
-      <c r="G31" s="98" t="s">
+      <c r="G31" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="99"/>
-      <c r="I31" s="100"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="98" t="s">
+      <c r="K31" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="99"/>
-      <c r="M31" s="100"/>
-      <c r="O31" s="101" t="s">
+      <c r="L31" s="106"/>
+      <c r="M31" s="107"/>
+      <c r="O31" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="103"/>
-      <c r="S31" s="86" t="s">
+      <c r="P31" s="109"/>
+      <c r="Q31" s="110"/>
+      <c r="S31" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="T31" s="87"/>
-      <c r="U31" s="88"/>
-      <c r="W31" s="86" t="s">
+      <c r="T31" s="94"/>
+      <c r="U31" s="95"/>
+      <c r="W31" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="88"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="95"/>
     </row>
     <row r="32" spans="1:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="72" t="s">
@@ -5276,9 +5276,9 @@
       <c r="A59" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B59" s="95"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="97"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="104"/>
       <c r="E59" s="20"/>
       <c r="G59" s="32"/>
       <c r="H59" s="6"/>
@@ -5301,11 +5301,11 @@
       <c r="A60" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="89" t="s">
+      <c r="B60" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="90"/>
-      <c r="D60" s="91"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="98"/>
       <c r="E60" s="21"/>
       <c r="G60" s="32"/>
       <c r="H60" s="6"/>
@@ -5328,11 +5328,11 @@
       <c r="A61" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="89" t="s">
+      <c r="B61" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="90"/>
-      <c r="D61" s="91"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="98"/>
       <c r="E61" s="21"/>
       <c r="G61" s="32"/>
       <c r="H61" s="6"/>
@@ -5355,11 +5355,11 @@
       <c r="A62" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="89" t="s">
+      <c r="B62" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="90"/>
-      <c r="D62" s="91"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="98"/>
       <c r="E62" s="21"/>
       <c r="G62" s="32"/>
       <c r="H62" s="6"/>
@@ -5382,11 +5382,11 @@
       <c r="A63" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="89" t="s">
+      <c r="B63" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="90"/>
-      <c r="D63" s="91"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="98"/>
       <c r="E63" s="21"/>
       <c r="G63" s="32"/>
       <c r="H63" s="6"/>
@@ -5407,9 +5407,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="91"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="98"/>
       <c r="E64" s="21"/>
       <c r="G64" s="32"/>
       <c r="H64" s="6"/>
@@ -5430,9 +5430,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="91"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="98"/>
       <c r="E65" s="21"/>
       <c r="G65" s="32"/>
       <c r="H65" s="6"/>
@@ -5453,9 +5453,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="94"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="101"/>
       <c r="E66" s="22"/>
       <c r="G66" s="35"/>
       <c r="H66" s="36"/>
@@ -5495,11 +5495,6 @@
     <protectedRange sqref="A56:E56" name="Contact Fields_7"/>
   </protectedRanges>
   <mergeCells count="18">
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="W31:Y31"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
@@ -5513,6 +5508,11 @@
     <mergeCell ref="K31:M31"/>
     <mergeCell ref="O31:Q31"/>
     <mergeCell ref="S31:U31"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A30:E30 L29:M29 P29:Q29 H7:I29 G30:I30 K30:M30 O30:Q30 S7:U30 W29:Y30">
@@ -5807,8 +5807,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33:D44 C7:D29 C46:D56" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I59:I66 Y33:Y44 U33:U44 M33:M44 Q33:Q44 I33:I44 I46:I56 M46:M56 Q46:Q56 Y46:Y56 U46:U56 M59:M66 Q59:Q66 Y59:Y66 I7:I29 Y7:Y29 U7:U29 Q7:Q29 M7:M29 U59:U66" xr:uid="{BF1108E1-26DB-42ED-8030-59CD352434CB}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I29 M7:M29 Q7:Q29 U7:U29 Y7:Y29 Y33:Y44 U33:U44 Q33:Q44 M33:M44 I33:I44 I46:I56 M47:M56 Q46:Q56 M46 U46:U56 Y46:Y56 I59:I66 M59:M66 Q59:Q66 U59:U66 Y59:Y66" xr:uid="{A44CB454-A581-4842-9908-7E5C17FECDB8}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5818,21 +5818,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6041,32 +6026,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6083,4 +6058,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>